--- a/Car_accidents_Poland.xlsx
+++ b/Car_accidents_Poland.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politechnikawroclawska-my.sharepoint.com/personal/255535_student_pwr_edu_pl/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mag sem 3\Time Series Analysis\Project\Car_accidents_in_Poland_Adam_Kozakowski_Katarzyna_Bocian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F822DF-4FE3-4636-A848-8E57F4096E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B44AC31-342C-40CA-BFCE-CDE94DA7AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="0" windowWidth="14064" windowHeight="12120" xr2:uid="{41578785-AD49-4773-9237-9ACEEC48E3C9}"/>
+    <workbookView xWindow="13695" yWindow="690" windowWidth="14055" windowHeight="13050" xr2:uid="{41578785-AD49-4773-9237-9ACEEC48E3C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>https://policja.pl/pol/form/1,Informacja-dzienna.html?page=19</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Interventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arrested_red-handed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Detained_wanted </t>
   </si>
   <si>
     <t>Drivers_under_the_influence_of_alcohol</t>
@@ -62,20 +50,23 @@
     <t>Road_accidents</t>
   </si>
   <si>
-    <t xml:space="preserve"> Killed_in_accidents </t>
-  </si>
-  <si>
     <t>Injured_in_accidents</t>
   </si>
   <si>
-    <t>https://policja.pl/pol/form/1,Informacja-dzienna.html</t>
+    <t>Killed_in_accidents</t>
+  </si>
+  <si>
+    <t>Arrested_red-handed</t>
+  </si>
+  <si>
+    <t>Detained_wanted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,11 +105,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="5">
@@ -175,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,9 +189,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,46 +525,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6CC53F-12D5-46DA-9861-B5D8000FA22D}">
-  <dimension ref="A1:N736"/>
+  <dimension ref="A1:H736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="83.4" thickBot="1">
+    <row r="1" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45461</v>
       </c>
@@ -606,14 +589,8 @@
       <c r="H2" s="3">
         <v>90</v>
       </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45460</v>
       </c>
@@ -639,7 +616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45459</v>
       </c>
@@ -665,7 +642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45458</v>
       </c>
@@ -691,7 +668,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21.6" thickBot="1">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45457</v>
       </c>
@@ -716,12 +693,8 @@
       <c r="H6" s="3">
         <v>73</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="N6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45456</v>
       </c>
@@ -747,7 +720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45455</v>
       </c>
@@ -773,7 +746,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45454</v>
       </c>
@@ -799,7 +772,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45453</v>
       </c>
@@ -825,7 +798,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45452</v>
       </c>
@@ -851,7 +824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45451</v>
       </c>
@@ -877,7 +850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45450</v>
       </c>
@@ -903,7 +876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45449</v>
       </c>
@@ -929,7 +902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45448</v>
       </c>
@@ -955,7 +928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45447</v>
       </c>
@@ -981,7 +954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45446</v>
       </c>
@@ -1007,7 +980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45445</v>
       </c>
@@ -1033,7 +1006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45444</v>
       </c>
@@ -1059,7 +1032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45443</v>
       </c>
@@ -1085,7 +1058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45442</v>
       </c>
@@ -1111,7 +1084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45441</v>
       </c>
@@ -1137,7 +1110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45440</v>
       </c>
@@ -1163,7 +1136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1189,7 +1162,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45438</v>
       </c>
@@ -1215,7 +1188,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45437</v>
       </c>
@@ -1241,7 +1214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45436</v>
       </c>
@@ -1267,7 +1240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45435</v>
       </c>
@@ -1293,7 +1266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45434</v>
       </c>
@@ -1319,7 +1292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45433</v>
       </c>
@@ -1345,7 +1318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45432</v>
       </c>
@@ -1371,7 +1344,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45431</v>
       </c>
@@ -1397,7 +1370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>45430</v>
       </c>
@@ -1423,7 +1396,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45429</v>
       </c>
@@ -1449,7 +1422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>45428</v>
       </c>
@@ -1475,7 +1448,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45427</v>
       </c>
@@ -1501,7 +1474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>45426</v>
       </c>
@@ -1527,7 +1500,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45425</v>
       </c>
@@ -1553,7 +1526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>45424</v>
       </c>
@@ -1579,7 +1552,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45423</v>
       </c>
@@ -1605,7 +1578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>45422</v>
       </c>
@@ -1631,7 +1604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45421</v>
       </c>
@@ -1657,7 +1630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>45420</v>
       </c>
@@ -1683,7 +1656,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45419</v>
       </c>
@@ -1709,7 +1682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>45418</v>
       </c>
@@ -1735,7 +1708,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45417</v>
       </c>
@@ -1761,7 +1734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45416</v>
       </c>
@@ -1787,7 +1760,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45415</v>
       </c>
@@ -1813,7 +1786,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45414</v>
       </c>
@@ -1839,7 +1812,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45413</v>
       </c>
@@ -1865,7 +1838,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45412</v>
       </c>
@@ -1891,7 +1864,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>45411</v>
       </c>
@@ -1917,7 +1890,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45410</v>
       </c>
@@ -1943,7 +1916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45409</v>
       </c>
@@ -1969,7 +1942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45408</v>
       </c>
@@ -1995,7 +1968,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>45407</v>
       </c>
@@ -2021,7 +1994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45406</v>
       </c>
@@ -2047,7 +2020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>45405</v>
       </c>
@@ -2073,7 +2046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45404</v>
       </c>
@@ -2099,7 +2072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>45403</v>
       </c>
@@ -2125,7 +2098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45402</v>
       </c>
@@ -2151,7 +2124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45401</v>
       </c>
@@ -2177,7 +2150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>45400</v>
       </c>
@@ -2203,7 +2176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45399</v>
       </c>
@@ -2229,7 +2202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" thickBot="1">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>45398</v>
       </c>
@@ -2255,7 +2228,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45397</v>
       </c>
@@ -2281,7 +2254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>45396</v>
       </c>
@@ -2307,7 +2280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45395</v>
       </c>
@@ -2333,7 +2306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>45394</v>
       </c>
@@ -2359,7 +2332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45393</v>
       </c>
@@ -2385,7 +2358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" thickBot="1">
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>45392</v>
       </c>
@@ -2411,7 +2384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45391</v>
       </c>
@@ -2437,7 +2410,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" thickBot="1">
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>45390</v>
       </c>
@@ -2463,7 +2436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45389</v>
       </c>
@@ -2489,7 +2462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>45388</v>
       </c>
@@ -2515,7 +2488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" thickBot="1">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45387</v>
       </c>
@@ -2541,7 +2514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" thickBot="1">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45386</v>
       </c>
@@ -2567,7 +2540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>45385</v>
       </c>
@@ -2593,7 +2566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45384</v>
       </c>
@@ -2619,7 +2592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>45383</v>
       </c>
@@ -2645,7 +2618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45382</v>
       </c>
@@ -2671,7 +2644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>45381</v>
       </c>
@@ -2697,7 +2670,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45380</v>
       </c>
@@ -2723,7 +2696,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>45379</v>
       </c>
@@ -2749,7 +2722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45378</v>
       </c>
@@ -2775,7 +2748,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45377</v>
       </c>
@@ -2801,7 +2774,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45376</v>
       </c>
@@ -2827,7 +2800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>45375</v>
       </c>
@@ -2853,7 +2826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45374</v>
       </c>
@@ -2879,7 +2852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>45373</v>
       </c>
@@ -2905,7 +2878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45372</v>
       </c>
@@ -2931,7 +2904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45371</v>
       </c>
@@ -2957,7 +2930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>45370</v>
       </c>
@@ -2983,7 +2956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" thickBot="1">
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45369</v>
       </c>
@@ -3009,7 +2982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>45368</v>
       </c>
@@ -3035,7 +3008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45367</v>
       </c>
@@ -3061,7 +3034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" thickBot="1">
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>45366</v>
       </c>
@@ -3087,7 +3060,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" thickBot="1">
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45365</v>
       </c>
@@ -3113,7 +3086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" thickBot="1">
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>45364</v>
       </c>
@@ -3139,7 +3112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" thickBot="1">
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45363</v>
       </c>
@@ -3165,7 +3138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" thickBot="1">
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>45362</v>
       </c>
@@ -3191,7 +3164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" thickBot="1">
+    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45361</v>
       </c>
@@ -3217,7 +3190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" thickBot="1">
+    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>45360</v>
       </c>
@@ -3243,7 +3216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" thickBot="1">
+    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45359</v>
       </c>
@@ -3269,7 +3242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" thickBot="1">
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>45358</v>
       </c>
@@ -3295,7 +3268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" thickBot="1">
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45357</v>
       </c>
@@ -3321,7 +3294,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" thickBot="1">
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45356</v>
       </c>
@@ -3347,7 +3320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" thickBot="1">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>45355</v>
       </c>
@@ -3373,7 +3346,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" thickBot="1">
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45354</v>
       </c>
@@ -3399,7 +3372,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" thickBot="1">
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>45353</v>
       </c>
@@ -3425,7 +3398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" thickBot="1">
+    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45352</v>
       </c>
@@ -3451,7 +3424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" thickBot="1">
+    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>45351</v>
       </c>
@@ -3477,7 +3450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" thickBot="1">
+    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45350</v>
       </c>
@@ -3503,7 +3476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" thickBot="1">
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>45349</v>
       </c>
@@ -3529,7 +3502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" thickBot="1">
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45348</v>
       </c>
@@ -3555,7 +3528,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>45347</v>
       </c>
@@ -3581,7 +3554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45346</v>
       </c>
@@ -3607,7 +3580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" thickBot="1">
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>45345</v>
       </c>
@@ -3633,7 +3606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45344</v>
       </c>
@@ -3659,7 +3632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" thickBot="1">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>45343</v>
       </c>
@@ -3685,7 +3658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45342</v>
       </c>
@@ -3711,7 +3684,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45341</v>
       </c>
@@ -3737,7 +3710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" thickBot="1">
+    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>45340</v>
       </c>
@@ -3763,7 +3736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" thickBot="1">
+    <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45339</v>
       </c>
@@ -3789,7 +3762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" thickBot="1">
+    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>45338</v>
       </c>
@@ -3815,7 +3788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45337</v>
       </c>
@@ -3841,7 +3814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>45336</v>
       </c>
@@ -3867,7 +3840,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>45335</v>
       </c>
@@ -3893,7 +3866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" thickBot="1">
+    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>45334</v>
       </c>
@@ -3919,7 +3892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" thickBot="1">
+    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>45333</v>
       </c>
@@ -3945,7 +3918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" thickBot="1">
+    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>45332</v>
       </c>
@@ -3971,7 +3944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" thickBot="1">
+    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>45331</v>
       </c>
@@ -3997,7 +3970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" thickBot="1">
+    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>45330</v>
       </c>
@@ -4023,7 +3996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" thickBot="1">
+    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>45329</v>
       </c>
@@ -4049,7 +4022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" thickBot="1">
+    <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>45328</v>
       </c>
@@ -4075,7 +4048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" thickBot="1">
+    <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>45327</v>
       </c>
@@ -4101,7 +4074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" thickBot="1">
+    <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>45326</v>
       </c>
@@ -4127,7 +4100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" thickBot="1">
+    <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>45325</v>
       </c>
@@ -4153,7 +4126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" thickBot="1">
+    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>45324</v>
       </c>
@@ -4179,7 +4152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" thickBot="1">
+    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>45323</v>
       </c>
@@ -4205,7 +4178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15" thickBot="1">
+    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>45322</v>
       </c>
@@ -4231,7 +4204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" thickBot="1">
+    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>45321</v>
       </c>
@@ -4257,7 +4230,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" thickBot="1">
+    <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>45320</v>
       </c>
@@ -4283,7 +4256,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" thickBot="1">
+    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>45319</v>
       </c>
@@ -4309,7 +4282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15" thickBot="1">
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>45318</v>
       </c>
@@ -4335,7 +4308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15" thickBot="1">
+    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>45317</v>
       </c>
@@ -4361,7 +4334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15" thickBot="1">
+    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>45316</v>
       </c>
@@ -4387,7 +4360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15" thickBot="1">
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>45315</v>
       </c>
@@ -4413,7 +4386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15" thickBot="1">
+    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45314</v>
       </c>
@@ -4439,7 +4412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15" thickBot="1">
+    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>45313</v>
       </c>
@@ -4465,7 +4438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15" thickBot="1">
+    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>45312</v>
       </c>
@@ -4491,7 +4464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15" thickBot="1">
+    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>45311</v>
       </c>
@@ -4517,7 +4490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15" thickBot="1">
+    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>45310</v>
       </c>
@@ -4543,7 +4516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15" thickBot="1">
+    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>45309</v>
       </c>
@@ -4569,7 +4542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15" thickBot="1">
+    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>45308</v>
       </c>
@@ -4595,7 +4568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15" thickBot="1">
+    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>45307</v>
       </c>
@@ -4621,7 +4594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15" thickBot="1">
+    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>45306</v>
       </c>
@@ -4647,7 +4620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15" thickBot="1">
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>45305</v>
       </c>
@@ -4673,7 +4646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15" thickBot="1">
+    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>45304</v>
       </c>
@@ -4699,7 +4672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15" thickBot="1">
+    <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>45303</v>
       </c>
@@ -4725,7 +4698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15" thickBot="1">
+    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>45302</v>
       </c>
@@ -4751,7 +4724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15" thickBot="1">
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>45301</v>
       </c>
@@ -4777,7 +4750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15" thickBot="1">
+    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>45300</v>
       </c>
@@ -4803,7 +4776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15" thickBot="1">
+    <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>45299</v>
       </c>
@@ -4829,7 +4802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15" thickBot="1">
+    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>45298</v>
       </c>
@@ -4855,7 +4828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15" thickBot="1">
+    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>45297</v>
       </c>
@@ -4881,7 +4854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15" thickBot="1">
+    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>45296</v>
       </c>
@@ -4907,7 +4880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15" thickBot="1">
+    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>45295</v>
       </c>
@@ -4933,7 +4906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15" thickBot="1">
+    <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>45294</v>
       </c>
@@ -4959,7 +4932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15" thickBot="1">
+    <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>45293</v>
       </c>
@@ -4985,7 +4958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15" thickBot="1">
+    <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>45292</v>
       </c>
@@ -5011,7 +4984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15" thickBot="1">
+    <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>45291</v>
       </c>
@@ -5037,7 +5010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15" thickBot="1">
+    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>45290</v>
       </c>
@@ -5063,7 +5036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15" thickBot="1">
+    <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>45289</v>
       </c>
@@ -5089,7 +5062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15" thickBot="1">
+    <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>45288</v>
       </c>
@@ -5115,7 +5088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15" thickBot="1">
+    <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>45287</v>
       </c>
@@ -5141,7 +5114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15" thickBot="1">
+    <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>45286</v>
       </c>
@@ -5167,7 +5140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15" thickBot="1">
+    <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>45285</v>
       </c>
@@ -5193,7 +5166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15" thickBot="1">
+    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>45284</v>
       </c>
@@ -5219,7 +5192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15" thickBot="1">
+    <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>45283</v>
       </c>
@@ -5245,7 +5218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15" thickBot="1">
+    <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>45282</v>
       </c>
@@ -5271,7 +5244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15" thickBot="1">
+    <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>45281</v>
       </c>
@@ -5297,7 +5270,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15" thickBot="1">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>45280</v>
       </c>
@@ -5323,7 +5296,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15" thickBot="1">
+    <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>45279</v>
       </c>
@@ -5349,7 +5322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15" thickBot="1">
+    <row r="185" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>45278</v>
       </c>
@@ -5375,7 +5348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15" thickBot="1">
+    <row r="186" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>45277</v>
       </c>
@@ -5401,7 +5374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15" thickBot="1">
+    <row r="187" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>45276</v>
       </c>
@@ -5427,7 +5400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15" thickBot="1">
+    <row r="188" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>45275</v>
       </c>
@@ -5453,7 +5426,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15" thickBot="1">
+    <row r="189" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>45274</v>
       </c>
@@ -5479,7 +5452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15" thickBot="1">
+    <row r="190" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>45273</v>
       </c>
@@ -5505,7 +5478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15" thickBot="1">
+    <row r="191" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>45272</v>
       </c>
@@ -5531,7 +5504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15" thickBot="1">
+    <row r="192" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>45271</v>
       </c>
@@ -5557,7 +5530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15" thickBot="1">
+    <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>45270</v>
       </c>
@@ -5583,7 +5556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15" thickBot="1">
+    <row r="194" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>45269</v>
       </c>
@@ -5609,7 +5582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15" thickBot="1">
+    <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>45268</v>
       </c>
@@ -5635,7 +5608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15" thickBot="1">
+    <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>45267</v>
       </c>
@@ -5661,7 +5634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15" thickBot="1">
+    <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>45266</v>
       </c>
@@ -5687,7 +5660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15" thickBot="1">
+    <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>45265</v>
       </c>
@@ -5713,7 +5686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15" thickBot="1">
+    <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>45264</v>
       </c>
@@ -5739,7 +5712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15" thickBot="1">
+    <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>45263</v>
       </c>
@@ -5765,7 +5738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15" thickBot="1">
+    <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>45262</v>
       </c>
@@ -5791,7 +5764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15" thickBot="1">
+    <row r="202" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>45261</v>
       </c>
@@ -5817,7 +5790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15" thickBot="1">
+    <row r="203" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>45260</v>
       </c>
@@ -5843,7 +5816,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15" thickBot="1">
+    <row r="204" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>45259</v>
       </c>
@@ -5869,7 +5842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15" thickBot="1">
+    <row r="205" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>45258</v>
       </c>
@@ -5895,7 +5868,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15" thickBot="1">
+    <row r="206" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>45257</v>
       </c>
@@ -5921,7 +5894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15" thickBot="1">
+    <row r="207" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>45256</v>
       </c>
@@ -5947,7 +5920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15" thickBot="1">
+    <row r="208" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>45255</v>
       </c>
@@ -5973,7 +5946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15" thickBot="1">
+    <row r="209" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>45254</v>
       </c>
@@ -5999,7 +5972,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15" thickBot="1">
+    <row r="210" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>45253</v>
       </c>
@@ -6025,7 +5998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15" thickBot="1">
+    <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>45252</v>
       </c>
@@ -6051,7 +6024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15" thickBot="1">
+    <row r="212" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>45251</v>
       </c>
@@ -6077,7 +6050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15" thickBot="1">
+    <row r="213" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>45250</v>
       </c>
@@ -6103,7 +6076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15" thickBot="1">
+    <row r="214" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>45249</v>
       </c>
@@ -6129,7 +6102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15" thickBot="1">
+    <row r="215" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>45248</v>
       </c>
@@ -6155,7 +6128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15" thickBot="1">
+    <row r="216" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>45247</v>
       </c>
@@ -6181,7 +6154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15" thickBot="1">
+    <row r="217" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>45246</v>
       </c>
@@ -6207,7 +6180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15" thickBot="1">
+    <row r="218" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>45245</v>
       </c>
@@ -6233,7 +6206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15" thickBot="1">
+    <row r="219" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>45244</v>
       </c>
@@ -6259,7 +6232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15" thickBot="1">
+    <row r="220" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>45243</v>
       </c>
@@ -6285,7 +6258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15" thickBot="1">
+    <row r="221" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>45242</v>
       </c>
@@ -6311,7 +6284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15" thickBot="1">
+    <row r="222" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>45241</v>
       </c>
@@ -6337,7 +6310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15" thickBot="1">
+    <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>45240</v>
       </c>
@@ -6363,7 +6336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15" thickBot="1">
+    <row r="224" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>45239</v>
       </c>
@@ -6389,7 +6362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15" thickBot="1">
+    <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>45238</v>
       </c>
@@ -6415,7 +6388,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15" thickBot="1">
+    <row r="226" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>45237</v>
       </c>
@@ -6441,7 +6414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15" thickBot="1">
+    <row r="227" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>45236</v>
       </c>
@@ -6467,7 +6440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15" thickBot="1">
+    <row r="228" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>45235</v>
       </c>
@@ -6493,7 +6466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15" thickBot="1">
+    <row r="229" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>45234</v>
       </c>
@@ -6519,7 +6492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15" thickBot="1">
+    <row r="230" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>45233</v>
       </c>
@@ -6545,7 +6518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15" thickBot="1">
+    <row r="231" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>45232</v>
       </c>
@@ -6571,7 +6544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15" thickBot="1">
+    <row r="232" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>45231</v>
       </c>
@@ -6597,7 +6570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15" thickBot="1">
+    <row r="233" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>45230</v>
       </c>
@@ -6623,7 +6596,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15" thickBot="1">
+    <row r="234" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>45229</v>
       </c>
@@ -6649,7 +6622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15" thickBot="1">
+    <row r="235" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>45228</v>
       </c>
@@ -6675,7 +6648,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15" thickBot="1">
+    <row r="236" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>45227</v>
       </c>
@@ -6701,7 +6674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15" thickBot="1">
+    <row r="237" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>45226</v>
       </c>
@@ -6727,7 +6700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15" thickBot="1">
+    <row r="238" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>45225</v>
       </c>
@@ -6753,7 +6726,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15" thickBot="1">
+    <row r="239" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>45224</v>
       </c>
@@ -6779,7 +6752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15" thickBot="1">
+    <row r="240" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>45223</v>
       </c>
@@ -6805,7 +6778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15" thickBot="1">
+    <row r="241" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>45222</v>
       </c>
@@ -6831,7 +6804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15" thickBot="1">
+    <row r="242" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>45221</v>
       </c>
@@ -6857,7 +6830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15" thickBot="1">
+    <row r="243" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>45220</v>
       </c>
@@ -6883,7 +6856,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15" thickBot="1">
+    <row r="244" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>45219</v>
       </c>
@@ -6909,7 +6882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15" thickBot="1">
+    <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>45218</v>
       </c>
@@ -6935,7 +6908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15" thickBot="1">
+    <row r="246" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>45217</v>
       </c>
@@ -6961,7 +6934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15" thickBot="1">
+    <row r="247" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>45216</v>
       </c>
@@ -6987,7 +6960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15" thickBot="1">
+    <row r="248" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>45215</v>
       </c>
@@ -7013,7 +6986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15" thickBot="1">
+    <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>45214</v>
       </c>
@@ -7039,7 +7012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15" thickBot="1">
+    <row r="250" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>45213</v>
       </c>
@@ -7065,7 +7038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15" thickBot="1">
+    <row r="251" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>45212</v>
       </c>
@@ -7091,7 +7064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15" thickBot="1">
+    <row r="252" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>45211</v>
       </c>
@@ -7117,7 +7090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15" thickBot="1">
+    <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>45210</v>
       </c>
@@ -7143,7 +7116,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15" thickBot="1">
+    <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>45209</v>
       </c>
@@ -7169,7 +7142,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15" thickBot="1">
+    <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>45208</v>
       </c>
@@ -7195,7 +7168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="15" thickBot="1">
+    <row r="256" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>45207</v>
       </c>
@@ -7221,7 +7194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="15" thickBot="1">
+    <row r="257" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>45206</v>
       </c>
@@ -7247,7 +7220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15" thickBot="1">
+    <row r="258" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>45205</v>
       </c>
@@ -7273,7 +7246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15" thickBot="1">
+    <row r="259" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>45204</v>
       </c>
@@ -7299,7 +7272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15" thickBot="1">
+    <row r="260" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>45203</v>
       </c>
@@ -7325,7 +7298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15" thickBot="1">
+    <row r="261" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>45202</v>
       </c>
@@ -7351,7 +7324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="15" thickBot="1">
+    <row r="262" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>45201</v>
       </c>
@@ -7377,7 +7350,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="15" thickBot="1">
+    <row r="263" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>45200</v>
       </c>
@@ -7403,7 +7376,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15" thickBot="1">
+    <row r="264" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>45199</v>
       </c>
@@ -7429,7 +7402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15" thickBot="1">
+    <row r="265" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>45198</v>
       </c>
@@ -7455,7 +7428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="15" thickBot="1">
+    <row r="266" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>45197</v>
       </c>
@@ -7481,7 +7454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15" thickBot="1">
+    <row r="267" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>45196</v>
       </c>
@@ -7507,7 +7480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15" thickBot="1">
+    <row r="268" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>45195</v>
       </c>
@@ -7533,7 +7506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="15" thickBot="1">
+    <row r="269" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>45194</v>
       </c>
@@ -7559,7 +7532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15" thickBot="1">
+    <row r="270" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>45193</v>
       </c>
@@ -7585,7 +7558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="15" thickBot="1">
+    <row r="271" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>45192</v>
       </c>
@@ -7611,7 +7584,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="15" thickBot="1">
+    <row r="272" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>45191</v>
       </c>
@@ -7637,7 +7610,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15" thickBot="1">
+    <row r="273" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>45190</v>
       </c>
@@ -7663,7 +7636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15" thickBot="1">
+    <row r="274" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>45189</v>
       </c>
@@ -7689,7 +7662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15" thickBot="1">
+    <row r="275" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>45188</v>
       </c>
@@ -7715,7 +7688,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15" thickBot="1">
+    <row r="276" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>45187</v>
       </c>
@@ -7741,7 +7714,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15" thickBot="1">
+    <row r="277" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>45186</v>
       </c>
@@ -7767,7 +7740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15" thickBot="1">
+    <row r="278" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>45185</v>
       </c>
@@ -7793,7 +7766,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15" thickBot="1">
+    <row r="279" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>45184</v>
       </c>
@@ -7819,7 +7792,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15" thickBot="1">
+    <row r="280" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>45183</v>
       </c>
@@ -7845,7 +7818,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15" thickBot="1">
+    <row r="281" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>45182</v>
       </c>
@@ -7871,7 +7844,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15" thickBot="1">
+    <row r="282" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>45181</v>
       </c>
@@ -7897,7 +7870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15" thickBot="1">
+    <row r="283" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>45180</v>
       </c>
@@ -7923,7 +7896,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15" thickBot="1">
+    <row r="284" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>45179</v>
       </c>
@@ -7949,7 +7922,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15" thickBot="1">
+    <row r="285" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>45178</v>
       </c>
@@ -7975,7 +7948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15" thickBot="1">
+    <row r="286" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>45177</v>
       </c>
@@ -8001,7 +7974,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15" thickBot="1">
+    <row r="287" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>45176</v>
       </c>
@@ -8027,7 +8000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15" thickBot="1">
+    <row r="288" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>45175</v>
       </c>
@@ -8053,7 +8026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="15" thickBot="1">
+    <row r="289" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>45174</v>
       </c>
@@ -8079,7 +8052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15" thickBot="1">
+    <row r="290" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>45173</v>
       </c>
@@ -8105,7 +8078,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="15" thickBot="1">
+    <row r="291" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>45172</v>
       </c>
@@ -8131,7 +8104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="15" thickBot="1">
+    <row r="292" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>45171</v>
       </c>
@@ -8157,7 +8130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="15" thickBot="1">
+    <row r="293" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>45170</v>
       </c>
@@ -8183,7 +8156,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="15" thickBot="1">
+    <row r="294" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>45169</v>
       </c>
@@ -8209,7 +8182,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="15" thickBot="1">
+    <row r="295" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>45168</v>
       </c>
@@ -8235,7 +8208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15" thickBot="1">
+    <row r="296" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>45167</v>
       </c>
@@ -8261,7 +8234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="15" thickBot="1">
+    <row r="297" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>45166</v>
       </c>
@@ -8287,7 +8260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="15" thickBot="1">
+    <row r="298" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>45165</v>
       </c>
@@ -8313,7 +8286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="15" thickBot="1">
+    <row r="299" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>45164</v>
       </c>
@@ -8339,7 +8312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="15" thickBot="1">
+    <row r="300" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>45163</v>
       </c>
@@ -8365,7 +8338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="15" thickBot="1">
+    <row r="301" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>45162</v>
       </c>
@@ -8391,7 +8364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="15" thickBot="1">
+    <row r="302" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>45161</v>
       </c>
@@ -8417,7 +8390,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="15" thickBot="1">
+    <row r="303" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>45160</v>
       </c>
@@ -8443,7 +8416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="15" thickBot="1">
+    <row r="304" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>45159</v>
       </c>
@@ -8469,7 +8442,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="15" thickBot="1">
+    <row r="305" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>45158</v>
       </c>
@@ -8495,7 +8468,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="15" thickBot="1">
+    <row r="306" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>45157</v>
       </c>
@@ -8521,7 +8494,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="15" thickBot="1">
+    <row r="307" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>45156</v>
       </c>
@@ -8547,7 +8520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="15" thickBot="1">
+    <row r="308" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>45155</v>
       </c>
@@ -8573,7 +8546,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="15" thickBot="1">
+    <row r="309" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>45154</v>
       </c>
@@ -8599,7 +8572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="15" thickBot="1">
+    <row r="310" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>45153</v>
       </c>
@@ -8625,7 +8598,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="15" thickBot="1">
+    <row r="311" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>45152</v>
       </c>
@@ -8651,7 +8624,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="15" thickBot="1">
+    <row r="312" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>45151</v>
       </c>
@@ -8677,7 +8650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="15" thickBot="1">
+    <row r="313" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>45150</v>
       </c>
@@ -8703,7 +8676,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15" thickBot="1">
+    <row r="314" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>45149</v>
       </c>
@@ -8729,7 +8702,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="15" thickBot="1">
+    <row r="315" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>45148</v>
       </c>
@@ -8755,7 +8728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="15" thickBot="1">
+    <row r="316" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>45147</v>
       </c>
@@ -8781,7 +8754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="15" thickBot="1">
+    <row r="317" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>45146</v>
       </c>
@@ -8807,7 +8780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="15" thickBot="1">
+    <row r="318" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>45145</v>
       </c>
@@ -8833,7 +8806,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="15" thickBot="1">
+    <row r="319" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>45144</v>
       </c>
@@ -8859,7 +8832,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="15" thickBot="1">
+    <row r="320" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>45143</v>
       </c>
@@ -8885,7 +8858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="15" thickBot="1">
+    <row r="321" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>45142</v>
       </c>
@@ -8911,7 +8884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15" thickBot="1">
+    <row r="322" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>45141</v>
       </c>
@@ -8937,7 +8910,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="15" thickBot="1">
+    <row r="323" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>45140</v>
       </c>
@@ -8963,7 +8936,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="15" thickBot="1">
+    <row r="324" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>45139</v>
       </c>
@@ -8989,9 +8962,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="15" thickBot="1">
+    <row r="325" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B325" s="8">
         <v>15767</v>
@@ -9015,7 +8988,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="15" thickBot="1">
+    <row r="326" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>45137</v>
       </c>
@@ -9041,7 +9014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="15" thickBot="1">
+    <row r="327" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>45136</v>
       </c>
@@ -9067,7 +9040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="15" thickBot="1">
+    <row r="328" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>45135</v>
       </c>
@@ -9093,7 +9066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="15" thickBot="1">
+    <row r="329" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>45134</v>
       </c>
@@ -9119,7 +9092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15" thickBot="1">
+    <row r="330" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>45133</v>
       </c>
@@ -9145,7 +9118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="15" thickBot="1">
+    <row r="331" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>45132</v>
       </c>
@@ -9171,7 +9144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="15" thickBot="1">
+    <row r="332" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>45131</v>
       </c>
@@ -9197,7 +9170,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="15" thickBot="1">
+    <row r="333" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>45130</v>
       </c>
@@ -9223,7 +9196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="15" thickBot="1">
+    <row r="334" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>45129</v>
       </c>
@@ -9249,7 +9222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="15" thickBot="1">
+    <row r="335" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>45128</v>
       </c>
@@ -9275,7 +9248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="15" thickBot="1">
+    <row r="336" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>45127</v>
       </c>
@@ -9301,7 +9274,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="15" thickBot="1">
+    <row r="337" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>45126</v>
       </c>
@@ -9327,7 +9300,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="15" thickBot="1">
+    <row r="338" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>45125</v>
       </c>
@@ -9353,7 +9326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15" thickBot="1">
+    <row r="339" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>45124</v>
       </c>
@@ -9379,7 +9352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15" thickBot="1">
+    <row r="340" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>45123</v>
       </c>
@@ -9405,7 +9378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="15" thickBot="1">
+    <row r="341" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>45122</v>
       </c>
@@ -9431,7 +9404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="15" thickBot="1">
+    <row r="342" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>45121</v>
       </c>
@@ -9457,7 +9430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="15" thickBot="1">
+    <row r="343" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>45120</v>
       </c>
@@ -9483,7 +9456,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="15" thickBot="1">
+    <row r="344" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>45119</v>
       </c>
@@ -9509,7 +9482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15" thickBot="1">
+    <row r="345" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>45118</v>
       </c>
@@ -9535,7 +9508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="15" thickBot="1">
+    <row r="346" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>45117</v>
       </c>
@@ -9561,7 +9534,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15" thickBot="1">
+    <row r="347" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>45116</v>
       </c>
@@ -9587,7 +9560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15" thickBot="1">
+    <row r="348" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>45115</v>
       </c>
@@ -9613,7 +9586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15" thickBot="1">
+    <row r="349" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>45114</v>
       </c>
@@ -9639,7 +9612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="15" thickBot="1">
+    <row r="350" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>45113</v>
       </c>
@@ -9665,7 +9638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="15" thickBot="1">
+    <row r="351" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>45112</v>
       </c>
@@ -9691,7 +9664,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="15" thickBot="1">
+    <row r="352" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>45111</v>
       </c>
@@ -9717,7 +9690,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="15" thickBot="1">
+    <row r="353" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>45110</v>
       </c>
@@ -9743,7 +9716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="15" thickBot="1">
+    <row r="354" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>45109</v>
       </c>
@@ -9769,7 +9742,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15" thickBot="1">
+    <row r="355" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>45108</v>
       </c>
@@ -9795,7 +9768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="15" thickBot="1">
+    <row r="356" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>45107</v>
       </c>
@@ -9821,7 +9794,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="15" thickBot="1">
+    <row r="357" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>45106</v>
       </c>
@@ -9847,7 +9820,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="15" thickBot="1">
+    <row r="358" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>45105</v>
       </c>
@@ -9873,7 +9846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="15" thickBot="1">
+    <row r="359" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>45104</v>
       </c>
@@ -9899,7 +9872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="15" thickBot="1">
+    <row r="360" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>45103</v>
       </c>
@@ -9925,7 +9898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="15" thickBot="1">
+    <row r="361" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>45102</v>
       </c>
@@ -9951,7 +9924,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="15" thickBot="1">
+    <row r="362" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>45101</v>
       </c>
@@ -9977,7 +9950,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="15" thickBot="1">
+    <row r="363" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>45100</v>
       </c>
@@ -10003,7 +9976,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="15" thickBot="1">
+    <row r="364" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>45099</v>
       </c>
@@ -10029,7 +10002,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15" thickBot="1">
+    <row r="365" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>45098</v>
       </c>
@@ -10055,7 +10028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="15" thickBot="1">
+    <row r="366" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>45097</v>
       </c>
@@ -10081,7 +10054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="15" thickBot="1">
+    <row r="367" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <v>45096</v>
       </c>
@@ -10107,7 +10080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15" thickBot="1">
+    <row r="368" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>45095</v>
       </c>
@@ -10133,7 +10106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="15" thickBot="1">
+    <row r="369" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <v>45094</v>
       </c>
@@ -10159,7 +10132,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="15" thickBot="1">
+    <row r="370" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>45093</v>
       </c>
@@ -10185,7 +10158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="15" thickBot="1">
+    <row r="371" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
         <v>45092</v>
       </c>
@@ -10211,7 +10184,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="15" thickBot="1">
+    <row r="372" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>45091</v>
       </c>
@@ -10237,7 +10210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="15" thickBot="1">
+    <row r="373" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
         <v>45090</v>
       </c>
@@ -10263,7 +10236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="15" thickBot="1">
+    <row r="374" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>45089</v>
       </c>
@@ -10289,7 +10262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="15" thickBot="1">
+    <row r="375" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
         <v>45088</v>
       </c>
@@ -10315,7 +10288,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="15" thickBot="1">
+    <row r="376" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>45087</v>
       </c>
@@ -10341,7 +10314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="15" thickBot="1">
+    <row r="377" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>45086</v>
       </c>
@@ -10367,7 +10340,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15" thickBot="1">
+    <row r="378" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
         <v>45085</v>
       </c>
@@ -10393,7 +10366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="15" thickBot="1">
+    <row r="379" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>45084</v>
       </c>
@@ -10419,7 +10392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="15" thickBot="1">
+    <row r="380" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
         <v>45083</v>
       </c>
@@ -10445,7 +10418,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="15" thickBot="1">
+    <row r="381" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>45082</v>
       </c>
@@ -10471,7 +10444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="15" thickBot="1">
+    <row r="382" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
         <v>45081</v>
       </c>
@@ -10497,7 +10470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="15" thickBot="1">
+    <row r="383" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>45080</v>
       </c>
@@ -10523,7 +10496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="15" thickBot="1">
+    <row r="384" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
         <v>45079</v>
       </c>
@@ -10549,7 +10522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="15" thickBot="1">
+    <row r="385" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>45078</v>
       </c>
@@ -10575,7 +10548,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="15" thickBot="1">
+    <row r="386" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
         <v>45077</v>
       </c>
@@ -10601,7 +10574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="15" thickBot="1">
+    <row r="387" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>45076</v>
       </c>
@@ -10627,7 +10600,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="15" thickBot="1">
+    <row r="388" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
         <v>45075</v>
       </c>
@@ -10653,7 +10626,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="15" thickBot="1">
+    <row r="389" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>45074</v>
       </c>
@@ -10679,7 +10652,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="15" thickBot="1">
+    <row r="390" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <v>45073</v>
       </c>
@@ -10705,7 +10678,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="15" thickBot="1">
+    <row r="391" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>45072</v>
       </c>
@@ -10731,7 +10704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="15" thickBot="1">
+    <row r="392" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>45071</v>
       </c>
@@ -10757,7 +10730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="15" thickBot="1">
+    <row r="393" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
         <v>45070</v>
       </c>
@@ -10783,7 +10756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="15" thickBot="1">
+    <row r="394" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>45069</v>
       </c>
@@ -10809,7 +10782,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="15" thickBot="1">
+    <row r="395" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
         <v>45068</v>
       </c>
@@ -10835,7 +10808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="15" thickBot="1">
+    <row r="396" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>45067</v>
       </c>
@@ -10861,7 +10834,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="15" thickBot="1">
+    <row r="397" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
         <v>45066</v>
       </c>
@@ -10887,7 +10860,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="15" thickBot="1">
+    <row r="398" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>45065</v>
       </c>
@@ -10913,7 +10886,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="15" thickBot="1">
+    <row r="399" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
         <v>45064</v>
       </c>
@@ -10939,7 +10912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="15" thickBot="1">
+    <row r="400" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>45063</v>
       </c>
@@ -10965,7 +10938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="15" thickBot="1">
+    <row r="401" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
         <v>45062</v>
       </c>
@@ -10991,7 +10964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="15" thickBot="1">
+    <row r="402" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>45061</v>
       </c>
@@ -11017,7 +10990,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="15" thickBot="1">
+    <row r="403" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
         <v>45060</v>
       </c>
@@ -11043,7 +11016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="15" thickBot="1">
+    <row r="404" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>45059</v>
       </c>
@@ -11069,7 +11042,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="15" thickBot="1">
+    <row r="405" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
         <v>45058</v>
       </c>
@@ -11095,7 +11068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="15" thickBot="1">
+    <row r="406" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>45057</v>
       </c>
@@ -11121,7 +11094,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="15" thickBot="1">
+    <row r="407" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>45056</v>
       </c>
@@ -11147,7 +11120,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="15" thickBot="1">
+    <row r="408" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
         <v>45055</v>
       </c>
@@ -11173,7 +11146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="15" thickBot="1">
+    <row r="409" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>45054</v>
       </c>
@@ -11199,7 +11172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="15" thickBot="1">
+    <row r="410" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
         <v>45053</v>
       </c>
@@ -11225,7 +11198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="15" thickBot="1">
+    <row r="411" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>45052</v>
       </c>
@@ -11251,7 +11224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="15" thickBot="1">
+    <row r="412" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
         <v>45051</v>
       </c>
@@ -11277,7 +11250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="15" thickBot="1">
+    <row r="413" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>45050</v>
       </c>
@@ -11303,7 +11276,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="15" thickBot="1">
+    <row r="414" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
         <v>45049</v>
       </c>
@@ -11329,7 +11302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="15" thickBot="1">
+    <row r="415" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>45048</v>
       </c>
@@ -11355,7 +11328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="15" thickBot="1">
+    <row r="416" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
         <v>45047</v>
       </c>
@@ -11381,7 +11354,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="15" thickBot="1">
+    <row r="417" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>45046</v>
       </c>
@@ -11407,7 +11380,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="15" thickBot="1">
+    <row r="418" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
         <v>45045</v>
       </c>
@@ -11433,7 +11406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="15" thickBot="1">
+    <row r="419" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>45044</v>
       </c>
@@ -11459,7 +11432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="15" thickBot="1">
+    <row r="420" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
         <v>45043</v>
       </c>
@@ -11485,7 +11458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="15" thickBot="1">
+    <row r="421" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>45042</v>
       </c>
@@ -11511,7 +11484,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="15" thickBot="1">
+    <row r="422" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>45041</v>
       </c>
@@ -11537,7 +11510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="15" thickBot="1">
+    <row r="423" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
         <v>45040</v>
       </c>
@@ -11563,7 +11536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="15" thickBot="1">
+    <row r="424" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>45039</v>
       </c>
@@ -11589,7 +11562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="15" thickBot="1">
+    <row r="425" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
         <v>45038</v>
       </c>
@@ -11615,7 +11588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="15" thickBot="1">
+    <row r="426" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>45037</v>
       </c>
@@ -11641,7 +11614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="15" thickBot="1">
+    <row r="427" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
         <v>45036</v>
       </c>
@@ -11667,7 +11640,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="15" thickBot="1">
+    <row r="428" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>45035</v>
       </c>
@@ -11693,7 +11666,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="15" thickBot="1">
+    <row r="429" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
         <v>45034</v>
       </c>
@@ -11719,7 +11692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="15" thickBot="1">
+    <row r="430" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>45033</v>
       </c>
@@ -11745,7 +11718,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="15" thickBot="1">
+    <row r="431" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
         <v>45032</v>
       </c>
@@ -11771,7 +11744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="15" thickBot="1">
+    <row r="432" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>45031</v>
       </c>
@@ -11797,7 +11770,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="15" thickBot="1">
+    <row r="433" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
         <v>45030</v>
       </c>
@@ -11823,7 +11796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="15" thickBot="1">
+    <row r="434" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>45029</v>
       </c>
@@ -11849,7 +11822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="15" thickBot="1">
+    <row r="435" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
         <v>45028</v>
       </c>
@@ -11875,7 +11848,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="15" thickBot="1">
+    <row r="436" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>45027</v>
       </c>
@@ -11901,7 +11874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="15" thickBot="1">
+    <row r="437" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>45026</v>
       </c>
@@ -11927,7 +11900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="15" thickBot="1">
+    <row r="438" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
         <v>45025</v>
       </c>
@@ -11953,7 +11926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="15" thickBot="1">
+    <row r="439" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>45024</v>
       </c>
@@ -11979,7 +11952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="15" thickBot="1">
+    <row r="440" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="4">
         <v>45023</v>
       </c>
@@ -12005,7 +11978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="15" thickBot="1">
+    <row r="441" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>45022</v>
       </c>
@@ -12031,7 +12004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="15" thickBot="1">
+    <row r="442" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
         <v>45021</v>
       </c>
@@ -12057,7 +12030,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="15" thickBot="1">
+    <row r="443" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>45021</v>
       </c>
@@ -12083,7 +12056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="15" thickBot="1">
+    <row r="444" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
         <v>45019</v>
       </c>
@@ -12109,7 +12082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="15" thickBot="1">
+    <row r="445" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>45018</v>
       </c>
@@ -12135,7 +12108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="15" thickBot="1">
+    <row r="446" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
         <v>45017</v>
       </c>
@@ -12161,7 +12134,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="15" thickBot="1">
+    <row r="447" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>45016</v>
       </c>
@@ -12187,7 +12160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="15" thickBot="1">
+    <row r="448" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="4">
         <v>45015</v>
       </c>
@@ -12213,7 +12186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="15" thickBot="1">
+    <row r="449" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>45014</v>
       </c>
@@ -12239,7 +12212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="15" thickBot="1">
+    <row r="450" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4">
         <v>45013</v>
       </c>
@@ -12265,7 +12238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="15" thickBot="1">
+    <row r="451" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>45012</v>
       </c>
@@ -12291,7 +12264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="15" thickBot="1">
+    <row r="452" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>45011</v>
       </c>
@@ -12317,7 +12290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="15" thickBot="1">
+    <row r="453" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="4">
         <v>45010</v>
       </c>
@@ -12343,7 +12316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="15" thickBot="1">
+    <row r="454" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>45009</v>
       </c>
@@ -12369,7 +12342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="15" thickBot="1">
+    <row r="455" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="4">
         <v>45008</v>
       </c>
@@ -12395,7 +12368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="15" thickBot="1">
+    <row r="456" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>45007</v>
       </c>
@@ -12421,7 +12394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="15" thickBot="1">
+    <row r="457" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="4">
         <v>45006</v>
       </c>
@@ -12447,7 +12420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="15" thickBot="1">
+    <row r="458" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>45005</v>
       </c>
@@ -12473,7 +12446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="15" thickBot="1">
+    <row r="459" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="4">
         <v>45004</v>
       </c>
@@ -12499,7 +12472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="15" thickBot="1">
+    <row r="460" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>45003</v>
       </c>
@@ -12525,7 +12498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="15" thickBot="1">
+    <row r="461" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="4">
         <v>45002</v>
       </c>
@@ -12551,7 +12524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="15" thickBot="1">
+    <row r="462" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>45001</v>
       </c>
@@ -12577,7 +12550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="15" thickBot="1">
+    <row r="463" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="4">
         <v>45000</v>
       </c>
@@ -12603,7 +12576,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="15" thickBot="1">
+    <row r="464" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>44999</v>
       </c>
@@ -12629,7 +12602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="15" thickBot="1">
+    <row r="465" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="4">
         <v>44998</v>
       </c>
@@ -12655,7 +12628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="15" thickBot="1">
+    <row r="466" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>44997</v>
       </c>
@@ -12681,7 +12654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="15" thickBot="1">
+    <row r="467" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>44996</v>
       </c>
@@ -12707,7 +12680,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="15" thickBot="1">
+    <row r="468" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="4">
         <v>44995</v>
       </c>
@@ -12733,7 +12706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="15" thickBot="1">
+    <row r="469" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>44994</v>
       </c>
@@ -12759,7 +12732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="15" thickBot="1">
+    <row r="470" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="4">
         <v>44993</v>
       </c>
@@ -12785,7 +12758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="15" thickBot="1">
+    <row r="471" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>44992</v>
       </c>
@@ -12811,7 +12784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="15" thickBot="1">
+    <row r="472" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="4">
         <v>44991</v>
       </c>
@@ -12837,7 +12810,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="15" thickBot="1">
+    <row r="473" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>44990</v>
       </c>
@@ -12863,7 +12836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="15" thickBot="1">
+    <row r="474" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="4">
         <v>44989</v>
       </c>
@@ -12889,7 +12862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="15" thickBot="1">
+    <row r="475" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>44988</v>
       </c>
@@ -12915,7 +12888,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="15" thickBot="1">
+    <row r="476" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="4">
         <v>44987</v>
       </c>
@@ -12941,7 +12914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="15" thickBot="1">
+    <row r="477" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>44986</v>
       </c>
@@ -12967,7 +12940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="15" thickBot="1">
+    <row r="478" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="4">
         <v>44985</v>
       </c>
@@ -12993,7 +12966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="15" thickBot="1">
+    <row r="479" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>44984</v>
       </c>
@@ -13019,7 +12992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="15" thickBot="1">
+    <row r="480" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="4">
         <v>44983</v>
       </c>
@@ -13045,7 +13018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="15" thickBot="1">
+    <row r="481" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>44982</v>
       </c>
@@ -13071,7 +13044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="15" thickBot="1">
+    <row r="482" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>44981</v>
       </c>
@@ -13097,7 +13070,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="15" thickBot="1">
+    <row r="483" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="4">
         <v>44980</v>
       </c>
@@ -13123,7 +13096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="15" thickBot="1">
+    <row r="484" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>44979</v>
       </c>
@@ -13149,7 +13122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="15" thickBot="1">
+    <row r="485" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="4">
         <v>44978</v>
       </c>
@@ -13175,7 +13148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="15" thickBot="1">
+    <row r="486" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>44977</v>
       </c>
@@ -13201,7 +13174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="15" thickBot="1">
+    <row r="487" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="4">
         <v>44976</v>
       </c>
@@ -13227,7 +13200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="15" thickBot="1">
+    <row r="488" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>44975</v>
       </c>
@@ -13253,7 +13226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="15" thickBot="1">
+    <row r="489" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="4">
         <v>44974</v>
       </c>
@@ -13279,7 +13252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="15" thickBot="1">
+    <row r="490" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>44973</v>
       </c>
@@ -13305,7 +13278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="15" thickBot="1">
+    <row r="491" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="4">
         <v>44972</v>
       </c>
@@ -13331,7 +13304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="15" thickBot="1">
+    <row r="492" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>44971</v>
       </c>
@@ -13357,7 +13330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="15" thickBot="1">
+    <row r="493" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="4">
         <v>44970</v>
       </c>
@@ -13383,7 +13356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="15" thickBot="1">
+    <row r="494" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>44969</v>
       </c>
@@ -13409,7 +13382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="15" thickBot="1">
+    <row r="495" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="4">
         <v>44968</v>
       </c>
@@ -13435,7 +13408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="15" thickBot="1">
+    <row r="496" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>44967</v>
       </c>
@@ -13461,7 +13434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="15" thickBot="1">
+    <row r="497" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>44966</v>
       </c>
@@ -13487,7 +13460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="15" thickBot="1">
+    <row r="498" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="4">
         <v>44965</v>
       </c>
@@ -13513,7 +13486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="15" thickBot="1">
+    <row r="499" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>44964</v>
       </c>
@@ -13539,7 +13512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="15" thickBot="1">
+    <row r="500" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="4">
         <v>44963</v>
       </c>
@@ -13565,7 +13538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="15" thickBot="1">
+    <row r="501" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>44962</v>
       </c>
@@ -13591,7 +13564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="15" thickBot="1">
+    <row r="502" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="4">
         <v>44961</v>
       </c>
@@ -13617,7 +13590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="15" thickBot="1">
+    <row r="503" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>44960</v>
       </c>
@@ -13643,7 +13616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="15" thickBot="1">
+    <row r="504" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="4">
         <v>44959</v>
       </c>
@@ -13669,7 +13642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="15" thickBot="1">
+    <row r="505" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>44958</v>
       </c>
@@ -13695,7 +13668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="15" thickBot="1">
+    <row r="506" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="4">
         <v>44957</v>
       </c>
@@ -13721,7 +13694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="15" thickBot="1">
+    <row r="507" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>44956</v>
       </c>
@@ -13747,7 +13720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="15" thickBot="1">
+    <row r="508" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="4">
         <v>44955</v>
       </c>
@@ -13773,7 +13746,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="15" thickBot="1">
+    <row r="509" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>44954</v>
       </c>
@@ -13799,7 +13772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="15" thickBot="1">
+    <row r="510" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="4">
         <v>44953</v>
       </c>
@@ -13825,7 +13798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="15" thickBot="1">
+    <row r="511" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>44952</v>
       </c>
@@ -13851,7 +13824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="15" thickBot="1">
+    <row r="512" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>44951</v>
       </c>
@@ -13877,7 +13850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="15" thickBot="1">
+    <row r="513" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="4">
         <v>44950</v>
       </c>
@@ -13903,7 +13876,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="15" thickBot="1">
+    <row r="514" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>44949</v>
       </c>
@@ -13929,7 +13902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="15" thickBot="1">
+    <row r="515" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="4">
         <v>44948</v>
       </c>
@@ -13955,7 +13928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="15" thickBot="1">
+    <row r="516" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>44947</v>
       </c>
@@ -13981,7 +13954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="15" thickBot="1">
+    <row r="517" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="4">
         <v>44946</v>
       </c>
@@ -14007,7 +13980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="15" thickBot="1">
+    <row r="518" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>44945</v>
       </c>
@@ -14033,7 +14006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="15" thickBot="1">
+    <row r="519" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="4">
         <v>44944</v>
       </c>
@@ -14059,7 +14032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="15" thickBot="1">
+    <row r="520" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>44943</v>
       </c>
@@ -14085,7 +14058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="15" thickBot="1">
+    <row r="521" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="4">
         <v>44942</v>
       </c>
@@ -14111,7 +14084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="15" thickBot="1">
+    <row r="522" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>44941</v>
       </c>
@@ -14137,7 +14110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="15" thickBot="1">
+    <row r="523" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="4">
         <v>44940</v>
       </c>
@@ -14163,7 +14136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="15" thickBot="1">
+    <row r="524" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>44939</v>
       </c>
@@ -14189,7 +14162,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="15" thickBot="1">
+    <row r="525" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="4">
         <v>44938</v>
       </c>
@@ -14215,7 +14188,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="15" thickBot="1">
+    <row r="526" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <v>44937</v>
       </c>
@@ -14241,7 +14214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="15" thickBot="1">
+    <row r="527" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>44936</v>
       </c>
@@ -14267,7 +14240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="15" thickBot="1">
+    <row r="528" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="4">
         <v>44935</v>
       </c>
@@ -14293,7 +14266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="15" thickBot="1">
+    <row r="529" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>44934</v>
       </c>
@@ -14319,7 +14292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="15" thickBot="1">
+    <row r="530" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="4">
         <v>44933</v>
       </c>
@@ -14345,7 +14318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="15" thickBot="1">
+    <row r="531" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>44932</v>
       </c>
@@ -14371,7 +14344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="15" thickBot="1">
+    <row r="532" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="4">
         <v>44931</v>
       </c>
@@ -14397,7 +14370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="15" thickBot="1">
+    <row r="533" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>44930</v>
       </c>
@@ -14423,7 +14396,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="15" thickBot="1">
+    <row r="534" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="4">
         <v>44929</v>
       </c>
@@ -14449,7 +14422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="15" thickBot="1">
+    <row r="535" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>44928</v>
       </c>
@@ -14475,7 +14448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="15" thickBot="1">
+    <row r="536" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="4">
         <v>44927</v>
       </c>
@@ -14501,7 +14474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="15" thickBot="1">
+    <row r="537" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>44926</v>
       </c>
@@ -14527,7 +14500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="15" thickBot="1">
+    <row r="538" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="4">
         <v>44925</v>
       </c>
@@ -14553,7 +14526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="15" thickBot="1">
+    <row r="539" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>44924</v>
       </c>
@@ -14579,7 +14552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="15" thickBot="1">
+    <row r="540" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="4">
         <v>44923</v>
       </c>
@@ -14605,7 +14578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="15" thickBot="1">
+    <row r="541" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>44922</v>
       </c>
@@ -14631,7 +14604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="15" thickBot="1">
+    <row r="542" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>44921</v>
       </c>
@@ -14657,7 +14630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="15" thickBot="1">
+    <row r="543" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="4">
         <v>44920</v>
       </c>
@@ -14683,7 +14656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="15" thickBot="1">
+    <row r="544" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>44919</v>
       </c>
@@ -14709,7 +14682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="15" thickBot="1">
+    <row r="545" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="4">
         <v>44918</v>
       </c>
@@ -14735,7 +14708,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="15" thickBot="1">
+    <row r="546" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>44917</v>
       </c>
@@ -14761,7 +14734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="15" thickBot="1">
+    <row r="547" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="4">
         <v>44916</v>
       </c>
@@ -14787,7 +14760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="15" thickBot="1">
+    <row r="548" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <v>44915</v>
       </c>
@@ -14813,7 +14786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="15" thickBot="1">
+    <row r="549" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="4">
         <v>44914</v>
       </c>
@@ -14839,7 +14812,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="15" thickBot="1">
+    <row r="550" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <v>44913</v>
       </c>
@@ -14865,7 +14838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="15" thickBot="1">
+    <row r="551" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="4">
         <v>44912</v>
       </c>
@@ -14891,7 +14864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="15" thickBot="1">
+    <row r="552" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>44911</v>
       </c>
@@ -14917,7 +14890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="15" thickBot="1">
+    <row r="553" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="4">
         <v>44910</v>
       </c>
@@ -14943,7 +14916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="15" thickBot="1">
+    <row r="554" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>44909</v>
       </c>
@@ -14969,7 +14942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="15" thickBot="1">
+    <row r="555" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="4">
         <v>44908</v>
       </c>
@@ -14995,7 +14968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="15" thickBot="1">
+    <row r="556" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2">
         <v>44907</v>
       </c>
@@ -15021,7 +14994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="15" thickBot="1">
+    <row r="557" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <v>44906</v>
       </c>
@@ -15047,7 +15020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="15" thickBot="1">
+    <row r="558" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="4">
         <v>44905</v>
       </c>
@@ -15073,7 +15046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="15" thickBot="1">
+    <row r="559" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <v>44904</v>
       </c>
@@ -15099,7 +15072,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="15" thickBot="1">
+    <row r="560" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="4">
         <v>44903</v>
       </c>
@@ -15125,7 +15098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="15" thickBot="1">
+    <row r="561" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>44902</v>
       </c>
@@ -15151,7 +15124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="15" thickBot="1">
+    <row r="562" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="4">
         <v>44901</v>
       </c>
@@ -15177,7 +15150,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="15" thickBot="1">
+    <row r="563" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>44900</v>
       </c>
@@ -15203,7 +15176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="15" thickBot="1">
+    <row r="564" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="4">
         <v>44899</v>
       </c>
@@ -15229,7 +15202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="15" thickBot="1">
+    <row r="565" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>44898</v>
       </c>
@@ -15255,7 +15228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="15" thickBot="1">
+    <row r="566" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="4">
         <v>44897</v>
       </c>
@@ -15281,7 +15254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="15" thickBot="1">
+    <row r="567" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>44896</v>
       </c>
@@ -15307,9 +15280,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="15" thickBot="1">
+    <row r="568" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="4">
-        <v>44925</v>
+        <v>44895</v>
       </c>
       <c r="B568" s="9">
         <v>13477</v>
@@ -15333,7 +15306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="15" thickBot="1">
+    <row r="569" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>44894</v>
       </c>
@@ -15359,7 +15332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="15" thickBot="1">
+    <row r="570" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="4">
         <v>44893</v>
       </c>
@@ -15385,7 +15358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="15" thickBot="1">
+    <row r="571" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>44892</v>
       </c>
@@ -15411,7 +15384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="15" thickBot="1">
+    <row r="572" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>44891</v>
       </c>
@@ -15437,7 +15410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="15" thickBot="1">
+    <row r="573" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="4">
         <v>44890</v>
       </c>
@@ -15463,7 +15436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="15" thickBot="1">
+    <row r="574" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>44889</v>
       </c>
@@ -15489,7 +15462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="15" thickBot="1">
+    <row r="575" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="4">
         <v>44888</v>
       </c>
@@ -15515,7 +15488,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="15" thickBot="1">
+    <row r="576" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>44887</v>
       </c>
@@ -15541,7 +15514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="15" thickBot="1">
+    <row r="577" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="4">
         <v>44886</v>
       </c>
@@ -15567,7 +15540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="15" thickBot="1">
+    <row r="578" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>44885</v>
       </c>
@@ -15593,7 +15566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="15" thickBot="1">
+    <row r="579" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="4">
         <v>44884</v>
       </c>
@@ -15619,7 +15592,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="15" thickBot="1">
+    <row r="580" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>44883</v>
       </c>
@@ -15645,7 +15618,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="15" thickBot="1">
+    <row r="581" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="4">
         <v>44882</v>
       </c>
@@ -15671,7 +15644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="15" thickBot="1">
+    <row r="582" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <v>44881</v>
       </c>
@@ -15697,7 +15670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="15" thickBot="1">
+    <row r="583" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="4">
         <v>44880</v>
       </c>
@@ -15723,7 +15696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="15" thickBot="1">
+    <row r="584" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
         <v>44879</v>
       </c>
@@ -15749,7 +15722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="15" thickBot="1">
+    <row r="585" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="4">
         <v>44878</v>
       </c>
@@ -15775,7 +15748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="15" thickBot="1">
+    <row r="586" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2">
         <v>44877</v>
       </c>
@@ -15801,7 +15774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="15" thickBot="1">
+    <row r="587" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2">
         <v>44876</v>
       </c>
@@ -15827,7 +15800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="15" thickBot="1">
+    <row r="588" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="4">
         <v>44875</v>
       </c>
@@ -15853,7 +15826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="15" thickBot="1">
+    <row r="589" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2">
         <v>44874</v>
       </c>
@@ -15879,7 +15852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="15" thickBot="1">
+    <row r="590" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="4">
         <v>44873</v>
       </c>
@@ -15905,7 +15878,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="15" thickBot="1">
+    <row r="591" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2">
         <v>44872</v>
       </c>
@@ -15931,7 +15904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="15" thickBot="1">
+    <row r="592" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="4">
         <v>44871</v>
       </c>
@@ -15957,7 +15930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="15" thickBot="1">
+    <row r="593" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2">
         <v>44870</v>
       </c>
@@ -15983,7 +15956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="15" thickBot="1">
+    <row r="594" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="4">
         <v>44869</v>
       </c>
@@ -16009,7 +15982,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="15" thickBot="1">
+    <row r="595" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2">
         <v>44868</v>
       </c>
@@ -16035,7 +16008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="15" thickBot="1">
+    <row r="596" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="4">
         <v>44867</v>
       </c>
@@ -16061,7 +16034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="15" thickBot="1">
+    <row r="597" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2">
         <v>44866</v>
       </c>
@@ -16087,7 +16060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="15" thickBot="1">
+    <row r="598" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="4">
         <v>44865</v>
       </c>
@@ -16113,7 +16086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="15" thickBot="1">
+    <row r="599" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
         <v>44864</v>
       </c>
@@ -16139,7 +16112,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="15" thickBot="1">
+    <row r="600" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="4">
         <v>44863</v>
       </c>
@@ -16165,7 +16138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="15" thickBot="1">
+    <row r="601" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2">
         <v>44862</v>
       </c>
@@ -16191,7 +16164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="15" thickBot="1">
+    <row r="602" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2">
         <v>44861</v>
       </c>
@@ -16217,7 +16190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="15" thickBot="1">
+    <row r="603" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="4">
         <v>44860</v>
       </c>
@@ -16243,7 +16216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="15" thickBot="1">
+    <row r="604" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
         <v>44859</v>
       </c>
@@ -16269,7 +16242,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="15" thickBot="1">
+    <row r="605" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="4">
         <v>44858</v>
       </c>
@@ -16295,7 +16268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="15" thickBot="1">
+    <row r="606" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
         <v>44857</v>
       </c>
@@ -16321,7 +16294,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="15" thickBot="1">
+    <row r="607" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="4">
         <v>44856</v>
       </c>
@@ -16347,7 +16320,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="15" thickBot="1">
+    <row r="608" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2">
         <v>44855</v>
       </c>
@@ -16373,7 +16346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="15" thickBot="1">
+    <row r="609" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="4">
         <v>44854</v>
       </c>
@@ -16399,7 +16372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="15" thickBot="1">
+    <row r="610" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2">
         <v>44853</v>
       </c>
@@ -16425,7 +16398,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="15" thickBot="1">
+    <row r="611" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="4">
         <v>44852</v>
       </c>
@@ -16451,7 +16424,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="15" thickBot="1">
+    <row r="612" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2">
         <v>44851</v>
       </c>
@@ -16477,7 +16450,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="15" thickBot="1">
+    <row r="613" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="4">
         <v>44850</v>
       </c>
@@ -16503,7 +16476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="15" thickBot="1">
+    <row r="614" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
         <v>44849</v>
       </c>
@@ -16529,7 +16502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="15" thickBot="1">
+    <row r="615" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="4">
         <v>44848</v>
       </c>
@@ -16555,7 +16528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="15" thickBot="1">
+    <row r="616" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2">
         <v>44847</v>
       </c>
@@ -16581,7 +16554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="15" thickBot="1">
+    <row r="617" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="2">
         <v>44846</v>
       </c>
@@ -16607,7 +16580,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="15" thickBot="1">
+    <row r="618" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="4">
         <v>44845</v>
       </c>
@@ -16633,7 +16606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="15" thickBot="1">
+    <row r="619" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="2">
         <v>44844</v>
       </c>
@@ -16659,7 +16632,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="15" thickBot="1">
+    <row r="620" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="4">
         <v>44843</v>
       </c>
@@ -16685,7 +16658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="15" thickBot="1">
+    <row r="621" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2">
         <v>44842</v>
       </c>
@@ -16711,7 +16684,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="15" thickBot="1">
+    <row r="622" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="4">
         <v>44841</v>
       </c>
@@ -16737,7 +16710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="15" thickBot="1">
+    <row r="623" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2">
         <v>44840</v>
       </c>
@@ -16763,7 +16736,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="15" thickBot="1">
+    <row r="624" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="4">
         <v>44839</v>
       </c>
@@ -16789,7 +16762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="15" thickBot="1">
+    <row r="625" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2">
         <v>44838</v>
       </c>
@@ -16815,7 +16788,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="15" thickBot="1">
+    <row r="626" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="4">
         <v>44837</v>
       </c>
@@ -16841,7 +16814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="15" thickBot="1">
+    <row r="627" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2">
         <v>44836</v>
       </c>
@@ -16867,7 +16840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="15" thickBot="1">
+    <row r="628" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="4">
         <v>44835</v>
       </c>
@@ -16893,7 +16866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="15" thickBot="1">
+    <row r="629" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2">
         <v>44834</v>
       </c>
@@ -16919,7 +16892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="15" thickBot="1">
+    <row r="630" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="4">
         <v>44833</v>
       </c>
@@ -16945,7 +16918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="15" thickBot="1">
+    <row r="631" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2">
         <v>44832</v>
       </c>
@@ -16971,7 +16944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="15" thickBot="1">
+    <row r="632" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2">
         <v>44831</v>
       </c>
@@ -16997,7 +16970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="15" thickBot="1">
+    <row r="633" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="4">
         <v>44830</v>
       </c>
@@ -17023,7 +16996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="15" thickBot="1">
+    <row r="634" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2">
         <v>44829</v>
       </c>
@@ -17049,7 +17022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="15" thickBot="1">
+    <row r="635" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="4">
         <v>44828</v>
       </c>
@@ -17075,7 +17048,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="15" thickBot="1">
+    <row r="636" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2">
         <v>44827</v>
       </c>
@@ -17101,7 +17074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="15" thickBot="1">
+    <row r="637" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="4">
         <v>44826</v>
       </c>
@@ -17127,7 +17100,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="15" thickBot="1">
+    <row r="638" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2">
         <v>44825</v>
       </c>
@@ -17153,7 +17126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="15" thickBot="1">
+    <row r="639" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="4">
         <v>44824</v>
       </c>
@@ -17179,7 +17152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="15" thickBot="1">
+    <row r="640" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2">
         <v>44823</v>
       </c>
@@ -17205,7 +17178,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="15" thickBot="1">
+    <row r="641" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="4">
         <v>44822</v>
       </c>
@@ -17231,7 +17204,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="15" thickBot="1">
+    <row r="642" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2">
         <v>44821</v>
       </c>
@@ -17257,7 +17230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="15" thickBot="1">
+    <row r="643" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="4">
         <v>44820</v>
       </c>
@@ -17283,7 +17256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="15" thickBot="1">
+    <row r="644" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="2">
         <v>44819</v>
       </c>
@@ -17309,7 +17282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="15" thickBot="1">
+    <row r="645" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="4">
         <v>44818</v>
       </c>
@@ -17335,7 +17308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="15" thickBot="1">
+    <row r="646" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2">
         <v>44817</v>
       </c>
@@ -17361,7 +17334,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="15" thickBot="1">
+    <row r="647" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2">
         <v>44816</v>
       </c>
@@ -17387,7 +17360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="15" thickBot="1">
+    <row r="648" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="4">
         <v>44815</v>
       </c>
@@ -17413,7 +17386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="15" thickBot="1">
+    <row r="649" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="2">
         <v>44814</v>
       </c>
@@ -17439,7 +17412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="15" thickBot="1">
+    <row r="650" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="4">
         <v>44813</v>
       </c>
@@ -17465,7 +17438,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="15" thickBot="1">
+    <row r="651" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="2">
         <v>44812</v>
       </c>
@@ -17491,7 +17464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="15" thickBot="1">
+    <row r="652" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="4">
         <v>44811</v>
       </c>
@@ -17517,7 +17490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="15" thickBot="1">
+    <row r="653" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2">
         <v>44810</v>
       </c>
@@ -17543,7 +17516,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="15" thickBot="1">
+    <row r="654" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="4">
         <v>44809</v>
       </c>
@@ -17569,7 +17542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="15" thickBot="1">
+    <row r="655" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2">
         <v>44808</v>
       </c>
@@ -17595,7 +17568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="15" thickBot="1">
+    <row r="656" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="4">
         <v>44807</v>
       </c>
@@ -17621,7 +17594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="15" thickBot="1">
+    <row r="657" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="2">
         <v>44806</v>
       </c>
@@ -17647,7 +17620,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="15" thickBot="1">
+    <row r="658" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="4">
         <v>44805</v>
       </c>
@@ -17673,7 +17646,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="15" thickBot="1">
+    <row r="659" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="2">
         <v>44804</v>
       </c>
@@ -17699,7 +17672,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="15" thickBot="1">
+    <row r="660" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="4">
         <v>44803</v>
       </c>
@@ -17725,7 +17698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="15" thickBot="1">
+    <row r="661" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="2">
         <v>44802</v>
       </c>
@@ -17751,7 +17724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="15" thickBot="1">
+    <row r="662" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2">
         <v>44801</v>
       </c>
@@ -17777,7 +17750,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="15" thickBot="1">
+    <row r="663" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="4">
         <v>44800</v>
       </c>
@@ -17803,7 +17776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="15" thickBot="1">
+    <row r="664" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2">
         <v>44799</v>
       </c>
@@ -17829,7 +17802,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="15" thickBot="1">
+    <row r="665" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="4">
         <v>44798</v>
       </c>
@@ -17855,7 +17828,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="15" thickBot="1">
+    <row r="666" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="2">
         <v>44797</v>
       </c>
@@ -17881,7 +17854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="15" thickBot="1">
+    <row r="667" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="4">
         <v>44796</v>
       </c>
@@ -17907,7 +17880,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="15" thickBot="1">
+    <row r="668" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="2">
         <v>44795</v>
       </c>
@@ -17933,7 +17906,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="15" thickBot="1">
+    <row r="669" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="4">
         <v>44794</v>
       </c>
@@ -17959,7 +17932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="15" thickBot="1">
+    <row r="670" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2">
         <v>44793</v>
       </c>
@@ -17985,7 +17958,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="15" thickBot="1">
+    <row r="671" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="4">
         <v>44792</v>
       </c>
@@ -18011,7 +17984,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="15" thickBot="1">
+    <row r="672" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2">
         <v>44791</v>
       </c>
@@ -18037,7 +18010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="15" thickBot="1">
+    <row r="673" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="4">
         <v>44790</v>
       </c>
@@ -18063,7 +18036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="15" thickBot="1">
+    <row r="674" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="2">
         <v>44789</v>
       </c>
@@ -18089,7 +18062,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="15" thickBot="1">
+    <row r="675" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="4">
         <v>44788</v>
       </c>
@@ -18115,7 +18088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="15" thickBot="1">
+    <row r="676" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="2">
         <v>44787</v>
       </c>
@@ -18141,7 +18114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="15" thickBot="1">
+    <row r="677" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2">
         <v>44786</v>
       </c>
@@ -18167,7 +18140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="15" thickBot="1">
+    <row r="678" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="4">
         <v>44785</v>
       </c>
@@ -18193,7 +18166,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="15" thickBot="1">
+    <row r="679" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2">
         <v>44784</v>
       </c>
@@ -18219,7 +18192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="15" thickBot="1">
+    <row r="680" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="4">
         <v>44783</v>
       </c>
@@ -18245,7 +18218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="15" thickBot="1">
+    <row r="681" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2">
         <v>44782</v>
       </c>
@@ -18271,7 +18244,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="15" thickBot="1">
+    <row r="682" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="4">
         <v>44781</v>
       </c>
@@ -18297,7 +18270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="15" thickBot="1">
+    <row r="683" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="2">
         <v>44780</v>
       </c>
@@ -18323,7 +18296,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="15" thickBot="1">
+    <row r="684" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="4">
         <v>44779</v>
       </c>
@@ -18349,7 +18322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="15" thickBot="1">
+    <row r="685" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="2">
         <v>44778</v>
       </c>
@@ -18375,7 +18348,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="15" thickBot="1">
+    <row r="686" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="4">
         <v>44777</v>
       </c>
@@ -18401,7 +18374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="15" thickBot="1">
+    <row r="687" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2">
         <v>44776</v>
       </c>
@@ -18427,7 +18400,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="15" thickBot="1">
+    <row r="688" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="4">
         <v>44775</v>
       </c>
@@ -18453,7 +18426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="15" thickBot="1">
+    <row r="689" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="2">
         <v>44774</v>
       </c>
@@ -18479,7 +18452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="15" thickBot="1">
+    <row r="690" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="4">
         <v>44773</v>
       </c>
@@ -18505,7 +18478,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="15" thickBot="1">
+    <row r="691" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="2">
         <v>44772</v>
       </c>
@@ -18531,7 +18504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="15" thickBot="1">
+    <row r="692" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="2">
         <v>44771</v>
       </c>
@@ -18557,7 +18530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="15" thickBot="1">
+    <row r="693" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="4">
         <v>44770</v>
       </c>
@@ -18583,7 +18556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="15" thickBot="1">
+    <row r="694" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2">
         <v>44769</v>
       </c>
@@ -18609,7 +18582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="15" thickBot="1">
+    <row r="695" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="4">
         <v>44768</v>
       </c>
@@ -18635,7 +18608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="15" thickBot="1">
+    <row r="696" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="2">
         <v>44767</v>
       </c>
@@ -18661,7 +18634,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="15" thickBot="1">
+    <row r="697" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="4">
         <v>44766</v>
       </c>
@@ -18687,7 +18660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="15" thickBot="1">
+    <row r="698" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="2">
         <v>44765</v>
       </c>
@@ -18713,7 +18686,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="15" thickBot="1">
+    <row r="699" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="4">
         <v>44764</v>
       </c>
@@ -18739,7 +18712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="15" thickBot="1">
+    <row r="700" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="2">
         <v>44763</v>
       </c>
@@ -18765,7 +18738,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="15" thickBot="1">
+    <row r="701" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="4">
         <v>44762</v>
       </c>
@@ -18791,7 +18764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="15" thickBot="1">
+    <row r="702" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2">
         <v>44761</v>
       </c>
@@ -18817,7 +18790,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="15" thickBot="1">
+    <row r="703" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="4">
         <v>44760</v>
       </c>
@@ -18843,7 +18816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="15" thickBot="1">
+    <row r="704" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2">
         <v>44759</v>
       </c>
@@ -18869,7 +18842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="15" thickBot="1">
+    <row r="705" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="4">
         <v>44758</v>
       </c>
@@ -18895,7 +18868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="15" thickBot="1">
+    <row r="706" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2">
         <v>44757</v>
       </c>
@@ -18921,7 +18894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="15" thickBot="1">
+    <row r="707" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="2">
         <v>44756</v>
       </c>
@@ -18947,7 +18920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="15" thickBot="1">
+    <row r="708" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="4">
         <v>44755</v>
       </c>
@@ -18973,7 +18946,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="15" thickBot="1">
+    <row r="709" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2">
         <v>44754</v>
       </c>
@@ -18999,7 +18972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="15" thickBot="1">
+    <row r="710" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="4">
         <v>44753</v>
       </c>
@@ -19025,7 +18998,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="15" thickBot="1">
+    <row r="711" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2">
         <v>44752</v>
       </c>
@@ -19051,7 +19024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="15" thickBot="1">
+    <row r="712" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="4">
         <v>44751</v>
       </c>
@@ -19077,7 +19050,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="15" thickBot="1">
+    <row r="713" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="2">
         <v>44750</v>
       </c>
@@ -19103,7 +19076,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="15" thickBot="1">
+    <row r="714" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A714" s="4">
         <v>44749</v>
       </c>
@@ -19129,7 +19102,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="15" thickBot="1">
+    <row r="715" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A715" s="2">
         <v>44748</v>
       </c>
@@ -19155,7 +19128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="15" thickBot="1">
+    <row r="716" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A716" s="4">
         <v>44747</v>
       </c>
@@ -19181,7 +19154,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="15" thickBot="1">
+    <row r="717" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2">
         <v>44746</v>
       </c>
@@ -19207,7 +19180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="15" thickBot="1">
+    <row r="718" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A718" s="4">
         <v>44745</v>
       </c>
@@ -19233,7 +19206,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="15" thickBot="1">
+    <row r="719" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2">
         <v>44744</v>
       </c>
@@ -19259,7 +19232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="15" thickBot="1">
+    <row r="720" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="4">
         <v>44743</v>
       </c>
@@ -19285,7 +19258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="15" thickBot="1">
+    <row r="721" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2">
         <v>44742</v>
       </c>
@@ -19311,7 +19284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="15" thickBot="1">
+    <row r="722" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="2">
         <v>44741</v>
       </c>
@@ -19337,7 +19310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="15" thickBot="1">
+    <row r="723" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="4">
         <v>44740</v>
       </c>
@@ -19363,7 +19336,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="15" thickBot="1">
+    <row r="724" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2">
         <v>44739</v>
       </c>
@@ -19389,7 +19362,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="15" thickBot="1">
+    <row r="725" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="4">
         <v>44738</v>
       </c>
@@ -19415,7 +19388,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="15" thickBot="1">
+    <row r="726" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A726" s="2">
         <v>44737</v>
       </c>
@@ -19441,7 +19414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="15" thickBot="1">
+    <row r="727" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="4">
         <v>44736</v>
       </c>
@@ -19467,7 +19440,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="15" thickBot="1">
+    <row r="728" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2">
         <v>44735</v>
       </c>
@@ -19493,7 +19466,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="15" thickBot="1">
+    <row r="729" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="4">
         <v>44734</v>
       </c>
@@ -19519,7 +19492,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="15" thickBot="1">
+    <row r="730" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A730" s="2">
         <v>44733</v>
       </c>
@@ -19545,7 +19518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="15" thickBot="1">
+    <row r="731" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="4">
         <v>44732</v>
       </c>
@@ -19571,7 +19544,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="15" thickBot="1">
+    <row r="732" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A732" s="2">
         <v>44731</v>
       </c>
@@ -19597,7 +19570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="15" thickBot="1">
+    <row r="733" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="4">
         <v>44730</v>
       </c>
@@ -19623,7 +19596,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="15" thickBot="1">
+    <row r="734" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A734" s="2">
         <v>44729</v>
       </c>
@@ -19649,7 +19622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="15" thickBot="1">
+    <row r="735" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="4">
         <v>44728</v>
       </c>
@@ -19675,7 +19648,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="15" thickBot="1">
+    <row r="736" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A736" s="2">
         <v>44727</v>
       </c>
@@ -19703,741 +19676,711 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://policja.pl/pol/form/r525002449154,18062024.html" xr:uid="{FDC3155C-DF58-4947-859E-FD81A7411F34}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://policja.pl/pol/form/r958495482,17062024.html" xr:uid="{CEADDB7F-98E2-47E4-970A-7ADCCEDC8423}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://policja.pl/pol/form/r78191888880,16062024.html" xr:uid="{A85239F9-92D5-41C0-A325-349216136568}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://policja.pl/pol/form/r749084,15062024.html" xr:uid="{00DC94DA-F1BE-41CF-8DFD-E96EA647DB62}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://policja.pl/pol/form/r95633622,14062024.html" xr:uid="{FC3BCAFF-90C4-4FB8-9352-7C55266E5C8E}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://policja.pl/pol/form/r96202828314755,13062024.html" xr:uid="{EF1A45A1-CD1B-4283-8227-0A4101A83958}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://policja.pl/pol/form/r569083347,12062024.html" xr:uid="{1AD4F3CB-675F-449A-91B4-7D6C62A373BB}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://policja.pl/pol/form/r442240,11062024.html" xr:uid="{4CA64A3C-E81C-46D5-A7ED-D1DE73D7254B}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://policja.pl/pol/form/r6402114458341,10062024.html" xr:uid="{41906BDB-BB50-4C24-886D-4529E17B386F}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://policja.pl/pol/form/r17594049279539,09062024.html" xr:uid="{1B4B3B95-8C50-43FA-9341-EB73A564F430}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://policja.pl/pol/form/r2439094226357,08062024.html" xr:uid="{27EBB8DD-0328-42CD-B04A-D9BE1DEF729B}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://policja.pl/pol/form/r2468195,07062024.html" xr:uid="{151CCF1D-94EB-4426-AFDC-59E7BD904AD5}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://policja.pl/pol/form/r70765,06062024.html" xr:uid="{41B20B86-D6B5-4503-A1D0-72B14E7A764D}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://policja.pl/pol/form/r32995824080417,05062024.html" xr:uid="{1007E4A8-A47B-48EB-975B-0B643AE2826E}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://policja.pl/pol/form/r5148634567693,04062024.html" xr:uid="{4CB43AB2-F56D-4E17-80D8-EFC2D3513A6F}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://policja.pl/pol/form/r4585978974,03062024.html" xr:uid="{EEC809F9-526B-4E2E-A9AA-C164786F6A59}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://policja.pl/pol/form/r8604268,02062024.html" xr:uid="{2E15482D-2C4A-467A-8118-0D76F88A5957}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://policja.pl/pol/form/r9783722787073,01062024.html" xr:uid="{C8179476-3BEF-4750-8036-FDE4653A32CA}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://policja.pl/pol/form/r289862822,31052024.html" xr:uid="{7F15D181-5440-4977-A780-FC60F7BF94FF}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://policja.pl/pol/form/r6060453397163,30052024.html" xr:uid="{8D6AED83-D543-4385-8942-AC332E89BBDC}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://policja.pl/pol/form/r7364920,29052024.html" xr:uid="{5048C735-A9FF-4FBA-AF2B-C8D550C9D909}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://policja.pl/pol/form/r9141424197,28052024.html" xr:uid="{91FFC965-7198-4DA5-85FE-126E263245FC}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://policja.pl/pol/form/r3357665101,27052024.html" xr:uid="{252515FE-F560-4C6A-BA47-DCD3D2D4CB5C}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://policja.pl/pol/form/r7512133223003,26052024.html" xr:uid="{4F7C7167-1E38-4C78-AE78-156255DC4211}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://policja.pl/pol/form/r947077450,25052024.html" xr:uid="{47C1C68D-6F91-43B4-902D-4C5357E67014}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://policja.pl/pol/form/r249435,24052024.html" xr:uid="{37FF5805-8343-40C7-B863-28E090A0B875}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://policja.pl/pol/form/r797400595,23052024.html" xr:uid="{B8FF417B-BA0C-4482-AA1E-957A6EC287EF}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://policja.pl/pol/form/r6953698478343,22052024.html" xr:uid="{B0CE1A70-C1D1-4288-9D3A-5BFBBB232A1D}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://policja.pl/pol/form/r1348729451,21052024.html" xr:uid="{93F50964-FEF8-4EC0-BB7C-63B2E4779608}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://policja.pl/pol/form/r5063636523,20052024.html" xr:uid="{6C46E806-51A1-4971-85AD-3D82ED379DE8}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://policja.pl/pol/form/r44560565,19052024.html" xr:uid="{B42BE9F6-5597-41D9-8E09-C1EB11B79C8B}"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://policja.pl/pol/form/r8096546,18052024.html" xr:uid="{86868CEC-F979-4438-8222-E939479C0825}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://policja.pl/pol/form/r505554081810,17052024.html" xr:uid="{117D1975-5B21-470E-B070-A1E366E21DE6}"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://policja.pl/pol/form/r87319145147789,16052024.html" xr:uid="{20185589-4F62-4DDD-8C6A-1BC5B7C074C3}"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://policja.pl/pol/form/r49077634371,15052024.html" xr:uid="{0F8024D9-0A66-4CA7-BB43-F6233D1BEE29}"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://policja.pl/pol/form/r3457147577,14052024.html" xr:uid="{B785AAF9-0989-4F21-A4E1-192EC8266C24}"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://policja.pl/pol/form/r50036134,13052024-r.html" xr:uid="{1DD7F486-085A-460D-B459-972F851AF05F}"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://policja.pl/pol/form/r237361271804,12052024.html" xr:uid="{5BF6EB73-709C-4344-82A7-0B258F1A757F}"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://policja.pl/pol/form/r27408402796417,11052024.html" xr:uid="{669494DA-F511-4DB1-9B4F-5C7FD911AB18}"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://policja.pl/pol/form/r888123577,10052024.html" xr:uid="{3BAA743B-CBAB-4EE0-8E3D-AED5CACF4273}"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://policja.pl/pol/form/r83223401,09052024.html" xr:uid="{87FD6901-D782-4324-8D39-A4F06D8D2F8E}"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://policja.pl/pol/form/r92758248,08052024.html" xr:uid="{A6C21A90-0287-4472-A1A2-9387D0CA70D6}"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://policja.pl/pol/form/r5031470967826,07052024.html" xr:uid="{F4B364B9-1EF4-4752-BDE7-02ADCCCC30C6}"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://policja.pl/pol/form/r5395276,06072024.html" xr:uid="{C15D25F0-A66E-4870-A19D-23975200BA73}"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://policja.pl/pol/form/r90841148,05052024.html" xr:uid="{D956D2F2-B7C4-4D03-BDA5-9439D8581E85}"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://policja.pl/pol/form/r28754,04052024.html" xr:uid="{3858B0DC-CD5A-44EB-B299-DC59193B9B01}"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://policja.pl/pol/form/r95543862566,03052024.html" xr:uid="{58E14D08-037C-4230-A4C8-651B77FE6C79}"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://policja.pl/pol/form/r35338462734044,02052024.html" xr:uid="{94A66459-64D1-4B5E-82C4-54456F9FD9DD}"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://policja.pl/pol/form/r36424,01052024.html" xr:uid="{C38593A6-F2D1-4E01-A1EA-AEF76026D709}"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://policja.pl/pol/form/r663088,30042024.html" xr:uid="{23D9E15E-A770-46D1-B64A-206782828EF1}"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://policja.pl/pol/form/r24402,29042024.html" xr:uid="{4A1394CF-C78E-4480-A018-2F0B197DA01B}"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://policja.pl/pol/form/r2536752132061,28042024.html" xr:uid="{DEB08FD2-1FF5-49EE-B86C-6B5934761807}"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://policja.pl/pol/form/r500133224821,27042024.html" xr:uid="{68934890-16F2-4A16-BED5-6971019AF0AE}"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://policja.pl/pol/form/r4722371507,26042024.html" xr:uid="{4222D0BD-836E-4E75-A0F6-4093FDFEE403}"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://policja.pl/pol/form/r6635040986,25042024.html" xr:uid="{652FF65D-6838-4B4B-A31E-16875AA9D4F7}"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://policja.pl/pol/form/r71924652097437,24042024.html" xr:uid="{8F6E6A83-330E-41F2-BC02-26C32407B90E}"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://policja.pl/pol/form/r6278029,23042024.html" xr:uid="{8721BE06-426E-4D4E-A6F9-434D134A16C5}"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://policja.pl/pol/form/r56298720132,22042024.html" xr:uid="{04B71E12-D143-4759-95B4-6A15E0CC7EC7}"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://policja.pl/pol/form/r489135,21042024.html" xr:uid="{A544C093-88BA-42F6-A9DC-EDBB2230DE2F}"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://policja.pl/pol/form/r12436440447,20042024.html" xr:uid="{89806186-4691-412B-9AA7-C4F59468CCCD}"/>
-    <hyperlink ref="A62" r:id="rId61" display="https://policja.pl/pol/form/r19552234264107,19042024.html" xr:uid="{FFC85A88-7324-4221-AA1E-B5CCE10B9A36}"/>
-    <hyperlink ref="A63" r:id="rId62" display="https://policja.pl/pol/form/r87588866,18042024.html" xr:uid="{CDA01369-FBA7-494F-8947-17A3D69D73FC}"/>
-    <hyperlink ref="A64" r:id="rId63" display="https://policja.pl/pol/form/r87504992292645,17042024.html" xr:uid="{230C171B-C19A-4906-98C2-0F3CDF086550}"/>
-    <hyperlink ref="A65" r:id="rId64" display="https://policja.pl/pol/form/r577095903,16042024.html" xr:uid="{A8AF0EC9-EFE6-4B58-9E82-10202628C74F}"/>
-    <hyperlink ref="A66" r:id="rId65" display="https://policja.pl/pol/form/r8920209,15042024.html" xr:uid="{1C68C95C-6CB1-426E-B870-D60A702DB5B6}"/>
-    <hyperlink ref="A67" r:id="rId66" display="https://policja.pl/pol/form/r9681507,14042024.html" xr:uid="{5EB12635-D5F0-4F57-9F56-0827D142E08D}"/>
-    <hyperlink ref="A68" r:id="rId67" display="https://policja.pl/pol/form/r49242302398194,13042024.html" xr:uid="{400C6442-2443-4DDF-8039-071E9C14781C}"/>
-    <hyperlink ref="A69" r:id="rId68" display="https://policja.pl/pol/form/r4549151916278,12042024.html" xr:uid="{CF48A6AF-87C2-4FEF-A8A6-74C9DD5A7389}"/>
-    <hyperlink ref="A70" r:id="rId69" display="https://policja.pl/pol/form/r655383592,11042024.html" xr:uid="{321C7259-7278-4338-9D29-0054F01137A1}"/>
-    <hyperlink ref="A71" r:id="rId70" display="https://policja.pl/pol/form/r59605486560,10042024.html" xr:uid="{1B992C31-3731-48DF-AC4E-1DCB4AF0215D}"/>
-    <hyperlink ref="A72" r:id="rId71" display="https://policja.pl/pol/form/r367785,09042024.html" xr:uid="{D6FB13B6-CF95-4943-8332-C518F761FD3D}"/>
-    <hyperlink ref="A73" r:id="rId72" display="https://policja.pl/pol/form/r125980,08042024.html" xr:uid="{53D777A5-178A-4971-A24A-6FA7303B329A}"/>
-    <hyperlink ref="A74" r:id="rId73" display="https://policja.pl/pol/form/r89540976647,07042024.html" xr:uid="{323DFF8B-FEE9-4E6E-BD04-98E9CDC6969E}"/>
-    <hyperlink ref="A75" r:id="rId74" display="https://policja.pl/pol/form/r7149054,06042024.html" xr:uid="{CDD88CEA-9BA2-4A65-A040-0A169E72D889}"/>
-    <hyperlink ref="A76" r:id="rId75" display="https://policja.pl/pol/form/r65506557125,05042024.html" xr:uid="{B30907E0-E876-40D8-83C3-CE086637EC68}"/>
-    <hyperlink ref="A77" r:id="rId76" display="https://policja.pl/pol/form/r63587357,04042024.html" xr:uid="{06D4A214-2F0E-410E-8306-CE58A3CBB71A}"/>
-    <hyperlink ref="A78" r:id="rId77" display="https://policja.pl/pol/form/r40580,03042024.html" xr:uid="{A258D558-41BD-4BAC-9682-E3318AFEABEC}"/>
-    <hyperlink ref="A79" r:id="rId78" display="https://policja.pl/pol/form/r748181175424,02042024.html" xr:uid="{25AEF822-C69D-4931-9A99-70525A75EA20}"/>
-    <hyperlink ref="A80" r:id="rId79" display="https://policja.pl/pol/form/r84396413749444,01042024.html" xr:uid="{8FFCB228-FE91-4BA5-89FE-AB4040D8D367}"/>
-    <hyperlink ref="A81" r:id="rId80" display="https://policja.pl/pol/form/r611487794,31032024.html" xr:uid="{67146AD5-F1C7-4DBD-991D-15D561FC8AB1}"/>
-    <hyperlink ref="A82" r:id="rId81" display="https://policja.pl/pol/form/r65767,30032024.html" xr:uid="{486928FD-5829-4DC7-8A12-A92C1D258E7E}"/>
-    <hyperlink ref="A83" r:id="rId82" display="https://policja.pl/pol/form/r972638694385,29032024.html" xr:uid="{7A49CDB7-FBBF-4764-9D31-20F292C8909D}"/>
-    <hyperlink ref="A84" r:id="rId83" display="https://policja.pl/pol/form/r78134148,28032024.html" xr:uid="{6C15FE12-6B99-4E41-ABD9-658388D99DB6}"/>
-    <hyperlink ref="A85" r:id="rId84" display="https://policja.pl/pol/form/r4401813156613,27032024.html" xr:uid="{1D892A3F-3CE0-424D-A019-FC27AF553C48}"/>
-    <hyperlink ref="A86" r:id="rId85" display="https://policja.pl/pol/form/r38233,26032024.html" xr:uid="{64E7196F-E4A4-4AC5-AA82-89E92811A0F4}"/>
-    <hyperlink ref="A87" r:id="rId86" display="https://policja.pl/pol/form/r9103605897,25032024.html" xr:uid="{6E48ED9E-2BD5-48CF-B592-16CE1457185A}"/>
-    <hyperlink ref="A88" r:id="rId87" display="https://policja.pl/pol/form/r67255893,24032024.html" xr:uid="{6C4973E5-83CD-4B3B-AB12-529EFD06D588}"/>
-    <hyperlink ref="A89" r:id="rId88" display="https://policja.pl/pol/form/r3509542681134,23032024.html" xr:uid="{DE1F0927-78C2-4B78-BC93-13C30D255196}"/>
-    <hyperlink ref="A90" r:id="rId89" display="https://policja.pl/pol/form/r80733,22032024.html" xr:uid="{EC1937BB-4739-4586-9E60-F1DAF2AC87E8}"/>
-    <hyperlink ref="A91" r:id="rId90" display="https://policja.pl/pol/form/r6341950189001,21032024.html" xr:uid="{C6813E4A-83D8-4229-9AC7-EBD4209B10B9}"/>
-    <hyperlink ref="A92" r:id="rId91" display="https://policja.pl/pol/form/r65347746323860,20032024.html" xr:uid="{EA0777C6-9AF3-46D6-9765-FC320E8132D6}"/>
-    <hyperlink ref="A93" r:id="rId92" display="https://policja.pl/pol/form/r4325983363417,19032024.html" xr:uid="{C23E35F4-1374-4421-B011-DFB7C95B2E53}"/>
-    <hyperlink ref="A94" r:id="rId93" display="https://policja.pl/pol/form/r5622765,18032024.html" xr:uid="{05AD9B3A-7681-494D-8B2D-B09ACB5F14B4}"/>
-    <hyperlink ref="A95" r:id="rId94" display="https://policja.pl/pol/form/r8534952862,17032024.html" xr:uid="{96D0718C-B2B5-4E80-8DAC-BA0841E94270}"/>
-    <hyperlink ref="A96" r:id="rId95" display="https://policja.pl/pol/form/r66166969796481,16032024.html" xr:uid="{4125242A-7DA6-4BD6-8C17-FE60988DE663}"/>
-    <hyperlink ref="A97" r:id="rId96" display="https://policja.pl/pol/form/r96718,15032024.html" xr:uid="{B4ED33B5-9589-41A2-9FD9-207ACF03555E}"/>
-    <hyperlink ref="A98" r:id="rId97" display="https://policja.pl/pol/form/r8179111016643,14032024.html" xr:uid="{D751C3A6-9F21-4E13-A726-DD5ACD9118D5}"/>
-    <hyperlink ref="A99" r:id="rId98" display="https://policja.pl/pol/form/r2382132213,13032024.html" xr:uid="{28F38088-75C5-4DA7-A363-0246026C25D5}"/>
-    <hyperlink ref="A100" r:id="rId99" display="https://policja.pl/pol/form/r977742430944,12032024.html" xr:uid="{43933DF2-8FDA-4D89-BEB2-845744E88BAD}"/>
-    <hyperlink ref="A101" r:id="rId100" display="https://policja.pl/pol/form/r10344476932,11032024.html" xr:uid="{E05FB9EB-2A7F-4143-983D-40675685DD3A}"/>
-    <hyperlink ref="A102" r:id="rId101" display="https://policja.pl/pol/form/r90794991,10032024.html" xr:uid="{4795F923-0D98-423D-B82F-66DBA2E6C48C}"/>
-    <hyperlink ref="A103" r:id="rId102" display="https://policja.pl/pol/form/r190719579336,09032024.html" xr:uid="{35630637-728D-43DD-BC17-5E784993B470}"/>
-    <hyperlink ref="A104" r:id="rId103" display="https://policja.pl/pol/form/r917123639,08032024.html" xr:uid="{258EB298-95D0-4745-9153-0E71296754FF}"/>
-    <hyperlink ref="A105" r:id="rId104" display="https://policja.pl/pol/form/r363397934583,07032024.html" xr:uid="{11E3E025-11A8-4C8B-824D-1949FB9FBC79}"/>
-    <hyperlink ref="A106" r:id="rId105" display="https://policja.pl/pol/form/r501158213958,06032024.html" xr:uid="{1E54DDC0-238C-4842-8274-9ED2A5353CA2}"/>
-    <hyperlink ref="A107" r:id="rId106" display="https://policja.pl/pol/form/r27280593675,05032024.html" xr:uid="{1994725C-50A8-4845-AFAE-A53BA059AB19}"/>
-    <hyperlink ref="A108" r:id="rId107" display="https://policja.pl/pol/form/r3241740,04032024.html" xr:uid="{C0CA0CBE-C3A9-4E7F-AC7E-5C1F6FED30CA}"/>
-    <hyperlink ref="A109" r:id="rId108" display="https://policja.pl/pol/form/r86487,03032024.html" xr:uid="{0B08E957-22A5-4E39-84F0-3179A42437E9}"/>
-    <hyperlink ref="A110" r:id="rId109" display="https://policja.pl/pol/form/r104747821686,02032024.html" xr:uid="{BBDE3C19-7E08-40F7-A84A-9BFB41DFB58F}"/>
-    <hyperlink ref="A111" r:id="rId110" display="https://policja.pl/pol/form/r12571510,01032024.html" xr:uid="{D50243D0-7D69-41D8-883A-1F8C881B3A6F}"/>
-    <hyperlink ref="A112" r:id="rId111" display="https://policja.pl/pol/form/r71324328947649,29022024.html" xr:uid="{5A59FEB2-3F6D-4346-BBA3-5339E79BC12A}"/>
-    <hyperlink ref="A113" r:id="rId112" display="https://policja.pl/pol/form/r7126410,28022024.html" xr:uid="{35803961-1CDF-410F-A0D3-85F68CC6FE49}"/>
-    <hyperlink ref="A114" r:id="rId113" display="https://policja.pl/pol/form/r558135,27022024.html" xr:uid="{AFC8A75F-2803-4A04-A8B3-EC59192AD348}"/>
-    <hyperlink ref="A115" r:id="rId114" display="https://policja.pl/pol/form/r88160,26022024.html" xr:uid="{A4CE4155-E80D-45F5-8B4D-808441DB4763}"/>
-    <hyperlink ref="A116" r:id="rId115" display="https://policja.pl/pol/form/r65515556392551,25022024.html" xr:uid="{C38032A2-8509-483F-94C1-000D186D54AD}"/>
-    <hyperlink ref="A117" r:id="rId116" display="https://policja.pl/pol/form/r1453748779849,24022024-r.html" xr:uid="{FF14A36D-CB1A-4CA7-8F9D-33DE7F6C63C8}"/>
-    <hyperlink ref="A118" r:id="rId117" display="https://policja.pl/pol/form/r823862180184,23022024-r.html" xr:uid="{AAB784AB-FD6D-4703-B4EA-862215589469}"/>
-    <hyperlink ref="A119" r:id="rId118" display="https://policja.pl/pol/form/r7031698725799,22022024.html" xr:uid="{66E745AC-5E3D-4038-AEC7-D6E4569BBC15}"/>
-    <hyperlink ref="A120" r:id="rId119" display="https://policja.pl/pol/form/r972332985908,21022022.html" xr:uid="{EDD7E660-D4B5-41E0-BB5A-8A86934C896B}"/>
-    <hyperlink ref="A121" r:id="rId120" display="https://policja.pl/pol/form/r53684,20022024.html" xr:uid="{264A46A4-F3D0-4368-B13E-9651C1AD1696}"/>
-    <hyperlink ref="A122" r:id="rId121" display="https://policja.pl/pol/form/r239220,19022024.html" xr:uid="{70DE6772-0043-431D-84A8-4EC84039F285}"/>
-    <hyperlink ref="A123" r:id="rId122" display="https://policja.pl/pol/form/r224924367,18022024.html" xr:uid="{C4F73D5F-C1CB-4ECC-84A5-EC96923C203E}"/>
-    <hyperlink ref="A124" r:id="rId123" display="https://policja.pl/pol/form/r28561,17022024.html" xr:uid="{45FA70BA-E009-4372-8369-05E2D0935B96}"/>
-    <hyperlink ref="A125" r:id="rId124" display="https://policja.pl/pol/form/r53773017,16022024.html" xr:uid="{BEAB81CA-C3A2-457E-BC18-E1B09C004421}"/>
-    <hyperlink ref="A126" r:id="rId125" display="https://policja.pl/pol/form/r22860212473836,15022024.html" xr:uid="{DDA56FD1-631D-4D3D-9800-8B313728F653}"/>
-    <hyperlink ref="A127" r:id="rId126" display="https://policja.pl/pol/form/r58200800,14022024.html" xr:uid="{50A11705-8E55-4775-A296-505686C4450C}"/>
-    <hyperlink ref="A128" r:id="rId127" display="https://policja.pl/pol/form/r9698402252320,13022024.html" xr:uid="{EF7158DD-34AF-4AFE-A6EE-B13E8A04B553}"/>
-    <hyperlink ref="A129" r:id="rId128" display="https://policja.pl/pol/form/r214338,12022024.html" xr:uid="{C1EDB2E6-F322-490B-965A-CE98BBC8D079}"/>
-    <hyperlink ref="A130" r:id="rId129" display="https://policja.pl/pol/form/r201398172780,11022024.html" xr:uid="{CFEE17FC-2031-4AD1-9230-49C23C3C3752}"/>
-    <hyperlink ref="A131" r:id="rId130" display="https://policja.pl/pol/form/r82937190082045,10022024.html" xr:uid="{F3342378-04C2-44F8-B3D9-5A03D75D98C1}"/>
-    <hyperlink ref="A132" r:id="rId131" display="https://policja.pl/pol/form/r748625708,09022024.html" xr:uid="{6E10654E-BD9C-4BA8-B560-8CCB05B35A39}"/>
-    <hyperlink ref="A133" r:id="rId132" display="https://policja.pl/pol/form/r9570190227077,08022024.html" xr:uid="{F5519D5A-0D8F-4FE3-8DE8-9978266B63AA}"/>
-    <hyperlink ref="A134" r:id="rId133" display="https://policja.pl/pol/form/r5155776000797,07022024.html" xr:uid="{84E268CC-4E45-491F-85E3-FD74636B0F56}"/>
-    <hyperlink ref="A135" r:id="rId134" display="https://policja.pl/pol/form/r2383118845106,6022024-r.html" xr:uid="{EDD2CA8C-9B5E-4A71-B420-FB8E9386A743}"/>
-    <hyperlink ref="A136" r:id="rId135" display="https://policja.pl/pol/form/r7954755967750,05022024r.html" xr:uid="{0F71C837-C924-497B-95D9-2DA744A93047}"/>
-    <hyperlink ref="A137" r:id="rId136" display="https://policja.pl/pol/form/r172299383714,04022024.html" xr:uid="{9D7E711A-59AF-4B85-83FC-6B01597DD761}"/>
-    <hyperlink ref="A138" r:id="rId137" display="https://policja.pl/pol/form/r61274534089,03022024.html" xr:uid="{14AD8349-47AA-4C54-B678-E0E39B21CABD}"/>
-    <hyperlink ref="A139" r:id="rId138" display="https://policja.pl/pol/form/r8591387312,02022024.html" xr:uid="{3178EB72-060F-42E1-BE21-B263E9B5921B}"/>
-    <hyperlink ref="A140" r:id="rId139" display="https://policja.pl/pol/form/r8497849592,01022024.html" xr:uid="{CF54F2AC-E781-4846-832B-265385A6F7FD}"/>
-    <hyperlink ref="A141" r:id="rId140" display="https://policja.pl/pol/form/r720082260484,31012024.html" xr:uid="{846E1DC7-0A61-4C99-887C-9A086A8220BD}"/>
-    <hyperlink ref="A142" r:id="rId141" display="https://policja.pl/pol/form/r5032784606244,30012024.html" xr:uid="{31A64434-6312-43FE-91C2-3A3E3D4FF859}"/>
-    <hyperlink ref="A143" r:id="rId142" display="https://policja.pl/pol/form/r513309523,29012024-r.html" xr:uid="{A57A0CB4-477F-47E2-9BAA-17729362EAF6}"/>
-    <hyperlink ref="A144" r:id="rId143" display="https://policja.pl/pol/form/r2815914,28012024.html" xr:uid="{11C37C1F-4D4C-4388-835A-83E91BC68D63}"/>
-    <hyperlink ref="A145" r:id="rId144" display="https://policja.pl/pol/form/r57476392767033,27012024.html" xr:uid="{392F80B1-94B4-407D-9E46-31AFB02197E5}"/>
-    <hyperlink ref="A146" r:id="rId145" display="https://policja.pl/pol/form/r44075317067567,26012024.html" xr:uid="{665D935D-D9F2-4F23-97CA-95BE101E0DF4}"/>
-    <hyperlink ref="A147" r:id="rId146" display="https://policja.pl/pol/form/r25608024487372,25012024.html" xr:uid="{CE6736E2-4B17-47D0-B5A1-909128FF14D2}"/>
-    <hyperlink ref="A148" r:id="rId147" display="https://policja.pl/pol/form/r52029571257082,24012024.html" xr:uid="{7A3F1311-A6EC-416C-83C3-8C1E4A75263C}"/>
-    <hyperlink ref="A149" r:id="rId148" display="https://policja.pl/pol/form/r2904022146,23012024.html" xr:uid="{1F590CBE-C3C0-4AE0-ABE3-C59E3B25961A}"/>
-    <hyperlink ref="A150" r:id="rId149" display="https://policja.pl/pol/form/r5497399,22012024.html" xr:uid="{60036301-AB08-40BC-862D-E2246FBAF9B2}"/>
-    <hyperlink ref="A151" r:id="rId150" display="https://policja.pl/pol/form/r53445089310,21012024.html" xr:uid="{197FCDBC-B657-46D6-B4AD-0384FD100225}"/>
-    <hyperlink ref="A152" r:id="rId151" display="https://policja.pl/pol/form/r6793230683,20012024.html" xr:uid="{A9CC33F1-72C8-4B12-8471-3FCBEDBEF11F}"/>
-    <hyperlink ref="A153" r:id="rId152" display="https://policja.pl/pol/form/r8764491872,19012024.html" xr:uid="{652B620A-81CB-41DF-9733-4B1C2B2371A8}"/>
-    <hyperlink ref="A154" r:id="rId153" display="https://policja.pl/pol/form/r77423837177,18012024.html" xr:uid="{1261E0F8-4205-4427-BC56-FA13132AA9B6}"/>
-    <hyperlink ref="A155" r:id="rId154" display="https://policja.pl/pol/form/r3298000503,17012024.html" xr:uid="{3F46407F-CC73-4991-AD52-22F21E20093C}"/>
-    <hyperlink ref="A156" r:id="rId155" display="https://policja.pl/pol/form/r12564305,16012024.html" xr:uid="{0CB26C38-929F-4251-9B2F-248B6AAFB2E0}"/>
-    <hyperlink ref="A157" r:id="rId156" display="https://policja.pl/pol/form/r764640394,15012024.html" xr:uid="{95903E52-AD03-4BC6-B428-87F566C53246}"/>
-    <hyperlink ref="A158" r:id="rId157" display="https://policja.pl/pol/form/r7432737380,14012024.html" xr:uid="{27C25AD4-0C6A-403F-8830-E260EADF0251}"/>
-    <hyperlink ref="A159" r:id="rId158" display="https://policja.pl/pol/form/r242134556245,13012024.html" xr:uid="{39D073C0-2842-4FB6-9BEF-3E468C72C1B1}"/>
-    <hyperlink ref="A160" r:id="rId159" display="https://policja.pl/pol/form/r87024922,12012024.html" xr:uid="{266178C1-C3E0-4996-AD2A-C105DE28BB55}"/>
-    <hyperlink ref="A161" r:id="rId160" display="https://policja.pl/pol/form/r715030,11012024.html" xr:uid="{E19E3611-06F5-4E11-ABFD-E77A43735A37}"/>
-    <hyperlink ref="A162" r:id="rId161" display="https://policja.pl/pol/form/r886776581,10012024.html" xr:uid="{0AAB2E0D-720A-498D-B59C-4C6A756A9F71}"/>
-    <hyperlink ref="A163" r:id="rId162" display="https://policja.pl/pol/form/r761150430232,09012024.html" xr:uid="{48A2591B-6C3B-4765-A29D-486A3B06B147}"/>
-    <hyperlink ref="A164" r:id="rId163" display="https://policja.pl/pol/form/r18443419674001,08012024.html" xr:uid="{6FA66F7C-432F-4147-B93C-F9BAAF8FC811}"/>
-    <hyperlink ref="A165" r:id="rId164" display="https://policja.pl/pol/form/r8755309217,07012024.html" xr:uid="{E3C17A65-3026-4850-9E3E-49B44F8A05A8}"/>
-    <hyperlink ref="A166" r:id="rId165" display="https://policja.pl/pol/form/r820449,06012024.html" xr:uid="{CC06C111-ED08-4D02-8707-4D7687094F38}"/>
-    <hyperlink ref="A167" r:id="rId166" display="https://policja.pl/pol/form/r225951856078,05012024.html" xr:uid="{D4522672-786A-4AE7-BF6B-E53F353BB818}"/>
-    <hyperlink ref="A168" r:id="rId167" display="https://policja.pl/pol/form/r46740426490,04012024.html" xr:uid="{AB4DA972-B646-4CC0-AE33-1A8099B3DEB4}"/>
-    <hyperlink ref="A169" r:id="rId168" display="https://policja.pl/pol/form/r50991,03012024.html" xr:uid="{28EE91EA-A212-4E48-829A-CF5856DC6E39}"/>
-    <hyperlink ref="A170" r:id="rId169" display="https://policja.pl/pol/form/r82745689125,02012024.html" xr:uid="{D0E90B35-B6E2-4C8F-A931-894C790A9AF0}"/>
-    <hyperlink ref="A171" r:id="rId170" display="https://policja.pl/pol/form/r13840991931,01012024.html" xr:uid="{34677C1D-D566-45A2-A0B4-85F8DB9E7A91}"/>
-    <hyperlink ref="A172" r:id="rId171" display="https://policja.pl/pol/form/r196172060889,31122023.html" xr:uid="{3CDE4BF7-A443-4740-BFBF-DC53FBC2CDFB}"/>
-    <hyperlink ref="A173" r:id="rId172" display="https://policja.pl/pol/form/r676101280783,30122023.html" xr:uid="{DA1FA4D7-EF68-4098-919D-748D13447137}"/>
-    <hyperlink ref="A174" r:id="rId173" display="https://policja.pl/pol/form/r3120352,29122023.html" xr:uid="{3D644CCC-0AE5-4E4A-BC26-C5101F800E9E}"/>
-    <hyperlink ref="A175" r:id="rId174" display="https://policja.pl/pol/form/r5535603017124,28122023.html" xr:uid="{3AEAF0B8-4C0B-41C8-B93A-ACCCCEE93201}"/>
-    <hyperlink ref="A176" r:id="rId175" display="https://policja.pl/pol/form/r4143475885744,27122023.html" xr:uid="{D93B6422-BE72-422D-AEA0-B39C413B6F5A}"/>
-    <hyperlink ref="A177" r:id="rId176" display="https://policja.pl/pol/form/r3054207023776,26122023.html" xr:uid="{306E8718-7CB7-4010-8553-CA49E21BD1F2}"/>
-    <hyperlink ref="A178" r:id="rId177" display="https://policja.pl/pol/form/r3169806895951,25122023.html" xr:uid="{1492850E-839B-412F-89B6-B5F0BA85B29A}"/>
-    <hyperlink ref="A179" r:id="rId178" display="https://policja.pl/pol/form/r9278017664796,24122023.html" xr:uid="{096FFA6E-A600-4675-944B-83735A648DBF}"/>
-    <hyperlink ref="A180" r:id="rId179" display="https://policja.pl/pol/form/r603054069,23122023.html" xr:uid="{B0E09089-09A9-4DFE-94B7-6F3A91D3E74E}"/>
-    <hyperlink ref="A181" r:id="rId180" display="https://policja.pl/pol/form/r26412082061867,22122023.html" xr:uid="{65655F90-8509-4DED-A845-A5F173C9E629}"/>
-    <hyperlink ref="A182" r:id="rId181" display="https://policja.pl/pol/form/r46048,21122023.html" xr:uid="{7C39BB56-8FE4-4019-BC16-663466BDEDA3}"/>
-    <hyperlink ref="A183" r:id="rId182" display="https://policja.pl/pol/form/r39275,20122023.html" xr:uid="{5E4C98C1-2A19-4BE0-8848-4821BA788EAB}"/>
-    <hyperlink ref="A184" r:id="rId183" display="https://policja.pl/pol/form/r96360856763477,19122023.html" xr:uid="{187D8F60-0648-4F72-B4FC-144770C9A0A2}"/>
-    <hyperlink ref="A185" r:id="rId184" display="https://policja.pl/pol/form/r3948377954,18122023.html" xr:uid="{D0A9A05E-7288-441A-9FEB-AB2FB6CE9643}"/>
-    <hyperlink ref="A186" r:id="rId185" display="https://policja.pl/pol/form/r9566725402,17122023.html" xr:uid="{C098817F-36EF-4352-B343-6FA21E818A65}"/>
-    <hyperlink ref="A187" r:id="rId186" display="https://policja.pl/pol/form/r51805592,16122023.html" xr:uid="{FB900FC4-0125-4FB1-979A-923E72201236}"/>
-    <hyperlink ref="A188" r:id="rId187" display="https://policja.pl/pol/form/r6527215974885,15122023.html" xr:uid="{F754414E-3F7A-4B79-A03E-583209E4735B}"/>
-    <hyperlink ref="A189" r:id="rId188" display="https://policja.pl/pol/form/r93279,14122023.html" xr:uid="{D4FAD74E-67EA-4EEA-8656-92725C8BCD55}"/>
-    <hyperlink ref="A190" r:id="rId189" display="https://policja.pl/pol/form/r99941766988,13122023.html" xr:uid="{85F254FD-B8AF-4410-B238-1143E7C372B0}"/>
-    <hyperlink ref="A191" r:id="rId190" display="https://policja.pl/pol/form/r8122232,12122023.html" xr:uid="{2F2F727D-E9D7-4559-A290-2ED0F140498B}"/>
-    <hyperlink ref="A192" r:id="rId191" display="https://policja.pl/pol/form/r28203312297000,11122023.html" xr:uid="{F4F939FA-999B-4156-9D19-F53F31AF1443}"/>
-    <hyperlink ref="A193" r:id="rId192" display="https://policja.pl/pol/form/r643890,10122023.html" xr:uid="{4398CBD4-86EB-40E3-80A1-27717978D9B1}"/>
-    <hyperlink ref="A194" r:id="rId193" display="https://policja.pl/pol/form/r3690572648,09122023.html" xr:uid="{51A7690D-5EB5-4A7D-B15D-31BA0F196342}"/>
-    <hyperlink ref="A195" r:id="rId194" display="https://policja.pl/pol/form/r820974381563,08122023.html" xr:uid="{4DBCAB66-73EA-43B1-87E2-914BB1913B20}"/>
-    <hyperlink ref="A196" r:id="rId195" display="https://policja.pl/pol/form/r259896140625,07122023.html" xr:uid="{9E6EE894-FAE5-4128-A3A1-F88864A45BB7}"/>
-    <hyperlink ref="A197" r:id="rId196" display="https://policja.pl/pol/form/r2747503285614,06122023.html" xr:uid="{70BC87B9-9599-4DD2-AC01-231F66EC484B}"/>
-    <hyperlink ref="A198" r:id="rId197" display="https://policja.pl/pol/form/r874181566,05122023.html" xr:uid="{B927C47A-9048-4592-8A9A-8851DD14CE43}"/>
-    <hyperlink ref="A199" r:id="rId198" display="https://policja.pl/pol/form/r83862218207,04122023.html" xr:uid="{3F52B43C-E92F-4738-BEAE-4847A784B0AC}"/>
-    <hyperlink ref="A200" r:id="rId199" display="https://policja.pl/pol/form/r51801,03122023.html" xr:uid="{A419B88B-F785-4634-AEF9-9B64051C4B5C}"/>
-    <hyperlink ref="A201" r:id="rId200" display="https://policja.pl/pol/form/r9248425789,02122023.html" xr:uid="{2EE29C54-69FA-4D5D-80A6-DC11EA7EB068}"/>
-    <hyperlink ref="A202" r:id="rId201" display="https://policja.pl/pol/form/r33436563007,01122023.html" xr:uid="{418AD0F5-BDE6-44A3-985A-22BB06EFADC8}"/>
-    <hyperlink ref="A203" r:id="rId202" display="https://policja.pl/pol/form/r358049688,30112023.html" xr:uid="{7267E142-38A9-458F-801A-B3547FDEE7A1}"/>
-    <hyperlink ref="A204" r:id="rId203" display="https://policja.pl/pol/form/r2378457170671,29112023.html" xr:uid="{4157D412-ADEC-4957-8D8E-AE5662BD8699}"/>
-    <hyperlink ref="A205" r:id="rId204" display="https://policja.pl/pol/form/r291077248,28112023.html" xr:uid="{3F57E01D-C7CD-4C31-8476-9427EB74B50F}"/>
-    <hyperlink ref="A206" r:id="rId205" display="https://policja.pl/pol/form/r1223852,27112023.html" xr:uid="{80A50BC8-1E10-4929-AE33-E7A444C28115}"/>
-    <hyperlink ref="A207" r:id="rId206" display="https://policja.pl/pol/form/r17117020354018,26112023.html" xr:uid="{DFA2D3E1-BEBF-47A4-88F8-1DC3ABA1462B}"/>
-    <hyperlink ref="A208" r:id="rId207" display="https://policja.pl/pol/form/r8637266919,25112023.html" xr:uid="{19CB711D-1CCD-4876-BB47-FDD3940134A6}"/>
-    <hyperlink ref="A209" r:id="rId208" display="https://policja.pl/pol/form/r30129936,24112023.html" xr:uid="{56FC61CC-AE5E-423C-9159-D0EB3BFDC05E}"/>
-    <hyperlink ref="A210" r:id="rId209" display="https://policja.pl/pol/form/r7367924650866,23112023.html" xr:uid="{6B7DF4D8-D13E-478F-8651-AB94D292A23A}"/>
-    <hyperlink ref="A211" r:id="rId210" display="https://policja.pl/pol/form/r73505776958,22112023.html" xr:uid="{F8E2EF23-7FF8-47D0-92D2-A2092D512EE0}"/>
-    <hyperlink ref="A212" r:id="rId211" display="https://policja.pl/pol/form/r78783848701,21112023.html" xr:uid="{7B3DD598-9629-46FD-9A6C-5BE2DE0C8844}"/>
-    <hyperlink ref="A213" r:id="rId212" display="https://policja.pl/pol/form/r6502606,20112023.html" xr:uid="{2951EADD-78FA-441F-84E9-91A962EF25BF}"/>
-    <hyperlink ref="A214" r:id="rId213" display="https://policja.pl/pol/form/r5330871412818,19112023.html" xr:uid="{B68AB5E2-8FB8-4235-BD16-5F5488C65328}"/>
-    <hyperlink ref="A215" r:id="rId214" display="https://policja.pl/pol/form/r679226343,18112023.html" xr:uid="{796BFA0A-270C-4DB8-922A-31E1CF1DDB87}"/>
-    <hyperlink ref="A216" r:id="rId215" display="https://policja.pl/pol/form/r2812715,17112023.html" xr:uid="{F87358A8-F222-41C0-AFC5-1CB34A60638C}"/>
-    <hyperlink ref="A217" r:id="rId216" display="https://policja.pl/pol/form/r7760930689424,16112023.html" xr:uid="{4A6CB182-EF64-40F9-9FC5-F97AF3C718D7}"/>
-    <hyperlink ref="A218" r:id="rId217" display="https://policja.pl/pol/form/r278127744018,15112023.html" xr:uid="{920234E4-F34A-4A0C-81F0-2408A9E7C79A}"/>
-    <hyperlink ref="A219" r:id="rId218" display="https://policja.pl/pol/form/r4877495,14112023.html" xr:uid="{A302AAB7-A7CA-4E11-8A1C-05048E92D6D8}"/>
-    <hyperlink ref="A220" r:id="rId219" display="https://policja.pl/pol/form/r5548990103,13112023.html" xr:uid="{EBF79236-23FB-4ABA-BD6C-33D40AB8C6D0}"/>
-    <hyperlink ref="A221" r:id="rId220" display="https://policja.pl/pol/form/r4150447476566,12112023.html" xr:uid="{F77F09CD-58FF-46E3-A3C3-0D4EFCF32023}"/>
-    <hyperlink ref="A222" r:id="rId221" display="https://policja.pl/pol/form/r817720,11112023.html" xr:uid="{202D5B49-A82B-4E01-8146-A78B2DCC4694}"/>
-    <hyperlink ref="A223" r:id="rId222" display="https://policja.pl/pol/form/r7297418,10112023.html" xr:uid="{D18E2010-F0BB-4221-8C8A-BB58069A7F6F}"/>
-    <hyperlink ref="A224" r:id="rId223" display="https://policja.pl/pol/form/r838670,09112023.html" xr:uid="{0A85564E-1739-4E18-A376-DC5611C72158}"/>
-    <hyperlink ref="A225" r:id="rId224" display="https://policja.pl/pol/form/r2380222926270,08112023.html" xr:uid="{4757183D-FA64-42D2-BF58-E3D2F3BB3EC4}"/>
-    <hyperlink ref="A226" r:id="rId225" display="https://policja.pl/pol/form/r28046833640,07112023.html" xr:uid="{89C46CBB-D24D-467F-AFA7-37AF97CACB37}"/>
-    <hyperlink ref="A227" r:id="rId226" display="https://policja.pl/pol/form/r654875,06112023.html" xr:uid="{124D9E52-42FC-4646-9536-0D4CC00DF7C5}"/>
-    <hyperlink ref="A228" r:id="rId227" display="https://policja.pl/pol/form/r9582855560384,05112023.html" xr:uid="{65D62AAB-D9BF-49FA-95C8-387CC2731938}"/>
-    <hyperlink ref="A229" r:id="rId228" display="https://policja.pl/pol/form/r54388681771,04112023.html" xr:uid="{938FA524-7A60-482D-B127-82755350F46D}"/>
-    <hyperlink ref="A230" r:id="rId229" display="https://policja.pl/pol/form/r59669624177,03112023.html" xr:uid="{B3685AEF-40C9-4620-AB4A-5558B1E029D6}"/>
-    <hyperlink ref="A231" r:id="rId230" display="https://policja.pl/pol/form/r18678,02112023.html" xr:uid="{408F0F43-AFC1-4349-82F3-6279683069C6}"/>
-    <hyperlink ref="A232" r:id="rId231" display="https://policja.pl/pol/form/r5588956470152,01112023.html" xr:uid="{E8B93FD1-5256-4BF7-A21D-EC8E5EFC33DA}"/>
-    <hyperlink ref="A233" r:id="rId232" display="https://policja.pl/pol/form/r56763840,31102023.html" xr:uid="{F85FE58A-82A4-4786-A9CA-3BFDD1CAA218}"/>
-    <hyperlink ref="A234" r:id="rId233" display="https://policja.pl/pol/form/r57153,30102023.html" xr:uid="{EEC72D1C-A7FA-4A9C-8AB7-FB0191B49458}"/>
-    <hyperlink ref="A235" r:id="rId234" display="https://policja.pl/pol/form/r88315,29102023.html" xr:uid="{79B2519C-C3BF-4523-B19D-BA39E025CA05}"/>
-    <hyperlink ref="A236" r:id="rId235" display="https://policja.pl/pol/form/r225451599322,28102023.html" xr:uid="{6477DDF0-B21A-43EF-95E0-9202140D4A10}"/>
-    <hyperlink ref="A237" r:id="rId236" display="https://policja.pl/pol/form/r80959287350272,27102023.html" xr:uid="{E2872745-DB94-4C8E-91CF-F3AEEB650E5D}"/>
-    <hyperlink ref="A238" r:id="rId237" display="https://policja.pl/pol/form/r34033595,26102023.html" xr:uid="{60D6260F-B93B-43F3-BF3B-1C6146540CDF}"/>
-    <hyperlink ref="A239" r:id="rId238" display="https://policja.pl/pol/form/r4097173704,25102023.html" xr:uid="{B8BE8006-012E-49FF-91DA-8059C3920090}"/>
-    <hyperlink ref="A240" r:id="rId239" display="https://policja.pl/pol/form/r587300175046,24102023.html" xr:uid="{AE1A7A12-4703-4418-9EC4-27D3130E0A94}"/>
-    <hyperlink ref="A241" r:id="rId240" display="https://policja.pl/pol/form/r6747938883506,23102023.html" xr:uid="{BE381EE7-EF15-4DC1-9A63-2EB3E8200B12}"/>
-    <hyperlink ref="A242" r:id="rId241" display="https://policja.pl/pol/form/r53320787097550,22102023.html" xr:uid="{526ADFF3-423A-4C8D-BB48-5693AB62F43B}"/>
-    <hyperlink ref="A243" r:id="rId242" display="https://policja.pl/pol/form/r6608719722,21102023.html" xr:uid="{459B3FE7-7840-4659-A0A4-76FB81C891B4}"/>
-    <hyperlink ref="A244" r:id="rId243" display="https://policja.pl/pol/form/r9279997674790,20102023.html" xr:uid="{F0633C37-DB83-41D8-86EC-C5DA4F78DB06}"/>
-    <hyperlink ref="A245" r:id="rId244" display="https://policja.pl/pol/form/r2312475,19102023.html" xr:uid="{6588E4B4-A195-49AB-AD9D-5029AC52DB69}"/>
-    <hyperlink ref="A246" r:id="rId245" display="https://policja.pl/pol/form/r98462719795,18102023.html" xr:uid="{59544608-C41C-4AA7-831D-B16CA558F95F}"/>
-    <hyperlink ref="A247" r:id="rId246" display="https://policja.pl/pol/form/r15305604596,17102023.html" xr:uid="{0E3CC4A8-DCB8-4CE9-A5EA-93C11B291360}"/>
-    <hyperlink ref="A248" r:id="rId247" display="https://policja.pl/pol/form/r4564486405297,16102023.html" xr:uid="{A5B1D5B0-00F1-41C8-AE2A-27C722E0C31B}"/>
-    <hyperlink ref="A249" r:id="rId248" display="https://policja.pl/pol/form/r70026999907,15102023.html" xr:uid="{CFCA9270-06AB-48EB-949F-C804690A50DB}"/>
-    <hyperlink ref="A250" r:id="rId249" display="https://policja.pl/pol/form/r17550894,14102023.html" xr:uid="{157ADD9B-D99C-41F2-B985-1AE05A4043BB}"/>
-    <hyperlink ref="A251" r:id="rId250" display="https://policja.pl/pol/form/r533114314,13102023.html" xr:uid="{D1AC3F47-02B7-451D-88B1-367332F43620}"/>
-    <hyperlink ref="A252" r:id="rId251" display="https://policja.pl/pol/form/r42233580,12102023.html" xr:uid="{FEE56BE9-1BD3-409C-8D97-9760877E03EF}"/>
-    <hyperlink ref="A253" r:id="rId252" display="https://policja.pl/pol/form/r908519092303,11102023.html" xr:uid="{257E8BB9-02FE-42A2-9240-9D2B48ABE021}"/>
-    <hyperlink ref="A254" r:id="rId253" display="https://policja.pl/pol/form/r5402294236802,10102023.html" xr:uid="{B0BB7FF6-BBD5-4C95-AE17-32E7BAE708C8}"/>
-    <hyperlink ref="A255" r:id="rId254" display="https://policja.pl/pol/form/r3543844722663,09102023.html" xr:uid="{AD524AC6-274D-4161-982D-37D4ED1A2307}"/>
-    <hyperlink ref="A256" r:id="rId255" display="https://policja.pl/pol/form/r6511283532,08102023.html" xr:uid="{C86D8458-58F5-4BD0-9ECD-26E015BEC498}"/>
-    <hyperlink ref="A257" r:id="rId256" display="https://policja.pl/pol/form/r333276,07102023.html" xr:uid="{7444BFAB-6B82-4C5F-B1A0-98EF866B14C4}"/>
-    <hyperlink ref="A258" r:id="rId257" display="https://policja.pl/pol/form/r54849160708048,06102023.html" xr:uid="{5288EB57-2A0E-4097-9A44-56C226683216}"/>
-    <hyperlink ref="A259" r:id="rId258" display="https://policja.pl/pol/form/r58379528424247,05102023.html" xr:uid="{45CA1277-2D35-4A29-BF42-0BFCEA60654F}"/>
-    <hyperlink ref="A260" r:id="rId259" display="https://policja.pl/pol/form/r2477670,04102023.html" xr:uid="{89FF283D-F78D-48CE-9B3A-23AD1F9F8845}"/>
-    <hyperlink ref="A261" r:id="rId260" display="https://policja.pl/pol/form/r123447973072,03102023.html" xr:uid="{ABEDF934-02AD-4505-AF8B-2EBC5F390542}"/>
-    <hyperlink ref="A262" r:id="rId261" display="https://policja.pl/pol/form/r4679934808162,02102023.html" xr:uid="{EC8AA2FA-3FB0-482F-A053-B32CD5586028}"/>
-    <hyperlink ref="A263" r:id="rId262" display="https://policja.pl/pol/form/r7628674,01102023.html" xr:uid="{49B5A8CE-FB7A-4C1D-A394-57533467433E}"/>
-    <hyperlink ref="A264" r:id="rId263" display="https://policja.pl/pol/form/r380280623,30092023.html" xr:uid="{0C68CD5B-1948-4321-9CB0-DC35475E0C51}"/>
-    <hyperlink ref="A265" r:id="rId264" display="https://policja.pl/pol/form/r31678760,29092023.html" xr:uid="{C9CB61A2-3F78-48E8-BED8-B82A40E21734}"/>
-    <hyperlink ref="A266" r:id="rId265" display="https://policja.pl/pol/form/r175600303,28092023.html" xr:uid="{977AE47D-4F82-4422-AFE9-910C6BCAD627}"/>
-    <hyperlink ref="A267" r:id="rId266" display="https://policja.pl/pol/form/r210730101,27092023.html" xr:uid="{9B6AD56A-306D-4237-9015-4CDABBCBDAB3}"/>
-    <hyperlink ref="A268" r:id="rId267" display="https://policja.pl/pol/form/r6230360954407,26092023.html" xr:uid="{CE97C3C9-BD79-43A3-B323-EE52351ADD0F}"/>
-    <hyperlink ref="A269" r:id="rId268" display="https://policja.pl/pol/form/r25417089,25092023.html" xr:uid="{70A4B064-7C3D-469F-BC46-9C6C6466B080}"/>
-    <hyperlink ref="A270" r:id="rId269" display="https://policja.pl/pol/form/r33491891728,24092023.html" xr:uid="{DCC8BB2F-2697-4FB4-BBAE-F5BCCC80C7FF}"/>
-    <hyperlink ref="A271" r:id="rId270" display="https://policja.pl/pol/form/r4046191588241,23092023.html" xr:uid="{C2703A83-7496-4B87-BDB4-66EF2BC14560}"/>
-    <hyperlink ref="A272" r:id="rId271" display="https://policja.pl/pol/form/r6201638,22092023.html" xr:uid="{F8EF0A36-FD3B-40B0-9260-04251F85489E}"/>
-    <hyperlink ref="A273" r:id="rId272" display="https://policja.pl/pol/form/r8988616827508,21092023.html" xr:uid="{9DFD6E79-86A1-4730-BAE8-11025C9E4556}"/>
-    <hyperlink ref="A274" r:id="rId273" display="https://policja.pl/pol/form/r86121651291041,20092023.html" xr:uid="{FBF64CC5-6532-4548-A01F-05E406F1D04A}"/>
-    <hyperlink ref="A275" r:id="rId274" display="https://policja.pl/pol/form/r55935683022366,19092023.html" xr:uid="{E9A14B52-151C-44FE-AD2F-BE42C9E82B7C}"/>
-    <hyperlink ref="A276" r:id="rId275" display="https://policja.pl/pol/form/r282754285476,18092023.html" xr:uid="{04BF9482-5A7F-4927-946B-A12908FCA009}"/>
-    <hyperlink ref="A277" r:id="rId276" display="https://policja.pl/pol/form/r22661052221,17092023.html" xr:uid="{7E895D84-C842-412E-B813-04C30C1D0B38}"/>
-    <hyperlink ref="A278" r:id="rId277" display="https://policja.pl/pol/form/r77462175329064,16092023.html" xr:uid="{5E732FE0-D4D6-4ADF-BB90-2F6613F598AB}"/>
-    <hyperlink ref="A279" r:id="rId278" display="https://policja.pl/pol/form/r626135416,15092023.html" xr:uid="{71677A4D-A93E-45DA-963E-F6678CC81B13}"/>
-    <hyperlink ref="A280" r:id="rId279" display="https://policja.pl/pol/form/r700735,14092023.html" xr:uid="{8580589B-4885-4E3A-8D55-7EC1E44AC6EB}"/>
-    <hyperlink ref="A281" r:id="rId280" display="https://policja.pl/pol/form/r26911491,13092023.html" xr:uid="{690E48BA-C107-4D81-9966-C57866A5B9A7}"/>
-    <hyperlink ref="A282" r:id="rId281" display="https://policja.pl/pol/form/r136304,12092023.html" xr:uid="{C30D7543-51B0-49D8-9539-681C0456E6F1}"/>
-    <hyperlink ref="A283" r:id="rId282" display="https://policja.pl/pol/form/r72376091950,11092023.html" xr:uid="{C87F316A-C0A0-4225-8212-A0A2F4CAF51C}"/>
-    <hyperlink ref="A284" r:id="rId283" display="https://policja.pl/pol/form/r469979472795,10092023.html" xr:uid="{B0321895-96C7-4226-89BD-BEC43214AB8A}"/>
-    <hyperlink ref="A285" r:id="rId284" display="https://policja.pl/pol/form/r85703972533659,09092023.html" xr:uid="{330217C8-BAE8-48C7-8954-250BA437FAB8}"/>
-    <hyperlink ref="A286" r:id="rId285" display="https://policja.pl/pol/form/r45578122412953,08092023.html" xr:uid="{103DEA95-623F-424E-9658-997183CA74D7}"/>
-    <hyperlink ref="A287" r:id="rId286" display="https://policja.pl/pol/form/r27205347019631,07092023.html" xr:uid="{C55B0F86-3EF1-40A8-ACE1-37391B1CB51C}"/>
-    <hyperlink ref="A288" r:id="rId287" display="https://policja.pl/pol/form/r1409948711743,06092023.html" xr:uid="{66342AA7-7B4B-44DF-B066-810B315150DA}"/>
-    <hyperlink ref="A289" r:id="rId288" display="https://policja.pl/pol/form/r68958,05092023.html" xr:uid="{A893700C-C909-45DA-8220-F16085B527B2}"/>
-    <hyperlink ref="A290" r:id="rId289" display="https://policja.pl/pol/form/r778345316,04092023.html" xr:uid="{2098A8EE-45BF-465F-AAFA-DEA24F6483B0}"/>
-    <hyperlink ref="A291" r:id="rId290" display="https://policja.pl/pol/form/r13771364544273,03092023.html" xr:uid="{9AC05F1A-2498-4547-A6B6-EDCDEE57ACD6}"/>
-    <hyperlink ref="A292" r:id="rId291" display="https://policja.pl/pol/form/r439448145,02092023.html" xr:uid="{334AD64E-2432-4B79-85B4-A2015E25A51E}"/>
-    <hyperlink ref="A293" r:id="rId292" display="https://policja.pl/pol/form/r2267743433,01092023.html" xr:uid="{D2045571-8D24-4C12-95DD-19FEE84ECBFC}"/>
-    <hyperlink ref="A294" r:id="rId293" display="https://policja.pl/pol/form/r20453524,31082023.html" xr:uid="{B5C72CE9-711D-438A-853B-FDBD43EA48DE}"/>
-    <hyperlink ref="A295" r:id="rId294" display="https://policja.pl/pol/form/r359434,30082023.html" xr:uid="{4DFFB86D-0BAE-469E-B5EF-D38248C969BE}"/>
-    <hyperlink ref="A296" r:id="rId295" display="https://policja.pl/pol/form/r66950482995,29082023.html" xr:uid="{1E46758C-58C8-4397-9011-B42AF2AD4DB4}"/>
-    <hyperlink ref="A297" r:id="rId296" display="https://policja.pl/pol/form/r71167923,28082023.html" xr:uid="{7AD165DF-0EFC-4CF8-8AAE-5B4DA5AD2B21}"/>
-    <hyperlink ref="A298" r:id="rId297" display="https://policja.pl/pol/form/r6604760846,27082023.html" xr:uid="{2A1A67A9-8025-48FB-B6AB-1A8678E0CC0A}"/>
-    <hyperlink ref="A299" r:id="rId298" display="https://policja.pl/pol/form/r51515269269373,26052023.html" xr:uid="{BD6025AA-F096-432C-9C94-AFB9C8140C57}"/>
-    <hyperlink ref="A300" r:id="rId299" display="https://policja.pl/pol/form/r7832509365,25082023.html" xr:uid="{108C928E-CDAA-4769-961A-BD91D4B0DF46}"/>
-    <hyperlink ref="A301" r:id="rId300" display="https://policja.pl/pol/form/r44381,24082023.html" xr:uid="{B54D534D-7DAD-4EF4-B0A2-35EC0066C87B}"/>
-    <hyperlink ref="A302" r:id="rId301" display="https://policja.pl/pol/form/r99420757692468,23082023.html" xr:uid="{C4D48D02-6AA9-4DDF-8491-ECAB27FF1F4C}"/>
-    <hyperlink ref="A303" r:id="rId302" display="https://policja.pl/pol/form/r1345550234086,22082023.html" xr:uid="{8491DC3E-3A4C-4056-B72C-DAA2411D315A}"/>
-    <hyperlink ref="A304" r:id="rId303" display="https://policja.pl/pol/form/r60138024321,21082023.html" xr:uid="{09FCFEBD-808C-49B7-853A-F3A608AB2F1D}"/>
-    <hyperlink ref="A305" r:id="rId304" display="https://policja.pl/pol/form/r49359,20082023.html" xr:uid="{F1AC9712-EFFA-4BD9-A0BD-A2B845098A59}"/>
-    <hyperlink ref="A306" r:id="rId305" display="https://policja.pl/pol/form/r12870,19082023.html" xr:uid="{CE0B55D2-3984-4AAE-ADD8-54D179DD6C03}"/>
-    <hyperlink ref="A307" r:id="rId306" display="https://policja.pl/pol/form/r368756,18082023.html" xr:uid="{A52DC03B-7D9E-4854-98A0-81B4246FEEEB}"/>
-    <hyperlink ref="A308" r:id="rId307" display="https://policja.pl/pol/form/r86269,17082023.html" xr:uid="{993848B3-F755-4A34-98C2-0DAD5395CE71}"/>
-    <hyperlink ref="A309" r:id="rId308" display="https://policja.pl/pol/form/r9534595033,16082023.html" xr:uid="{0B69A4D4-69C0-4F1A-B541-EF227201F2D4}"/>
-    <hyperlink ref="A310" r:id="rId309" display="https://policja.pl/pol/form/r33551660192,15082023.html" xr:uid="{5A8D680C-B95D-4CAB-BF79-ADB85FA5519B}"/>
-    <hyperlink ref="A311" r:id="rId310" display="https://policja.pl/pol/form/r8031479302912,14082023.html" xr:uid="{FD6A6BFC-0B04-40E6-A7FF-75A8D94D7CE2}"/>
-    <hyperlink ref="A312" r:id="rId311" display="https://policja.pl/pol/form/r88155854571240,13082023.html" xr:uid="{BBE6A56D-3E32-4734-BED1-1C1C25066258}"/>
-    <hyperlink ref="A313" r:id="rId312" display="https://policja.pl/pol/form/r7045873,12082023.html" xr:uid="{3068E711-EC38-44C9-A25D-3322F5B9D436}"/>
-    <hyperlink ref="A314" r:id="rId313" display="https://policja.pl/pol/form/r11984,11082023.html" xr:uid="{25B4A304-B9AA-4E30-9981-E3B6A509D169}"/>
-    <hyperlink ref="A315" r:id="rId314" display="https://policja.pl/pol/form/r410275,10082023.html" xr:uid="{C033F2BD-314F-415C-8999-40A28845C4C3}"/>
-    <hyperlink ref="A316" r:id="rId315" display="https://policja.pl/pol/form/r1331351,09082023.html" xr:uid="{9675D2B7-41D8-4C71-B793-E4A6D598CD3B}"/>
-    <hyperlink ref="A317" r:id="rId316" display="https://policja.pl/pol/form/r4465743,08082023.html" xr:uid="{670AEB17-9E05-4A1F-840D-48F2A9070E36}"/>
-    <hyperlink ref="A318" r:id="rId317" display="https://policja.pl/pol/form/r74516245418,07082023.html" xr:uid="{C5DE1379-E5C0-4B27-AB07-F3186C6AB548}"/>
-    <hyperlink ref="A319" r:id="rId318" display="https://policja.pl/pol/form/r1377349,06082023.html" xr:uid="{802FB7B5-A199-4967-A8CE-6743E5B0C535}"/>
-    <hyperlink ref="A320" r:id="rId319" display="https://policja.pl/pol/form/r75712198,05082023.html" xr:uid="{ABD4612D-D3D6-4CFE-BCEB-FDE9AF45BCA2}"/>
-    <hyperlink ref="A321" r:id="rId320" display="https://policja.pl/pol/form/r93793050,04082023.html" xr:uid="{A67109A0-1A56-48E5-A7F8-DDE0488D64D9}"/>
-    <hyperlink ref="A322" r:id="rId321" display="https://policja.pl/pol/form/r2605860,03082023.html" xr:uid="{BD8AC26B-8284-4D64-80B8-D9D915F90B23}"/>
-    <hyperlink ref="A323" r:id="rId322" display="https://policja.pl/pol/form/r36776549662,02082023.html" xr:uid="{1F57CE61-2C2F-42C6-9974-3AD552A467EA}"/>
-    <hyperlink ref="A324" r:id="rId323" display="https://policja.pl/pol/form/r6964901226646,01082023.html" xr:uid="{7566F349-BFFD-47FF-839B-323901732DAD}"/>
-    <hyperlink ref="A325" r:id="rId324" display="https://policja.pl/pol/form/r717612030,31072023.html" xr:uid="{AF2C25BC-D0E1-4322-AE19-2A20DECC8C62}"/>
-    <hyperlink ref="A326" r:id="rId325" display="https://policja.pl/pol/form/r879522,30072023.html" xr:uid="{DAD69DEA-244C-493E-80DC-CB7791DE07B5}"/>
-    <hyperlink ref="A327" r:id="rId326" display="https://policja.pl/pol/form/r847048,29072023.html" xr:uid="{8BC4CE19-8917-4DFA-9A9E-31AF56E5DE6C}"/>
-    <hyperlink ref="A328" r:id="rId327" display="https://policja.pl/pol/form/r396856065,28072023.html" xr:uid="{A5766AC3-DC75-4644-8D6F-92526E2ECA99}"/>
-    <hyperlink ref="A329" r:id="rId328" display="https://policja.pl/pol/form/r1025612,27072023.html" xr:uid="{BEA038E7-DB27-4D37-9931-623115BDC654}"/>
-    <hyperlink ref="A330" r:id="rId329" display="https://policja.pl/pol/form/r73327860695244,26072023.html" xr:uid="{68ADEE3B-38E2-450E-A6BE-2916ADE15B4A}"/>
-    <hyperlink ref="A331" r:id="rId330" display="https://policja.pl/pol/form/r95884889,25072023.html" xr:uid="{60B12F65-0C6E-4C12-8CE4-C97375DEE60D}"/>
-    <hyperlink ref="A332" r:id="rId331" display="https://policja.pl/pol/form/r6194740548082,24072023.html" xr:uid="{37879414-4392-4AB9-BB6E-B0F9047052D7}"/>
-    <hyperlink ref="A333" r:id="rId332" display="https://policja.pl/pol/form/r46790960,23072023.html" xr:uid="{4ADA388F-002F-4C29-8624-8712CF761642}"/>
-    <hyperlink ref="A334" r:id="rId333" display="https://policja.pl/pol/form/r76573052828306,22072023.html" xr:uid="{CCA99821-D056-454A-AF9D-62D4DF4EC480}"/>
-    <hyperlink ref="A335" r:id="rId334" display="https://policja.pl/pol/form/r49707,21072023.html" xr:uid="{F24BAEE4-30CD-4452-A154-BB916327FBC8}"/>
-    <hyperlink ref="A336" r:id="rId335" display="https://policja.pl/pol/form/r5615748227750,20072023.html" xr:uid="{1AFE6AAD-DB86-4107-A85E-3A0115DAD3EA}"/>
-    <hyperlink ref="A337" r:id="rId336" display="https://policja.pl/pol/form/r7963841514202,19072023.html" xr:uid="{1214E28E-A55B-4CD5-8F52-0CB6641C6C2B}"/>
-    <hyperlink ref="A338" r:id="rId337" display="https://policja.pl/pol/form/r14799238722704,18072023.html" xr:uid="{5D481EBE-F0E0-41DE-B89A-4C63F2448723}"/>
-    <hyperlink ref="A339" r:id="rId338" display="https://policja.pl/pol/form/r297222414758,17072023.html" xr:uid="{1C971239-FD95-4505-8DB4-D785F55A3D8A}"/>
-    <hyperlink ref="A340" r:id="rId339" display="https://policja.pl/pol/form/r142800755523,16072023.html" xr:uid="{F2FB2847-7AFD-4F6B-B48C-A7D01CB22704}"/>
-    <hyperlink ref="A341" r:id="rId340" display="https://policja.pl/pol/form/r58052361,15072023.html" xr:uid="{B002C7E9-5C50-4710-A93A-9904E2F9C604}"/>
-    <hyperlink ref="A342" r:id="rId341" display="https://policja.pl/pol/form/r206854339,14072023.html" xr:uid="{F422C406-2F1D-438C-8A1C-23AD42DF445A}"/>
-    <hyperlink ref="A343" r:id="rId342" display="https://policja.pl/pol/form/r8480848887,13072023.html" xr:uid="{CA566856-27C4-4292-A976-3679D332E82E}"/>
-    <hyperlink ref="A344" r:id="rId343" display="https://policja.pl/pol/form/r194506204703,12072023.html" xr:uid="{277BE324-B692-4E17-AEF2-787FE1778177}"/>
-    <hyperlink ref="A345" r:id="rId344" display="https://policja.pl/pol/form/r496452970498,11072023.html" xr:uid="{3817EDC1-B039-4DBC-A38B-154D0D8C5C27}"/>
-    <hyperlink ref="A346" r:id="rId345" display="https://policja.pl/pol/form/r12794763486993,10072023.html" xr:uid="{5B880DA4-853F-4B0C-9E97-D0FF507B1D30}"/>
-    <hyperlink ref="A347" r:id="rId346" display="https://policja.pl/pol/form/r958370577,09072023.html" xr:uid="{E5F0169C-2AD1-46CD-9C8B-6FD8FF555ADF}"/>
-    <hyperlink ref="A348" r:id="rId347" display="https://policja.pl/pol/form/r72001951039,08072023.html" xr:uid="{24FEE165-3943-4D80-9AA9-5D9B22A338B8}"/>
-    <hyperlink ref="A349" r:id="rId348" display="https://policja.pl/pol/form/r7004825,07072023.html" xr:uid="{E4AE3BC8-58B0-4DE1-9AAF-1DFD8AAFC2B2}"/>
-    <hyperlink ref="A350" r:id="rId349" display="https://policja.pl/pol/form/r23596811553,06072023.html" xr:uid="{7828644C-D8E8-4C88-BF24-6983FA12DC0B}"/>
-    <hyperlink ref="A351" r:id="rId350" display="https://policja.pl/pol/form/r4266612440,05072023.html" xr:uid="{5FD3FBEA-200C-4868-9849-8A7915B965E8}"/>
-    <hyperlink ref="A352" r:id="rId351" display="https://policja.pl/pol/form/r2436403162224,04072023.html" xr:uid="{0C5B4E0A-1510-4769-98DB-68313599BB62}"/>
-    <hyperlink ref="A353" r:id="rId352" display="https://policja.pl/pol/form/r3055142107,03072023.html" xr:uid="{B6651687-4809-472B-95F4-748B5F082C04}"/>
-    <hyperlink ref="A354" r:id="rId353" display="https://policja.pl/pol/form/r4203994638,02072023.html" xr:uid="{6C17E8E3-C448-466B-9615-4A45FCC2C53C}"/>
-    <hyperlink ref="A355" r:id="rId354" display="https://policja.pl/pol/form/r161893,01072023.html" xr:uid="{FDFF6EF4-9D14-4435-988A-5958EBACD1DD}"/>
-    <hyperlink ref="A356" r:id="rId355" display="https://policja.pl/pol/form/r3596973028307,30062023.html" xr:uid="{CE5524FB-FE8A-4944-B9A0-C87B1909A59D}"/>
-    <hyperlink ref="A357" r:id="rId356" display="https://policja.pl/pol/form/r193389,29062023.html" xr:uid="{AA4C9895-DB00-49E6-9957-383241630D77}"/>
-    <hyperlink ref="A358" r:id="rId357" display="https://policja.pl/pol/form/r87921299227,28062023.html" xr:uid="{7817AC15-C950-4A1F-9CB9-C3F655926955}"/>
-    <hyperlink ref="A359" r:id="rId358" display="https://policja.pl/pol/form/r312026388,27062023.html" xr:uid="{B0A0FAB0-725A-4172-B4B0-6CB4B8EE81CA}"/>
-    <hyperlink ref="A360" r:id="rId359" display="https://policja.pl/pol/form/r85551,26062023.html" xr:uid="{A4FB92B4-FB2B-4169-B61C-5449D270747F}"/>
-    <hyperlink ref="A361" r:id="rId360" display="https://policja.pl/pol/form/r93475742263415,25062023.html" xr:uid="{E9178036-11C2-4B41-A132-4735C46D8265}"/>
-    <hyperlink ref="A362" r:id="rId361" display="https://policja.pl/pol/form/r420927,24062023.html" xr:uid="{FF9B6014-9CD6-4678-922F-21385A083FF7}"/>
-    <hyperlink ref="A363" r:id="rId362" display="https://policja.pl/pol/form/r103431,23062023.html" xr:uid="{98853F1E-D8CF-4F53-A4EF-018B4F4EFA15}"/>
-    <hyperlink ref="A364" r:id="rId363" display="https://policja.pl/pol/form/r43912358554575,22062023.html" xr:uid="{5507E75C-41A2-4FB2-A17A-A02308053179}"/>
-    <hyperlink ref="A365" r:id="rId364" display="https://policja.pl/pol/form/r708992370,21062023.html" xr:uid="{79508B1E-466E-44F6-AABA-9AAD14BE85EE}"/>
-    <hyperlink ref="A366" r:id="rId365" display="https://policja.pl/pol/form/r725695834,20062023.html" xr:uid="{0CCE0105-6C38-4E51-9561-7CA2A54F0E3C}"/>
-    <hyperlink ref="A367" r:id="rId366" display="https://policja.pl/pol/form/r91822517,19062023.html" xr:uid="{A2C76D88-A7E8-4019-93D1-D642F32A02FB}"/>
-    <hyperlink ref="A368" r:id="rId367" display="https://policja.pl/pol/form/r5496564,18062023.html" xr:uid="{FEB7753C-5BEB-41BA-A2B5-40CAFCA8A838}"/>
-    <hyperlink ref="A369" r:id="rId368" display="https://policja.pl/pol/form/r15897246619311,17062023.html" xr:uid="{4B2321B9-EEF8-4D27-ABB2-C35AD33D3E18}"/>
-    <hyperlink ref="A370" r:id="rId369" display="https://policja.pl/pol/form/r79343918478,16062023.html" xr:uid="{FDC1C02E-8D6B-4FD3-AD2E-5063409F2AF7}"/>
-    <hyperlink ref="A371" r:id="rId370" display="https://policja.pl/pol/form/r28318998,15062023.html" xr:uid="{B79E141B-6374-4F17-8056-850EF7EA7031}"/>
-    <hyperlink ref="A372" r:id="rId371" display="https://policja.pl/pol/form/r998829618982,14062023.html" xr:uid="{F619D399-27DE-4AD2-A70D-680AFF0759C7}"/>
-    <hyperlink ref="A373" r:id="rId372" display="https://policja.pl/pol/form/r74272121,13062023.html" xr:uid="{EEE3D79E-07E6-42EE-AC12-1CB57005C3C1}"/>
-    <hyperlink ref="A374" r:id="rId373" display="https://policja.pl/pol/form/r82865,12062023.html" xr:uid="{B163DB31-D15B-4302-9E0C-88CC768EF19E}"/>
-    <hyperlink ref="A375" r:id="rId374" display="https://policja.pl/pol/form/r172950,11062023.html" xr:uid="{862B777E-4F03-45F7-975C-CC1F92A9978B}"/>
-    <hyperlink ref="A376" r:id="rId375" display="https://policja.pl/pol/form/r57842,10062023.html" xr:uid="{C06EE439-6A0D-4E57-869E-525D76F2922A}"/>
-    <hyperlink ref="A377" r:id="rId376" display="https://policja.pl/pol/form/r4911908,09062023.html" xr:uid="{3D81954C-A174-450D-B84B-921BD021AFC2}"/>
-    <hyperlink ref="A378" r:id="rId377" display="https://policja.pl/pol/form/r980995220,08062023.html" xr:uid="{8C20AFF8-2632-43FC-B450-64310C10F136}"/>
-    <hyperlink ref="A379" r:id="rId378" display="https://policja.pl/pol/form/r6792525,07062023.html" xr:uid="{EB4C0F68-14C3-4144-94FE-DBB13284DE57}"/>
-    <hyperlink ref="A380" r:id="rId379" display="https://policja.pl/pol/form/r52047341284,06062023.html" xr:uid="{4185FC9D-09AD-4DAE-B243-D31E0085D3FC}"/>
-    <hyperlink ref="A381" r:id="rId380" display="https://policja.pl/pol/form/r47262457584,05062023.html" xr:uid="{A5BA8058-F4A2-4758-8689-203FC2634289}"/>
-    <hyperlink ref="A382" r:id="rId381" display="https://policja.pl/pol/form/r57611567,04062023.html" xr:uid="{19C32EC1-D217-4D8A-A28F-9407D87853B5}"/>
-    <hyperlink ref="A383" r:id="rId382" display="https://policja.pl/pol/form/r96495477313,03062023.html" xr:uid="{4156E61C-84D0-43A8-A5BF-FDFF6655288B}"/>
-    <hyperlink ref="A384" r:id="rId383" display="https://policja.pl/pol/form/r161215124,02062023.html" xr:uid="{BBC40891-6C4C-4530-89DD-106518C56AF1}"/>
-    <hyperlink ref="A385" r:id="rId384" display="https://policja.pl/pol/form/r85727169261,01062023.html" xr:uid="{9BD41875-012A-42AE-B45C-6CF3DEA6895A}"/>
-    <hyperlink ref="A386" r:id="rId385" display="https://policja.pl/pol/form/r419046437,31052023.html" xr:uid="{21C8FDBF-7BD9-4A2C-B020-54D38B0F0ABC}"/>
-    <hyperlink ref="A387" r:id="rId386" display="https://policja.pl/pol/form/r115129342292,30052023.html" xr:uid="{94EB1EA8-F66A-4C0B-9625-11103B3DC07C}"/>
-    <hyperlink ref="A388" r:id="rId387" display="https://policja.pl/pol/form/r409823451346,29052023.html" xr:uid="{840E8CCB-CDB0-4560-B11B-8EBEF1762CD2}"/>
-    <hyperlink ref="A389" r:id="rId388" display="https://policja.pl/pol/form/r8955786546515,28052023.html" xr:uid="{F51D271C-63FA-495F-8CD3-28A15FF87D27}"/>
-    <hyperlink ref="A390" r:id="rId389" display="https://policja.pl/pol/form/r334792711,27052023.html" xr:uid="{5C1AA1A1-EADF-439C-A2B5-8592CECE294C}"/>
-    <hyperlink ref="A391" r:id="rId390" display="https://policja.pl/pol/form/r4672992,26052023.html" xr:uid="{B489AC05-BD20-416D-B9AF-C54A47874BD0}"/>
-    <hyperlink ref="A392" r:id="rId391" display="https://policja.pl/pol/form/r126321460,25052023-r.html" xr:uid="{A964CCEC-9EE9-40F5-90B6-0237775AF6C5}"/>
-    <hyperlink ref="A393" r:id="rId392" display="https://policja.pl/pol/form/r116124117,24052023.html" xr:uid="{E04FB650-E29C-4598-8A56-07BDE84436D6}"/>
-    <hyperlink ref="A394" r:id="rId393" display="https://policja.pl/pol/form/r1542023223263,23052023.html" xr:uid="{29CA22A9-0CBF-4ECB-8620-8E47FDED222B}"/>
-    <hyperlink ref="A395" r:id="rId394" display="https://policja.pl/pol/form/r1396902,22052023.html" xr:uid="{AEEB574D-2178-47F6-8977-B262C61E2D22}"/>
-    <hyperlink ref="A396" r:id="rId395" display="https://policja.pl/pol/form/r200761,21052023.html" xr:uid="{9EA14485-2AA5-4309-9468-A6F90DED50FD}"/>
-    <hyperlink ref="A397" r:id="rId396" display="https://policja.pl/pol/form/r58271,20052023.html" xr:uid="{176F096E-1996-4D3A-B1FF-2C5769909CA8}"/>
-    <hyperlink ref="A398" r:id="rId397" display="https://policja.pl/pol/form/r28026088086,19052023.html" xr:uid="{9AC35C4A-5BA8-464E-84D6-9357C1C7F0AD}"/>
-    <hyperlink ref="A399" r:id="rId398" display="https://policja.pl/pol/form/r4181894,18052023.html" xr:uid="{B6DE32AC-FD61-4550-9308-D7BC3AC4FBAF}"/>
-    <hyperlink ref="A400" r:id="rId399" display="https://policja.pl/pol/form/r151849254,17052023.html" xr:uid="{80AA7DCF-F951-4536-8E3B-178F11496229}"/>
-    <hyperlink ref="A401" r:id="rId400" display="https://policja.pl/pol/form/r70327326,16052023.html" xr:uid="{ABFAB1F0-D29F-4198-A693-AF03DF329BAF}"/>
-    <hyperlink ref="A402" r:id="rId401" display="https://policja.pl/pol/form/r96496529051963,15052023.html" xr:uid="{FF04D279-B991-4492-BE28-3D6B8F80F0CE}"/>
-    <hyperlink ref="A403" r:id="rId402" display="https://policja.pl/pol/form/r15702,14052023.html" xr:uid="{27EE30D7-99CB-4DEE-B9FF-2AAEDB4556BE}"/>
-    <hyperlink ref="A404" r:id="rId403" display="https://policja.pl/pol/form/r69992781160,13052023.html" xr:uid="{2F122A43-6F08-4792-B1E6-CB17E84CF850}"/>
-    <hyperlink ref="A405" r:id="rId404" display="https://policja.pl/pol/form/r89500967,12052023.html" xr:uid="{581BEBFC-9AC9-487F-8049-4C7CF37D20C5}"/>
-    <hyperlink ref="A406" r:id="rId405" display="https://policja.pl/pol/form/r210417,11052023.html" xr:uid="{A14F244F-34AD-4F1E-ACFA-87E1D776B0A4}"/>
-    <hyperlink ref="A407" r:id="rId406" display="https://policja.pl/pol/form/r731799,10052023.html" xr:uid="{E42CA12F-94AF-4F7E-85A7-C79E268D968A}"/>
-    <hyperlink ref="A408" r:id="rId407" display="https://policja.pl/pol/form/r27161025954,09052023.html" xr:uid="{8898912D-723C-4493-9219-16FEDEBB7696}"/>
-    <hyperlink ref="A409" r:id="rId408" display="https://policja.pl/pol/form/r43512480762,08052023.html" xr:uid="{EE800ECB-34FE-47A3-B488-41DB2CD4E39A}"/>
-    <hyperlink ref="A410" r:id="rId409" display="https://policja.pl/pol/form/r72501972,07052023.html" xr:uid="{358CE4D9-A14B-4F39-A38B-3DD85B098B1D}"/>
-    <hyperlink ref="A411" r:id="rId410" display="https://policja.pl/pol/form/r1074820013426,06052023.html" xr:uid="{BCC3A943-C92A-4DE7-B5AC-58366A9C4A74}"/>
-    <hyperlink ref="A412" r:id="rId411" display="https://policja.pl/pol/form/r63560728139,05052023.html" xr:uid="{6F7588C5-F2BA-48D4-8318-A0C485BBE34E}"/>
-    <hyperlink ref="A413" r:id="rId412" display="https://policja.pl/pol/form/r34428839,04052023.html" xr:uid="{FBF21FBF-9136-4EC0-8B09-3A998AE9C223}"/>
-    <hyperlink ref="A414" r:id="rId413" display="https://policja.pl/pol/form/r99610455814422,03052023.html" xr:uid="{C360FF36-5254-4B8D-B12F-417F5AEB3F1D}"/>
-    <hyperlink ref="A415" r:id="rId414" display="https://policja.pl/pol/form/r660327,02052023.html" xr:uid="{AAD69042-D006-46F5-A680-D6774BDB15C2}"/>
-    <hyperlink ref="A416" r:id="rId415" display="https://policja.pl/pol/form/r87347421,01052023.html" xr:uid="{4AFA9D5B-8916-4E5A-A021-48F8ADBB6933}"/>
-    <hyperlink ref="A417" r:id="rId416" display="https://policja.pl/pol/form/r9243727439536,30042023.html" xr:uid="{1FA3BCEA-F7BF-4DD2-8C68-6DB21A4342D1}"/>
-    <hyperlink ref="A418" r:id="rId417" display="https://policja.pl/pol/form/r47008275221464,29042023.html" xr:uid="{C755D53B-2A99-4BFA-A483-A5C0239AA970}"/>
-    <hyperlink ref="A419" r:id="rId418" display="https://policja.pl/pol/form/r494182,28042023.html" xr:uid="{AC1ECC94-4B9D-4C06-BDAF-4962470B875B}"/>
-    <hyperlink ref="A420" r:id="rId419" display="https://policja.pl/pol/form/r5278144641,27042023.html" xr:uid="{74A117C4-14AF-4DCD-8890-C1D7D48FBBF5}"/>
-    <hyperlink ref="A421" r:id="rId420" display="https://policja.pl/pol/form/r185028,26042023.html" xr:uid="{A26DE2F3-9962-4086-8E23-F8C5689BCCC2}"/>
-    <hyperlink ref="A422" r:id="rId421" display="https://policja.pl/pol/form/r485330876424,25042023.html" xr:uid="{E628BEB2-875B-440C-A257-411080CA5254}"/>
-    <hyperlink ref="A423" r:id="rId422" display="https://policja.pl/pol/form/r7803768,24042023.html" xr:uid="{C8198970-21E7-44FD-AB8B-B531923947D2}"/>
-    <hyperlink ref="A424" r:id="rId423" display="https://policja.pl/pol/form/r34993114575149,23042023.html" xr:uid="{30343CC9-2BED-40FC-8229-A963C5832277}"/>
-    <hyperlink ref="A425" r:id="rId424" display="https://policja.pl/pol/form/r55603607162297,22042023.html" xr:uid="{5A575A5C-12BE-4321-9719-0B850538C9DE}"/>
-    <hyperlink ref="A426" r:id="rId425" display="https://policja.pl/pol/form/r91645102691816,21042023.html" xr:uid="{6865CCAB-F92D-489B-BABA-C33A86CC4807}"/>
-    <hyperlink ref="A427" r:id="rId426" display="https://policja.pl/pol/form/r21289204854560,20042023.html" xr:uid="{0568F0CE-3AE7-493E-B324-D412E0D93095}"/>
-    <hyperlink ref="A428" r:id="rId427" display="https://policja.pl/pol/form/r2950053,19042023.html" xr:uid="{B6870DB5-BB1A-4452-9936-444B14FC50AE}"/>
-    <hyperlink ref="A429" r:id="rId428" display="https://policja.pl/pol/form/r3866452683,18042023.html" xr:uid="{EE08F5E0-ED2E-49AA-B812-F6632BCA1579}"/>
-    <hyperlink ref="A430" r:id="rId429" display="https://policja.pl/pol/form/r8044573736856,17042023.html" xr:uid="{696A4D2B-5CF0-473B-A690-91E173E93E64}"/>
-    <hyperlink ref="A431" r:id="rId430" display="https://policja.pl/pol/form/r12982,16042023.html" xr:uid="{F59B7040-1673-46D3-84D9-5B5A9FD752A7}"/>
-    <hyperlink ref="A432" r:id="rId431" display="https://policja.pl/pol/form/r546250873,15042023.html" xr:uid="{FDFE42EF-FFDA-4230-863B-F95F5ACDD75D}"/>
-    <hyperlink ref="A433" r:id="rId432" display="https://policja.pl/pol/form/r63345478827344,14032023.html" xr:uid="{ED28BBFA-AE1B-49EF-9CED-2916BA30B9B7}"/>
-    <hyperlink ref="A434" r:id="rId433" display="https://policja.pl/pol/form/r82465421,13042023.html" xr:uid="{B1C93617-3A2E-4449-B00D-C14F962128C1}"/>
-    <hyperlink ref="A435" r:id="rId434" display="https://policja.pl/pol/form/r76018796886270,12042023.html" xr:uid="{EDDC8C19-E65F-4160-9691-110B11E9082D}"/>
-    <hyperlink ref="A436" r:id="rId435" display="https://policja.pl/pol/form/r597241560434,11042023.html" xr:uid="{2203D259-D05C-4EEC-BCB2-9F36B571A48C}"/>
-    <hyperlink ref="A437" r:id="rId436" display="https://policja.pl/pol/form/r969396,10042023.html" xr:uid="{959C4E02-D570-4436-9D64-63A01576BE08}"/>
-    <hyperlink ref="A438" r:id="rId437" display="https://policja.pl/pol/form/r282610,09042023.html" xr:uid="{DA362ED1-02B1-4C4E-B8F3-86D93A6BB3D4}"/>
-    <hyperlink ref="A439" r:id="rId438" display="https://policja.pl/pol/form/r50743305187,08042023.html" xr:uid="{EF09A6D1-0A6F-4127-A699-C99F4247D09D}"/>
-    <hyperlink ref="A440" r:id="rId439" display="https://policja.pl/pol/form/r62943685270279,07042023.html" xr:uid="{9E1A4BEE-00C3-4B6E-A530-31E8B5271F8C}"/>
-    <hyperlink ref="A441" r:id="rId440" display="https://policja.pl/pol/form/r6649492304,06042023.html" xr:uid="{EA829187-A54A-4E77-B2A7-C643145171A7}"/>
-    <hyperlink ref="A442" r:id="rId441" display="https://policja.pl/pol/form/r78382549,05042023.html" xr:uid="{93F09C70-4D54-4C17-9887-00A75917D0CC}"/>
-    <hyperlink ref="A443" r:id="rId442" display="https://policja.pl/pol/form/r782977740678,04042023.html" xr:uid="{B440E2C8-BDC5-49D7-B29B-4BE507F778D6}"/>
-    <hyperlink ref="A444" r:id="rId443" display="https://policja.pl/pol/form/r12075,03042023.html" xr:uid="{10AF772A-3447-45E4-AD13-4CE4F88878A4}"/>
-    <hyperlink ref="A445" r:id="rId444" display="https://policja.pl/pol/form/r497882612954,02042023.html" xr:uid="{ED88E0E2-FF7B-4A3A-A5D4-5C27180DC8AA}"/>
-    <hyperlink ref="A446" r:id="rId445" display="https://policja.pl/pol/form/r3471638269232,01042023.html" xr:uid="{31C8B935-F0B3-4536-9DA4-8A8FE5CD6CCD}"/>
-    <hyperlink ref="A447" r:id="rId446" display="https://policja.pl/pol/form/r945846,31032023.html" xr:uid="{4FCD572F-7B48-4F45-8AB8-881B1B1DE575}"/>
-    <hyperlink ref="A448" r:id="rId447" display="https://policja.pl/pol/form/r74998217590839,30032023.html" xr:uid="{48FAFEBD-D3EF-455C-AEDF-21A33272E9E7}"/>
-    <hyperlink ref="A449" r:id="rId448" display="https://policja.pl/pol/form/r90087,29032023.html" xr:uid="{DDA23B7F-DDD5-40CA-AE10-82593D2B4222}"/>
-    <hyperlink ref="A450" r:id="rId449" display="https://policja.pl/pol/form/r15174445285,28032023.html" xr:uid="{E78BEB3F-4E21-449C-9889-EC38D446E1C8}"/>
-    <hyperlink ref="A451" r:id="rId450" display="https://policja.pl/pol/form/r887893922,27032023.html" xr:uid="{6AAD7F5A-701A-4CB0-8954-41DE779E1060}"/>
-    <hyperlink ref="A452" r:id="rId451" display="https://policja.pl/pol/form/r660386220,26032023.html" xr:uid="{E92007FD-7817-4D57-BA3A-A4C6D07827AB}"/>
-    <hyperlink ref="A453" r:id="rId452" display="https://policja.pl/pol/form/r4618629,25032023.html" xr:uid="{8033882D-7A03-4AFB-AB33-D551EE511190}"/>
-    <hyperlink ref="A454" r:id="rId453" display="https://policja.pl/pol/form/r46598377,24032023.html" xr:uid="{4CDFF706-84C5-400E-9CC2-337309488A35}"/>
-    <hyperlink ref="A455" r:id="rId454" display="https://policja.pl/pol/form/r150206,23032023.html" xr:uid="{C7F74ADF-B47A-463C-8DE2-EAAC87C2A4CD}"/>
-    <hyperlink ref="A456" r:id="rId455" display="https://policja.pl/pol/form/r98221331155298,22032023.html" xr:uid="{BC154D89-E006-4F2A-9F81-A25252707408}"/>
-    <hyperlink ref="A457" r:id="rId456" display="https://policja.pl/pol/form/r1755356,21032023.html" xr:uid="{8BC315A7-35A4-4882-8041-75D70AD83752}"/>
-    <hyperlink ref="A458" r:id="rId457" display="https://policja.pl/pol/form/r4868452515834,20032023.html" xr:uid="{54C012B7-446B-470C-933E-A952B65F76DC}"/>
-    <hyperlink ref="A459" r:id="rId458" display="https://policja.pl/pol/form/r579375850,19032023.html" xr:uid="{6CDA432B-B45B-49AB-B065-D3E8837CACE0}"/>
-    <hyperlink ref="A460" r:id="rId459" display="https://policja.pl/pol/form/r9027946182983,18032023.html" xr:uid="{C108A7D4-2A43-4FEB-AF22-5426E06E4358}"/>
-    <hyperlink ref="A461" r:id="rId460" display="https://policja.pl/pol/form/r526889,17032023.html" xr:uid="{DCFDDEF8-FB05-4166-895D-582848A21809}"/>
-    <hyperlink ref="A462" r:id="rId461" display="https://policja.pl/pol/form/r4800085,16032023.html" xr:uid="{3FD33B6D-5EEC-4118-BE89-C5342873562D}"/>
-    <hyperlink ref="A463" r:id="rId462" display="https://policja.pl/pol/form/r7242430979314,15032023.html" xr:uid="{C53ECA4E-3D7B-4839-8D42-806579BF0A7F}"/>
-    <hyperlink ref="A464" r:id="rId463" display="https://policja.pl/pol/form/r62934,14032023.html" xr:uid="{4051E45F-C3A2-47DF-A10E-4F1D2EE96EA2}"/>
-    <hyperlink ref="A465" r:id="rId464" display="https://policja.pl/pol/form/r909596,13032023.html" xr:uid="{7EF4EEFE-EE97-4754-9C5D-5A2492522434}"/>
-    <hyperlink ref="A466" r:id="rId465" display="https://policja.pl/pol/form/r270506,12032023.html" xr:uid="{C6332A54-E93C-4054-8B92-F83315A86A40}"/>
-    <hyperlink ref="A467" r:id="rId466" display="https://policja.pl/pol/form/r3344177,11032023.html" xr:uid="{3E575C07-3C75-48A4-9B61-18F27B55D9FC}"/>
-    <hyperlink ref="A468" r:id="rId467" display="https://policja.pl/pol/form/r27965454590,10032023.html" xr:uid="{B08097B8-69D0-499E-92F9-63D3A5019DF2}"/>
-    <hyperlink ref="A469" r:id="rId468" display="https://policja.pl/pol/form/r23653961,09032023.html" xr:uid="{CB4471B7-85E5-474C-87DB-F5EDFE76B983}"/>
-    <hyperlink ref="A470" r:id="rId469" display="https://policja.pl/pol/form/r95333928510,08032023.html" xr:uid="{F114797E-DF9F-4B9E-9E24-61D6584B1A6D}"/>
-    <hyperlink ref="A471" r:id="rId470" display="https://policja.pl/pol/form/r75092178,07032023.html" xr:uid="{DE9DC0C8-4088-434F-92A7-BB9587D53A10}"/>
-    <hyperlink ref="A472" r:id="rId471" display="https://policja.pl/pol/form/r9907946169,06032023.html" xr:uid="{BF3D650F-9DFD-4BD2-BBC5-46BEEC2C2B34}"/>
-    <hyperlink ref="A473" r:id="rId472" display="https://policja.pl/pol/form/r601229,05032023.html" xr:uid="{BFD74BA4-3A4B-4596-81A9-2FADD6AA5D82}"/>
-    <hyperlink ref="A474" r:id="rId473" display="https://policja.pl/pol/form/r3899718,04032023.html" xr:uid="{AEFDA716-DAA3-49A1-9A4E-B153F4B9707E}"/>
-    <hyperlink ref="A475" r:id="rId474" display="https://policja.pl/pol/form/r41170949422082,03032023.html" xr:uid="{9AD9337B-A303-467A-BD5B-0BF634DC0909}"/>
-    <hyperlink ref="A476" r:id="rId475" display="https://policja.pl/pol/form/r77710718,02032023.html" xr:uid="{83AA0E0E-E596-432C-A5CC-19E4C1710203}"/>
-    <hyperlink ref="A477" r:id="rId476" display="https://policja.pl/pol/form/r372605307250,01032023.html" xr:uid="{6EA9115A-5805-42E8-82BA-44B0C0C126A4}"/>
-    <hyperlink ref="A478" r:id="rId477" display="https://policja.pl/pol/form/r32281800945825,28022023.html" xr:uid="{8315849D-4491-4F03-8F6E-B1BFB00EC3B7}"/>
-    <hyperlink ref="A479" r:id="rId478" display="https://policja.pl/pol/form/r206567,27022023.html" xr:uid="{1F83CD84-142D-4349-AA2D-56E5BBB61A55}"/>
-    <hyperlink ref="A480" r:id="rId479" display="https://policja.pl/pol/form/r25484913247149,26022023.html" xr:uid="{ECB962CD-B772-4A54-9553-B9C586A04325}"/>
-    <hyperlink ref="A481" r:id="rId480" display="https://policja.pl/pol/form/r3659481701,25022023.html" xr:uid="{A35FA5EA-7A13-43B8-BF7F-51B79703C012}"/>
-    <hyperlink ref="A482" r:id="rId481" display="https://policja.pl/pol/form/r4839310474280,24022023.html" xr:uid="{143C53EB-7010-4D72-B401-1EAC1BB63D44}"/>
-    <hyperlink ref="A483" r:id="rId482" display="https://policja.pl/pol/form/r5491500,23022023.html" xr:uid="{B5991DCF-A734-4084-84C6-73096D6D7D25}"/>
-    <hyperlink ref="A484" r:id="rId483" display="https://policja.pl/pol/form/r50543246254,22022023.html" xr:uid="{3CB2B7D4-F4E0-4957-806E-40A8F9FB75C4}"/>
-    <hyperlink ref="A485" r:id="rId484" display="https://policja.pl/pol/form/r637861337499,21022023.html" xr:uid="{EBE19CCB-EBE3-4A64-AC81-E814289D438C}"/>
-    <hyperlink ref="A486" r:id="rId485" display="https://policja.pl/pol/form/r1207112,20022023.html" xr:uid="{F3FEDD00-4387-4E8B-9ECD-B30A307EE430}"/>
-    <hyperlink ref="A487" r:id="rId486" display="https://policja.pl/pol/form/r309012452,19022023.html" xr:uid="{A95E321A-0F7B-4221-AEE5-0684C15DA249}"/>
-    <hyperlink ref="A488" r:id="rId487" display="https://policja.pl/pol/form/r2163908721791,18022023.html" xr:uid="{D937B322-DE53-4D10-A603-09AB7B7A6069}"/>
-    <hyperlink ref="A489" r:id="rId488" display="https://policja.pl/pol/form/r3838639975310,17022023.html" xr:uid="{84780EA6-B4BA-4403-AAD0-131D200DB96D}"/>
-    <hyperlink ref="A490" r:id="rId489" display="https://policja.pl/pol/form/r24017,16022023.html" xr:uid="{B463CCA1-B85D-455B-AD7E-705DAAC55A27}"/>
-    <hyperlink ref="A491" r:id="rId490" display="https://policja.pl/pol/form/r8615519014083,15022023.html" xr:uid="{6FDDBE62-6DD2-4F05-8DD4-06645A2BB7D9}"/>
-    <hyperlink ref="A492" r:id="rId491" display="https://policja.pl/pol/form/r8318631,14022023.html" xr:uid="{13DE893C-38F8-426D-9616-E624BF5D8EFB}"/>
-    <hyperlink ref="A493" r:id="rId492" display="https://policja.pl/pol/form/r192557,13022023.html" xr:uid="{3FE969DF-3EB7-4EE7-95B5-59ABB963D245}"/>
-    <hyperlink ref="A494" r:id="rId493" display="https://policja.pl/pol/form/r226596613,12022023.html" xr:uid="{4181BE5F-266D-4AFC-82B8-80634A05CDD2}"/>
-    <hyperlink ref="A495" r:id="rId494" display="https://policja.pl/pol/form/r97886123606,11022023.html" xr:uid="{52628A03-E833-4033-B9D6-C7A485A75D3A}"/>
-    <hyperlink ref="A496" r:id="rId495" display="https://policja.pl/pol/form/r617688154617,10022023.html" xr:uid="{112A216B-81C6-4EA5-8A67-F961D06DE9BF}"/>
-    <hyperlink ref="A497" r:id="rId496" display="https://policja.pl/pol/form/r863330,09022023.html" xr:uid="{253B92C2-6F05-4676-AABC-C9A65B5423BC}"/>
-    <hyperlink ref="A498" r:id="rId497" display="https://policja.pl/pol/form/r27628146812,08022023.html" xr:uid="{5C890829-6019-407D-A42D-845BAE07255A}"/>
-    <hyperlink ref="A499" r:id="rId498" display="https://policja.pl/pol/form/r7831721,07022023.html" xr:uid="{874DDC89-E1A1-4F28-AEA7-F0B7A935A807}"/>
-    <hyperlink ref="A500" r:id="rId499" display="https://policja.pl/pol/form/r9869107,06022023.html" xr:uid="{752B491F-3A8B-461E-8B70-7A9A9643D81F}"/>
-    <hyperlink ref="A501" r:id="rId500" display="https://policja.pl/pol/form/r499078823005,05022023.html" xr:uid="{1FE7DB9F-17CC-447F-A3E9-06F48EDCDAB2}"/>
-    <hyperlink ref="A502" r:id="rId501" display="https://policja.pl/pol/form/r27556,04022023.html" xr:uid="{7C3D574C-49B0-4C80-9E84-A719D998B9E3}"/>
-    <hyperlink ref="A503" r:id="rId502" display="https://policja.pl/pol/form/r40487655942284,03022023.html" xr:uid="{6B803121-973B-4554-A984-5DA1574D178F}"/>
-    <hyperlink ref="A504" r:id="rId503" display="https://policja.pl/pol/form/r5083481476,02022023.html" xr:uid="{0DDAEDCE-4BC5-42F0-8216-F2EF9E12D39A}"/>
-    <hyperlink ref="A505" r:id="rId504" display="https://policja.pl/pol/form/r30384608499,01012023.html" xr:uid="{6436F69E-BBB2-47B8-BC39-F167E11A7804}"/>
-    <hyperlink ref="A506" r:id="rId505" display="https://policja.pl/pol/form/r650922,31012023.html" xr:uid="{95B79289-6D1B-4FBE-BA61-91AA9A65F3DC}"/>
-    <hyperlink ref="A507" r:id="rId506" display="https://policja.pl/pol/form/r3480939722506,30012023.html" xr:uid="{9C7C574A-5451-4AD8-BB00-0F629A0FF125}"/>
-    <hyperlink ref="A508" r:id="rId507" display="https://policja.pl/pol/form/r505050386235,29012023.html" xr:uid="{82033FD7-CA60-4D49-9AE8-9BCDA70EA5BC}"/>
-    <hyperlink ref="A509" r:id="rId508" display="https://policja.pl/pol/form/r39731,28012023.html" xr:uid="{DC27924F-B556-464D-AAB9-CABAE11FA4AF}"/>
-    <hyperlink ref="A510" r:id="rId509" display="https://policja.pl/pol/form/r5891271583,27012023.html" xr:uid="{742DDB36-FCAA-42C5-877F-714FA06250F8}"/>
-    <hyperlink ref="A511" r:id="rId510" display="https://policja.pl/pol/form/r57096613607,26012023.html" xr:uid="{1648FBD2-9634-4EC5-AFB9-0C82F7EE8F3F}"/>
-    <hyperlink ref="A512" r:id="rId511" display="https://policja.pl/pol/form/r561326291811,25012023.html" xr:uid="{DB49B663-04A3-4ECE-A10F-0A81E01F0663}"/>
-    <hyperlink ref="A513" r:id="rId512" display="https://policja.pl/pol/form/r9629795438375,240120223.html" xr:uid="{090A32D5-2DE4-44E1-A9AE-8D6AC69EAEA9}"/>
-    <hyperlink ref="A514" r:id="rId513" display="https://policja.pl/pol/form/r92630205069,23012023.html" xr:uid="{0C934555-6F45-4DA8-98E9-270275BF70D8}"/>
-    <hyperlink ref="A515" r:id="rId514" display="https://policja.pl/pol/form/r28755,22012023.html" xr:uid="{5B1BADAC-B2BF-4E7D-AAFE-D775FDA557AD}"/>
-    <hyperlink ref="A516" r:id="rId515" display="https://policja.pl/pol/form/r7407794894,21012023.html" xr:uid="{E3C13DDC-4CE9-4745-9F1A-321AD1EC52EE}"/>
-    <hyperlink ref="A517" r:id="rId516" display="https://policja.pl/pol/form/r8133938,20012023.html" xr:uid="{A06A537C-FB46-4EA3-9E3A-CC8B7972E5A9}"/>
-    <hyperlink ref="A518" r:id="rId517" display="https://policja.pl/pol/form/r73737222610,19012023.html" xr:uid="{CCE5CF32-0D99-4824-8104-EB7E979CB542}"/>
-    <hyperlink ref="A519" r:id="rId518" display="https://policja.pl/pol/form/r837828039833,18012023.html" xr:uid="{600E1868-E956-456C-808A-E5DF45783758}"/>
-    <hyperlink ref="A520" r:id="rId519" display="https://policja.pl/pol/form/r72361615128952,17012023.html" xr:uid="{264AED2E-3387-4FAA-9EF6-018DBA523608}"/>
-    <hyperlink ref="A521" r:id="rId520" display="https://policja.pl/pol/form/r86400,16012023.html" xr:uid="{048ADC42-78B4-487F-8062-AF61A008A935}"/>
-    <hyperlink ref="A522" r:id="rId521" display="https://policja.pl/pol/form/r50306112024,15012023.html" xr:uid="{A964D14C-E24B-47BB-AE3D-CDF86C0DBBF0}"/>
-    <hyperlink ref="A523" r:id="rId522" display="https://policja.pl/pol/form/r17937,14012023.html" xr:uid="{F548C07F-2544-4D97-A866-A1A7D55F0A2E}"/>
-    <hyperlink ref="A524" r:id="rId523" display="https://policja.pl/pol/form/r55483766,13012023.html" xr:uid="{F6944113-A793-4871-B92F-5B79445007AB}"/>
-    <hyperlink ref="A525" r:id="rId524" display="https://policja.pl/pol/form/r6483897798923,12012023.html" xr:uid="{B99C476E-1299-49E3-980D-08335BDA98FD}"/>
-    <hyperlink ref="A526" r:id="rId525" display="https://policja.pl/pol/form/r66299253,11012023.html" xr:uid="{09C4F9B7-104A-4A54-91DD-02175EA15818}"/>
-    <hyperlink ref="A527" r:id="rId526" display="https://policja.pl/pol/form/r983897173,10012023.html" xr:uid="{CA4FFE7A-452D-49D2-9163-906BCD5BD2E7}"/>
-    <hyperlink ref="A528" r:id="rId527" display="https://policja.pl/pol/form/r39988,09012023.html" xr:uid="{2CE08C68-8F14-4591-B661-6F9EDB468916}"/>
-    <hyperlink ref="A529" r:id="rId528" display="https://policja.pl/pol/form/r574650,08012023.html" xr:uid="{7926315F-17CC-44E1-A979-2F8A7097ED96}"/>
-    <hyperlink ref="A530" r:id="rId529" display="https://policja.pl/pol/form/r7620738491,07012023.html" xr:uid="{F6F37659-06C9-46CD-A498-DC85903F3971}"/>
-    <hyperlink ref="A531" r:id="rId530" display="https://policja.pl/pol/form/r1766322,06012023.html" xr:uid="{1180F87D-41B5-42B3-808C-0EA42D35687C}"/>
-    <hyperlink ref="A532" r:id="rId531" display="https://policja.pl/pol/form/r469215967,05012023.html" xr:uid="{0D18C2A3-B55C-4E89-B261-924451E7492F}"/>
-    <hyperlink ref="A533" r:id="rId532" display="https://policja.pl/pol/form/r68354132026,04012023.html" xr:uid="{32541F46-ED63-4974-811D-F22AE4BDA4B0}"/>
-    <hyperlink ref="A534" r:id="rId533" display="https://policja.pl/pol/form/r53853615,03012023.html" xr:uid="{D2124FB3-89D3-4B60-B067-8B6D2AEF39AA}"/>
-    <hyperlink ref="A535" r:id="rId534" display="https://policja.pl/pol/form/r87385,02012023.html" xr:uid="{1BE7ECB9-2885-436F-A618-87FB5656D811}"/>
-    <hyperlink ref="A536" r:id="rId535" display="https://policja.pl/pol/form/r609236293187,01012023.html" xr:uid="{F511C02B-D6DA-4FC9-AB78-1C71F71A786F}"/>
-    <hyperlink ref="A537" r:id="rId536" display="https://policja.pl/pol/form/r665036959,31122022.html" xr:uid="{A1EEF223-A916-41EE-B636-5B8CA558C2EB}"/>
-    <hyperlink ref="A538" r:id="rId537" display="https://policja.pl/pol/form/r267051,30122022.html" xr:uid="{2638B9E5-D537-446B-A870-735A40237700}"/>
-    <hyperlink ref="A539" r:id="rId538" display="https://policja.pl/pol/form/r66233077730,29122022.html" xr:uid="{3483E5DD-945C-4E02-8B65-9D1A6A9EF2C1}"/>
-    <hyperlink ref="A540" r:id="rId539" display="https://policja.pl/pol/form/r31341037922,28122022.html" xr:uid="{B63DF4A0-E283-4825-A70A-6BA5F71BD9AE}"/>
-    <hyperlink ref="A541" r:id="rId540" display="https://policja.pl/pol/form/r888013314,27122022.html" xr:uid="{8DB9B159-661B-46A5-898E-9B3850B48F2D}"/>
-    <hyperlink ref="A542" r:id="rId541" display="https://policja.pl/pol/form/r31165109,26122022.html" xr:uid="{DE82A9B2-34AD-4C43-9B40-4ADCFAA6BC94}"/>
-    <hyperlink ref="A543" r:id="rId542" display="https://policja.pl/pol/form/r528700,25122022.html" xr:uid="{46CB656D-587F-4C43-B016-5132BE4741A1}"/>
-    <hyperlink ref="A544" r:id="rId543" display="https://policja.pl/pol/form/r674650350,24122022.html" xr:uid="{ADBBBDB9-1A82-40D2-85E6-3CB9CCC348AF}"/>
-    <hyperlink ref="A545" r:id="rId544" display="https://policja.pl/pol/form/r25753804442,23122022.html" xr:uid="{81985336-97F4-41A7-B2D1-CF604858CE3D}"/>
-    <hyperlink ref="A546" r:id="rId545" display="https://policja.pl/pol/form/r585220,22122022.html" xr:uid="{649DFE7F-C41C-4A27-91EE-58F347A3F8B6}"/>
-    <hyperlink ref="A547" r:id="rId546" display="https://policja.pl/pol/form/r5324434,21122022.html" xr:uid="{2B55CB6D-8237-4F86-B770-8A7C78CB391C}"/>
-    <hyperlink ref="A548" r:id="rId547" display="https://policja.pl/pol/form/r7052963,20122022.html" xr:uid="{768F4E53-EBEF-4F16-84B0-91BFA8FA050E}"/>
-    <hyperlink ref="A549" r:id="rId548" display="https://policja.pl/pol/form/r3454714,19122022.html" xr:uid="{42A65135-168A-41C4-95D2-81671DA2D544}"/>
-    <hyperlink ref="A550" r:id="rId549" display="https://policja.pl/pol/form/r797776591663,18122022.html" xr:uid="{C1577183-B164-48A2-88E9-5AC07C3F2DFE}"/>
-    <hyperlink ref="A551" r:id="rId550" display="https://policja.pl/pol/form/r45519946,17122022.html" xr:uid="{F09D7E30-91CB-427B-AA11-5FFA5BF94383}"/>
-    <hyperlink ref="A552" r:id="rId551" display="https://policja.pl/pol/form/r305871309018,16122022.html" xr:uid="{7EBB545D-1EDE-456A-9028-C41DF9ADF17A}"/>
-    <hyperlink ref="A553" r:id="rId552" display="https://policja.pl/pol/form/r51587783423845,15122022.html" xr:uid="{CE9F7165-5490-4E6D-B33A-C4D91436D516}"/>
-    <hyperlink ref="A554" r:id="rId553" display="https://policja.pl/pol/form/r67292,14122022.html" xr:uid="{FF94CCBC-3920-4678-A260-878A23095F6F}"/>
-    <hyperlink ref="A555" r:id="rId554" display="https://policja.pl/pol/form/r917783859483,13122022.html" xr:uid="{C644809E-4E70-466A-B1F0-449DABB1BBA5}"/>
-    <hyperlink ref="A556" r:id="rId555" display="https://policja.pl/pol/form/r92404,12122022.html" xr:uid="{FB7A6E6C-E2AD-4ED2-A861-7A3F97F7778A}"/>
-    <hyperlink ref="A557" r:id="rId556" display="https://policja.pl/pol/form/r23205,11122022.html" xr:uid="{337503E0-F47B-4F3B-B742-3CC5BB7D0063}"/>
-    <hyperlink ref="A558" r:id="rId557" display="https://policja.pl/pol/form/r73914244874,10122022.html" xr:uid="{B2EC9546-EC06-4292-BA1A-BB60BA9E1558}"/>
-    <hyperlink ref="A559" r:id="rId558" display="https://policja.pl/pol/form/r1629800494,09122022.html" xr:uid="{F67CCC72-7D75-4BDC-9C3E-4670880CAA59}"/>
-    <hyperlink ref="A560" r:id="rId559" display="https://policja.pl/pol/form/r99540962745,08122022.html" xr:uid="{402B4AB2-6A1A-4949-AB91-9A8F12D88BF2}"/>
-    <hyperlink ref="A561" r:id="rId560" display="https://policja.pl/pol/form/r9543630561,07122022.html" xr:uid="{3025452F-F947-4BF6-A3E6-DF414E2E5DC8}"/>
-    <hyperlink ref="A562" r:id="rId561" display="https://policja.pl/pol/form/r53489,06122022.html" xr:uid="{731FC3F1-1468-4589-8281-45D4331A9461}"/>
-    <hyperlink ref="A563" r:id="rId562" display="https://policja.pl/pol/form/r80095502101,05122022.html" xr:uid="{173AC620-E18B-4C05-A2A2-A20BDFB98CD6}"/>
-    <hyperlink ref="A564" r:id="rId563" display="https://policja.pl/pol/form/r5648148428,04122022.html" xr:uid="{8077A884-7AD2-444E-916B-13CA7421BE15}"/>
-    <hyperlink ref="A565" r:id="rId564" display="https://policja.pl/pol/form/r38480498760,03122022.html" xr:uid="{06E4E690-16CD-44E1-91F9-B4BCF97928A0}"/>
-    <hyperlink ref="A566" r:id="rId565" display="https://policja.pl/pol/form/r5244985968,02122022.html" xr:uid="{275C3809-331A-4BE8-85CD-6F5F9FBEEA3B}"/>
-    <hyperlink ref="A567" r:id="rId566" display="https://policja.pl/pol/form/r6205429916283,01122022.html" xr:uid="{49D7BC90-1CAB-483D-A375-DB71B21DD2D4}"/>
-    <hyperlink ref="A568" r:id="rId567" display="https://policja.pl/pol/form/r955448428,30112022.html" xr:uid="{70FA3BA4-367B-4C5F-96E2-B3401D96EEF4}"/>
-    <hyperlink ref="A569" r:id="rId568" display="https://policja.pl/pol/form/r21076208704,29112022.html" xr:uid="{D16BE6EA-39BE-4A5C-8B83-386F5E89B98F}"/>
-    <hyperlink ref="A570" r:id="rId569" display="https://policja.pl/pol/form/r497724455,28112022.html" xr:uid="{3073DA34-2CEF-4F27-A631-0C9321AC2288}"/>
-    <hyperlink ref="A571" r:id="rId570" display="https://policja.pl/pol/form/r7509907645,27112022.html" xr:uid="{2D93F993-1FB9-4CF1-BC42-5131C76049F2}"/>
-    <hyperlink ref="A572" r:id="rId571" display="https://policja.pl/pol/form/r48186444944,26112022.html" xr:uid="{99B5EF69-2080-4A33-B199-DA51EF230669}"/>
-    <hyperlink ref="A573" r:id="rId572" display="https://policja.pl/pol/form/r65102561,25112022.html" xr:uid="{025A6260-2233-410A-A7E6-830EF6BF5E52}"/>
-    <hyperlink ref="A574" r:id="rId573" display="https://policja.pl/pol/form/r935555989,24112022.html" xr:uid="{1012B46C-81FD-48BD-959C-54E50FDAA47D}"/>
-    <hyperlink ref="A575" r:id="rId574" display="https://policja.pl/pol/form/r6689556785554,23112022.html" xr:uid="{061EC53A-A2B8-4E6D-9E03-9F4101357E00}"/>
-    <hyperlink ref="A576" r:id="rId575" display="https://policja.pl/pol/form/r720918625,22112022.html" xr:uid="{638EA485-7665-42FF-BE6C-BBACD98D7623}"/>
-    <hyperlink ref="A577" r:id="rId576" display="https://policja.pl/pol/form/r34213975947,21112022.html" xr:uid="{8F510A91-405E-4A60-95DD-2D3D7A372B96}"/>
-    <hyperlink ref="A578" r:id="rId577" display="https://policja.pl/pol/form/r9845294,20112022.html" xr:uid="{606404F1-15DF-4E34-9183-87255644C72F}"/>
-    <hyperlink ref="A579" r:id="rId578" display="https://policja.pl/pol/form/r53717,19112022.html" xr:uid="{1A93068F-AE0F-4BB1-BAF7-89A8B58A2106}"/>
-    <hyperlink ref="A580" r:id="rId579" display="https://policja.pl/pol/form/r61503337084,18112022.html" xr:uid="{2ECBCBAE-D5CB-42DB-B5E3-6B7F990FA5E5}"/>
-    <hyperlink ref="A581" r:id="rId580" display="https://policja.pl/pol/form/r138282444,17112022.html" xr:uid="{B87D9EF7-7DB6-49B5-8CE9-B3D9939CE7E9}"/>
-    <hyperlink ref="A582" r:id="rId581" display="https://policja.pl/pol/form/r423697289,16112022.html" xr:uid="{96A400D6-4CF0-4341-9F77-2E593285D401}"/>
-    <hyperlink ref="A583" r:id="rId582" display="https://policja.pl/pol/form/r972068652231,15112022.html" xr:uid="{D1B1725A-C2F7-47C4-81AD-D4CB1A1871DB}"/>
-    <hyperlink ref="A584" r:id="rId583" display="https://policja.pl/pol/form/r83393436,14112022.html" xr:uid="{36C2500F-F360-4C79-A587-67D529B80163}"/>
-    <hyperlink ref="A585" r:id="rId584" display="https://policja.pl/pol/form/r2620559431,13112022.html" xr:uid="{5F90824C-79A5-4993-A50B-0A3757211C0F}"/>
-    <hyperlink ref="A586" r:id="rId585" display="https://policja.pl/pol/form/r7122593,12112022.html" xr:uid="{57AEB162-681A-449E-8A9A-3FC2BD04713F}"/>
-    <hyperlink ref="A587" r:id="rId586" display="https://policja.pl/pol/form/r751391316063,11112022.html" xr:uid="{ADA6A1DE-519F-40A8-AE5F-8321731CFCA4}"/>
-    <hyperlink ref="A588" r:id="rId587" display="https://policja.pl/pol/form/r88317325614636,10112022.html" xr:uid="{2FD724EB-F9D4-424F-AC4F-A38464B730D0}"/>
-    <hyperlink ref="A589" r:id="rId588" display="https://policja.pl/pol/form/r87633102556943,09112022.html" xr:uid="{9C9F71BB-DF6D-45AE-8BC1-E883AF937DAB}"/>
-    <hyperlink ref="A590" r:id="rId589" display="https://policja.pl/pol/form/r57622132768425,08112022.html" xr:uid="{7F42D2A0-261E-4069-B400-DFC8E13E2D83}"/>
-    <hyperlink ref="A591" r:id="rId590" display="https://policja.pl/pol/form/r16873570,07112022.html" xr:uid="{DC012B1C-3901-4D20-9316-40C9C6648754}"/>
-    <hyperlink ref="A592" r:id="rId591" display="https://policja.pl/pol/form/r6572039666634,06112022.html" xr:uid="{A2B854AE-7613-43F8-9B50-F79C1EEA998F}"/>
-    <hyperlink ref="A593" r:id="rId592" display="https://policja.pl/pol/form/r949444532,05112022.html" xr:uid="{BCB0928D-5E79-45E7-92C5-2A586E1FE419}"/>
-    <hyperlink ref="A594" r:id="rId593" display="https://policja.pl/pol/form/r706122123600,04112022.html" xr:uid="{3FD40C87-BCCB-469E-86CA-8EE0109449F1}"/>
-    <hyperlink ref="A595" r:id="rId594" display="https://policja.pl/pol/form/r48574,03112022.html" xr:uid="{B92018E4-2BC4-4607-A39D-D00BB5B6009C}"/>
-    <hyperlink ref="A596" r:id="rId595" display="https://policja.pl/pol/form/r94084344295377,02112022.html" xr:uid="{C87BA22F-DEBD-4996-811C-18F88339EE9B}"/>
-    <hyperlink ref="A597" r:id="rId596" display="https://policja.pl/pol/form/r403649146,01112022.html" xr:uid="{A9F71BE9-DB15-432C-801A-DB90026C7A89}"/>
-    <hyperlink ref="A598" r:id="rId597" display="https://policja.pl/pol/form/r869547299,31102022.html" xr:uid="{3B0EE0F4-51BB-4B48-9067-F85F1087EB98}"/>
-    <hyperlink ref="A599" r:id="rId598" display="https://policja.pl/pol/form/r33814773019412,30102022.html" xr:uid="{63FAB712-D48D-4E76-B65C-A863CED83F86}"/>
-    <hyperlink ref="A600" r:id="rId599" display="https://policja.pl/pol/form/r825573678906,29102022.html" xr:uid="{50EF5829-8F86-4122-8786-0F9D4B72C230}"/>
-    <hyperlink ref="A601" r:id="rId600" display="https://policja.pl/pol/form/r32745,28102022.html" xr:uid="{C88D494F-7AB2-452C-9A95-1805740754A6}"/>
-    <hyperlink ref="A602" r:id="rId601" display="https://policja.pl/pol/form/r255138400,27102022.html" xr:uid="{8F8E6F7B-636C-4EEB-9420-4A437E3AE634}"/>
-    <hyperlink ref="A603" r:id="rId602" display="https://policja.pl/pol/form/r9746397817,26102022.html" xr:uid="{13721D00-A63B-448B-859A-11E976E02662}"/>
-    <hyperlink ref="A604" r:id="rId603" display="https://policja.pl/pol/form/r213622,25102022.html" xr:uid="{0E1FDA63-3E5E-4F9A-BF87-42430B8D16AA}"/>
-    <hyperlink ref="A605" r:id="rId604" display="https://policja.pl/pol/form/r92104325692547,24102022.html" xr:uid="{4AEFBFC3-CECF-4F86-9F5E-78FFA1331B26}"/>
-    <hyperlink ref="A606" r:id="rId605" display="https://policja.pl/pol/form/r6743395,23102022.html" xr:uid="{F9D76E7D-59DF-444D-94C6-12247E380870}"/>
-    <hyperlink ref="A607" r:id="rId606" display="https://policja.pl/pol/form/r9900042514,22102022.html" xr:uid="{C5549E6F-5B97-402C-9A3C-607E66C74F9D}"/>
-    <hyperlink ref="A608" r:id="rId607" display="https://policja.pl/pol/form/r680753618,21102022.html" xr:uid="{CFEC6533-8A64-46C6-80AA-7E212BC28709}"/>
-    <hyperlink ref="A609" r:id="rId608" display="https://policja.pl/pol/form/r64170747839406,20102022.html" xr:uid="{18AA79CD-F3FE-435A-87A4-057536732AF6}"/>
-    <hyperlink ref="A610" r:id="rId609" display="https://policja.pl/pol/form/r8206999,19102022.html" xr:uid="{147FBCED-0DEE-4CF0-8B15-C16F55A1487D}"/>
-    <hyperlink ref="A611" r:id="rId610" display="https://policja.pl/pol/form/r78708493695642,18102022.html" xr:uid="{E497DB2F-88AC-4716-A782-4E63A2EC71C4}"/>
-    <hyperlink ref="A612" r:id="rId611" display="https://policja.pl/pol/form/r8747341,17102022.html" xr:uid="{DCF691A6-630D-4ACD-8102-19955CC35FCF}"/>
-    <hyperlink ref="A613" r:id="rId612" display="https://policja.pl/pol/form/r853104460,16102022.html" xr:uid="{DF01018D-3E2E-4457-9BAA-B85B7A30BB61}"/>
-    <hyperlink ref="A614" r:id="rId613" display="https://policja.pl/pol/form/r293154,15102022.html" xr:uid="{5ED39235-E1C8-4001-B90D-97FE568082AA}"/>
-    <hyperlink ref="A615" r:id="rId614" display="https://policja.pl/pol/form/r6409332,14102022.html" xr:uid="{BF6AFC2B-D3A5-4C96-9A99-702802318540}"/>
-    <hyperlink ref="A616" r:id="rId615" display="https://policja.pl/pol/form/r69353247,13102022.html" xr:uid="{80937BF6-B559-43B8-8ED5-57A26143CB57}"/>
-    <hyperlink ref="A617" r:id="rId616" display="https://policja.pl/pol/form/r435740,12102022.html" xr:uid="{B2B00C71-6CC8-44BC-A2B7-CA99990BD973}"/>
-    <hyperlink ref="A618" r:id="rId617" display="https://policja.pl/pol/form/r75052667814,11102022.html" xr:uid="{8FDCD262-860A-4EF3-88BC-E9A6129A01C5}"/>
-    <hyperlink ref="A619" r:id="rId618" display="https://policja.pl/pol/form/r422678341540,10102022.html" xr:uid="{B0F6CF5D-4067-4CC4-BF83-C31E3DB21AA1}"/>
-    <hyperlink ref="A620" r:id="rId619" display="https://policja.pl/pol/form/r57911872,09102022.html" xr:uid="{660D8D8C-6700-46CA-9CDB-F07D69E940CF}"/>
-    <hyperlink ref="A621" r:id="rId620" display="https://policja.pl/pol/form/r82387915,08102022.html" xr:uid="{19CCCCFD-5947-4145-A926-04B4F2A44A4F}"/>
-    <hyperlink ref="A622" r:id="rId621" display="https://policja.pl/pol/form/r190714,07102022.html" xr:uid="{CDEFFC05-EDB8-4376-BE47-08AA0C42BA64}"/>
-    <hyperlink ref="A623" r:id="rId622" display="https://policja.pl/pol/form/r53176554134382,06102022.html" xr:uid="{56AF45FC-2AF5-42D0-9298-4EDDE6A0DE94}"/>
-    <hyperlink ref="A624" r:id="rId623" display="https://policja.pl/pol/form/r3163370,05102022.html" xr:uid="{E498A6B4-D79B-4425-88E2-58C1377BD9D7}"/>
-    <hyperlink ref="A625" r:id="rId624" display="https://policja.pl/pol/form/r75298,04102022.html" xr:uid="{C0E372C6-8622-40BF-A353-107107BA4067}"/>
-    <hyperlink ref="A626" r:id="rId625" display="https://policja.pl/pol/form/r17755,03102022.html" xr:uid="{A743053F-F305-47C7-A24A-B895250E11C7}"/>
-    <hyperlink ref="A627" r:id="rId626" display="https://policja.pl/pol/form/r58626759,02102022.html" xr:uid="{B669B971-2C56-492C-A957-3DB0809D8C1F}"/>
-    <hyperlink ref="A628" r:id="rId627" display="https://policja.pl/pol/form/r7693595,01102022.html" xr:uid="{EADDEDF2-C278-4077-95DA-3162A7A9D2C6}"/>
-    <hyperlink ref="A629" r:id="rId628" display="https://policja.pl/pol/form/r23486948113,30092022.html" xr:uid="{34482461-D0C5-4657-9D1D-47B51DBBED37}"/>
-    <hyperlink ref="A630" r:id="rId629" display="https://policja.pl/pol/form/r514726889445,29092022.html" xr:uid="{11A61DDF-1204-4616-A941-F7536840819E}"/>
-    <hyperlink ref="A631" r:id="rId630" display="https://policja.pl/pol/form/r922505171,28092022.html" xr:uid="{F8D79D4C-3DB9-45C6-8B9F-24137652D06F}"/>
-    <hyperlink ref="A632" r:id="rId631" display="https://policja.pl/pol/form/r430531285,27092022.html" xr:uid="{46A76F4B-993C-48DE-ABB6-C2E5B48D8A5B}"/>
-    <hyperlink ref="A633" r:id="rId632" display="https://policja.pl/pol/form/r6728423232070,26092022.html" xr:uid="{E3F2C8AE-F4C3-4341-AEE8-0B72EBB33135}"/>
-    <hyperlink ref="A634" r:id="rId633" display="https://policja.pl/pol/form/r1065215714,25092022.html" xr:uid="{75E0690D-F4B7-4331-BAE2-AE251550EC8C}"/>
-    <hyperlink ref="A635" r:id="rId634" display="https://policja.pl/pol/form/r20520463003331,24092022.html" xr:uid="{2C5CFFF6-6779-4FDF-AFE1-6ECFF235295B}"/>
-    <hyperlink ref="A636" r:id="rId635" display="https://policja.pl/pol/form/r12181,23092022.html" xr:uid="{8F358677-2263-4C7F-9F49-ADA41D3B6C1F}"/>
-    <hyperlink ref="A637" r:id="rId636" display="https://policja.pl/pol/form/r6529803,22092022.html" xr:uid="{B6FED0C7-574C-4B6A-81AE-C699133A739F}"/>
-    <hyperlink ref="A638" r:id="rId637" display="https://policja.pl/pol/form/r35613123045214,21092022.html" xr:uid="{B5FAF6BF-06A7-4973-BF54-D763BCE45DD5}"/>
-    <hyperlink ref="A639" r:id="rId638" display="https://policja.pl/pol/form/r5850499323,20092022.html" xr:uid="{11748332-DB25-4422-8381-83756FC0444A}"/>
-    <hyperlink ref="A640" r:id="rId639" display="https://policja.pl/pol/form/r6226232,19092022.html" xr:uid="{3657FE3D-5636-479E-8D0A-C70A8B461EEA}"/>
-    <hyperlink ref="A641" r:id="rId640" display="https://policja.pl/pol/form/r74887323,18092022.html" xr:uid="{B376D087-A967-4D84-BFF2-1B06DDC7B6C5}"/>
-    <hyperlink ref="A642" r:id="rId641" display="https://policja.pl/pol/form/r3079517763,17092022.html" xr:uid="{C164B690-5CB0-4E9F-8BF2-32EFE20F7678}"/>
-    <hyperlink ref="A643" r:id="rId642" display="https://policja.pl/pol/form/r3110804603530,16092022.html" xr:uid="{19761AFD-5864-46A1-BEC3-9F2956E0F8A1}"/>
-    <hyperlink ref="A644" r:id="rId643" display="https://policja.pl/pol/form/r961451052,15092022.html" xr:uid="{DE48DF8B-20B1-474A-A684-8210AD2B2646}"/>
-    <hyperlink ref="A645" r:id="rId644" display="https://policja.pl/pol/form/r72708101576,14092022.html" xr:uid="{343982B8-2403-4B93-9345-9392B22B0BA6}"/>
-    <hyperlink ref="A646" r:id="rId645" display="https://policja.pl/pol/form/r7249497561,13092022.html" xr:uid="{4E3A722D-9FE3-4188-BE33-A5A46E987F5C}"/>
-    <hyperlink ref="A647" r:id="rId646" display="https://policja.pl/pol/form/r787913,12092022.html" xr:uid="{273B06C6-13CA-4F45-91B5-95E277609DE8}"/>
-    <hyperlink ref="A648" r:id="rId647" display="https://policja.pl/pol/form/r8311484,11092022.html" xr:uid="{4FC50741-7B5A-4EC1-B83C-7F3051832E0A}"/>
-    <hyperlink ref="A649" r:id="rId648" display="https://policja.pl/pol/form/r91335,10092022.html" xr:uid="{05DC4CF1-2505-477C-822F-99E58058277F}"/>
-    <hyperlink ref="A650" r:id="rId649" display="https://policja.pl/pol/form/r762630072598,09092022.html" xr:uid="{D67D3086-9005-4F70-98A4-D5345CA2FBFB}"/>
-    <hyperlink ref="A651" r:id="rId650" display="https://policja.pl/pol/form/r1352900503,08092022.html" xr:uid="{10AD8C17-A958-47C5-B1D3-6CC0032A3350}"/>
-    <hyperlink ref="A652" r:id="rId651" display="https://policja.pl/pol/form/r748718513,07092022.html" xr:uid="{A7F0057B-6042-4A69-B2EA-598126D2ADC1}"/>
-    <hyperlink ref="A653" r:id="rId652" display="https://policja.pl/pol/form/r914859,06092022.html" xr:uid="{0D5AE250-2406-49E7-9AB5-46D167A25A95}"/>
-    <hyperlink ref="A654" r:id="rId653" display="https://policja.pl/pol/form/r323834,05092022.html" xr:uid="{909686C6-4D09-4DEE-8696-F0987B261EC5}"/>
-    <hyperlink ref="A655" r:id="rId654" display="https://policja.pl/pol/form/r516025476,04092022.html" xr:uid="{BF769D21-7813-42E0-B783-33F7A13C7954}"/>
-    <hyperlink ref="A656" r:id="rId655" display="https://policja.pl/pol/form/r54475545,03092022.html" xr:uid="{EE18A8F2-003F-477C-84D1-E7CB4C7DEBF1}"/>
-    <hyperlink ref="A657" r:id="rId656" display="https://policja.pl/pol/form/r6620631011961,02092022.html" xr:uid="{28735D1B-C534-4A2F-A306-8C1FE2FCAB0B}"/>
-    <hyperlink ref="A658" r:id="rId657" display="https://policja.pl/pol/form/r827288,01092022.html" xr:uid="{BC65489E-F599-4E14-96BC-FF77535C37D5}"/>
-    <hyperlink ref="A659" r:id="rId658" display="https://policja.pl/pol/form/r561113012,31082022.html" xr:uid="{5524DD1E-1CE8-4195-AADF-A358D8C114DD}"/>
-    <hyperlink ref="A660" r:id="rId659" display="https://policja.pl/pol/form/r83350511889718,30082022.html" xr:uid="{0BE83385-4406-4D33-8283-2595DB4BF255}"/>
-    <hyperlink ref="A661" r:id="rId660" display="https://policja.pl/pol/form/r94956221199085,29082022.html" xr:uid="{3787EE48-9ABF-4874-A64D-109B19D3F603}"/>
-    <hyperlink ref="A662" r:id="rId661" display="https://policja.pl/pol/form/r5250074209949,28082022.html" xr:uid="{0026AA38-D9E8-40E8-B4A0-290BCA8BC50D}"/>
-    <hyperlink ref="A663" r:id="rId662" display="https://policja.pl/pol/form/r4402246273420,27082022.html" xr:uid="{079C9D8F-8A64-421E-951D-7729B4C93A47}"/>
-    <hyperlink ref="A664" r:id="rId663" display="https://policja.pl/pol/form/r53161,26082022.html" xr:uid="{718BBDE9-426A-4287-999F-B82A8E44E456}"/>
-    <hyperlink ref="A665" r:id="rId664" display="https://policja.pl/pol/form/r61636703,25082022.html" xr:uid="{64E77E76-3190-4923-8DCF-D953ED4AA84B}"/>
-    <hyperlink ref="A666" r:id="rId665" display="https://policja.pl/pol/form/r705747766672,24082022.html" xr:uid="{67046A50-1F20-4EBE-A92C-5FFD0790D02E}"/>
-    <hyperlink ref="A667" r:id="rId666" display="https://policja.pl/pol/form/r6268187725550,23082022.html" xr:uid="{8AB0019F-7957-4229-84EF-C2546767DACD}"/>
-    <hyperlink ref="A668" r:id="rId667" display="https://policja.pl/pol/form/r79860951745404,22082022.html" xr:uid="{9746074D-D462-48AE-9E49-E4A2F8480B84}"/>
-    <hyperlink ref="A669" r:id="rId668" display="https://policja.pl/pol/form/r56682977059,21082022.html" xr:uid="{D2C17FE1-7CDF-4CDE-961C-18059F123FA2}"/>
-    <hyperlink ref="A670" r:id="rId669" display="https://policja.pl/pol/form/r773291,20082022.html" xr:uid="{3EB35C2F-5FF1-4B71-AF52-3A4D08B07A0D}"/>
-    <hyperlink ref="A671" r:id="rId670" display="https://policja.pl/pol/form/r676442,19082022.html" xr:uid="{017C74CC-E0DD-497F-BB14-96D9D2D1B094}"/>
-    <hyperlink ref="A672" r:id="rId671" display="https://policja.pl/pol/form/r33316674065,18082022.html" xr:uid="{D8A48631-F5E4-405C-B34F-BBD545738053}"/>
-    <hyperlink ref="A673" r:id="rId672" display="https://policja.pl/pol/form/r34430423,17082022.html" xr:uid="{34A35B12-EE8C-4A52-B228-27355BF5A528}"/>
-    <hyperlink ref="A674" r:id="rId673" display="https://policja.pl/pol/form/r8152785735,16082022.html" xr:uid="{C1319072-944E-4DE2-BF1C-9041A73DF64D}"/>
-    <hyperlink ref="A675" r:id="rId674" display="https://policja.pl/pol/form/r28162832525543,15082022.html" xr:uid="{0D1F043D-A3D5-4C52-8C1D-412CEA9AFB5F}"/>
-    <hyperlink ref="A676" r:id="rId675" display="https://policja.pl/pol/form/r7194380,14082022.html" xr:uid="{C9BEE757-C1B4-4193-BE0C-2459DB20C081}"/>
-    <hyperlink ref="A677" r:id="rId676" display="https://policja.pl/pol/form/r420787222,13082022.html" xr:uid="{D9EE00D4-0767-468F-A337-0F5FA186CCC4}"/>
-    <hyperlink ref="A678" r:id="rId677" display="https://policja.pl/pol/form/r96380892170693,12082022.html" xr:uid="{6FC03F15-E7E5-4733-8B51-2FBF7A7BCABD}"/>
-    <hyperlink ref="A679" r:id="rId678" display="https://policja.pl/pol/form/r3596089061,11082022.html" xr:uid="{0ABD1FB1-11DA-489E-9AE8-A992FD441132}"/>
-    <hyperlink ref="A680" r:id="rId679" display="https://policja.pl/pol/form/r353603653980,10082022.html" xr:uid="{D99B048F-9A99-4AF5-870E-C5CA64B221A2}"/>
-    <hyperlink ref="A681" r:id="rId680" display="https://policja.pl/pol/form/r1689177791,09082022.html" xr:uid="{97948CA4-74D3-468F-A3F2-A90FF84CA3AE}"/>
-    <hyperlink ref="A682" r:id="rId681" display="https://policja.pl/pol/form/r6287132813,08082022.html" xr:uid="{0E338EE8-6820-4578-8027-DC295E32D4E5}"/>
-    <hyperlink ref="A683" r:id="rId682" display="https://policja.pl/pol/form/r88737895945,07082022.html" xr:uid="{DB708A0F-C5B0-4A68-BD76-0100ABD193FB}"/>
-    <hyperlink ref="A684" r:id="rId683" display="https://policja.pl/pol/form/r45947526142,06082022.html" xr:uid="{8640A8C1-9B01-4C26-8E12-3939C9ECF639}"/>
-    <hyperlink ref="A685" r:id="rId684" display="https://policja.pl/pol/form/r4887361749,05082022.html" xr:uid="{ADF5B181-35F2-4C71-A9C6-9936FBB52809}"/>
-    <hyperlink ref="A686" r:id="rId685" display="https://policja.pl/pol/form/r9271169,04082022.html" xr:uid="{0DCFBF0D-202D-4E8A-AC54-30A4DA76948D}"/>
-    <hyperlink ref="A687" r:id="rId686" display="https://policja.pl/pol/form/r359321762,03082022.html" xr:uid="{9EF35FA4-34FC-4652-BC76-A8D92B3D4653}"/>
-    <hyperlink ref="A688" r:id="rId687" display="https://policja.pl/pol/form/r26774856974090,02082022.html" xr:uid="{4E37DC5A-90A2-49E3-ADBE-1A00962AAD00}"/>
-    <hyperlink ref="A689" r:id="rId688" display="https://policja.pl/pol/form/r746028567755,01082022.html" xr:uid="{533F8153-98F5-4D9B-9999-008D1A9551DF}"/>
-    <hyperlink ref="A690" r:id="rId689" display="https://policja.pl/pol/form/r873010,31072022.html" xr:uid="{B686BB45-4469-4957-8351-3501BE07570D}"/>
-    <hyperlink ref="A691" r:id="rId690" display="https://policja.pl/pol/form/r90342293624335,30072022.html" xr:uid="{AD26EBA0-B02A-4808-B319-1C855ED7229F}"/>
-    <hyperlink ref="A692" r:id="rId691" display="https://policja.pl/pol/form/r4580037649,29072022.html" xr:uid="{356DAC26-5D51-4AF5-8D35-9C337412AAA1}"/>
-    <hyperlink ref="A693" r:id="rId692" display="https://policja.pl/pol/form/r732353360950,28072022.html" xr:uid="{5CA3ED6B-3B5B-47E4-9EAF-E48D3C6BDED6}"/>
-    <hyperlink ref="A694" r:id="rId693" display="https://policja.pl/pol/form/r8870342506357,27072022.html" xr:uid="{E4C177C0-7C22-4877-BB35-9B0570DD9006}"/>
-    <hyperlink ref="A695" r:id="rId694" display="https://policja.pl/pol/form/r392665,26072022.html" xr:uid="{60CADB3E-043D-42CF-9521-9598663ECDE8}"/>
-    <hyperlink ref="A696" r:id="rId695" display="https://policja.pl/pol/form/r5333560249,25072022.html" xr:uid="{63829E33-C8A0-4432-A637-75F424F9A901}"/>
-    <hyperlink ref="A697" r:id="rId696" display="https://policja.pl/pol/form/r5768008176621,24072022.html" xr:uid="{764D11D8-0F1D-4C0F-B794-7F1BA06A1548}"/>
-    <hyperlink ref="A698" r:id="rId697" display="https://policja.pl/pol/form/r80504745477172,23072022.html" xr:uid="{FA9D09BE-44FA-44E9-A107-D284685AC547}"/>
-    <hyperlink ref="A699" r:id="rId698" display="https://policja.pl/pol/form/r1067845926,22072022.html" xr:uid="{8770F180-C495-45F1-9D42-F33B6BC31ABF}"/>
-    <hyperlink ref="A700" r:id="rId699" display="https://policja.pl/pol/form/r696214099,21072022.html" xr:uid="{64EB0079-36DC-42CA-9AD0-FD87A86F3E16}"/>
-    <hyperlink ref="A701" r:id="rId700" display="https://policja.pl/pol/form/r35906,20072022.html" xr:uid="{EDF62E08-50B9-4364-93C3-91049584DD1D}"/>
-    <hyperlink ref="A702" r:id="rId701" display="https://policja.pl/pol/form/r1271715111,19072022.html" xr:uid="{FC059E47-33D8-4933-91A4-51659DEEE897}"/>
-    <hyperlink ref="A703" r:id="rId702" display="https://policja.pl/pol/form/r923040176,18072022.html" xr:uid="{14CA09FE-0801-4B43-B5CA-33EF83EEDB6E}"/>
-    <hyperlink ref="A704" r:id="rId703" display="https://policja.pl/pol/form/r663942,17072022.html" xr:uid="{8EDB5B30-D488-4932-966A-81A34239340F}"/>
-    <hyperlink ref="A705" r:id="rId704" display="https://policja.pl/pol/form/r38466653969376,16072022.html" xr:uid="{FD40CC8F-1726-4A5F-B14E-097335349E66}"/>
-    <hyperlink ref="A706" r:id="rId705" display="https://policja.pl/pol/form/r80862124581,15072022.html" xr:uid="{51365C7F-14E6-4503-A053-28FB9CB19080}"/>
-    <hyperlink ref="A707" r:id="rId706" display="https://policja.pl/pol/form/r76582217560489,14072022.html" xr:uid="{6D27CAEC-F9D4-4D0B-98C7-9F0991AF3F86}"/>
-    <hyperlink ref="A708" r:id="rId707" display="https://policja.pl/pol/form/r138811417,13072022.html" xr:uid="{70185194-FBA5-4D54-ADEC-A5725F9F77C2}"/>
-    <hyperlink ref="A709" r:id="rId708" display="https://policja.pl/pol/form/r844030,12072022.html" xr:uid="{91C1211E-000C-4762-975A-209BA7566D7D}"/>
-    <hyperlink ref="A710" r:id="rId709" display="https://policja.pl/pol/form/r2186817496216,11072022.html" xr:uid="{E2DCD1E4-BAF8-4950-9226-E875599D525E}"/>
-    <hyperlink ref="A711" r:id="rId710" display="https://policja.pl/pol/form/r87427545509340,10072022.html" xr:uid="{5DFCD171-984A-49C3-8839-2E50AE9710D7}"/>
-    <hyperlink ref="A712" r:id="rId711" display="https://policja.pl/pol/form/r192592885682,09072022.html" xr:uid="{DDB9DCCD-8D94-4568-A343-372CC8E0FD79}"/>
-    <hyperlink ref="A713" r:id="rId712" display="https://policja.pl/pol/form/r44593759,08072022.html" xr:uid="{4FD7A57D-F757-4012-8D9F-47858D115E70}"/>
-    <hyperlink ref="A714" r:id="rId713" display="https://policja.pl/pol/form/r877543834,07072022.html" xr:uid="{B9154E82-F46E-4CC4-95E7-DABE1FEF20B3}"/>
-    <hyperlink ref="A715" r:id="rId714" display="https://policja.pl/pol/form/r561956,06072022.html" xr:uid="{F7A610D0-DAF0-4A0C-A7D4-8B5696F9F260}"/>
-    <hyperlink ref="A716" r:id="rId715" display="https://policja.pl/pol/form/r292751,05072022.html" xr:uid="{A9CBA18F-7B69-46E8-86CE-8D4FF0C8D27A}"/>
-    <hyperlink ref="A717" r:id="rId716" display="https://policja.pl/pol/form/r13643634,04072022.html" xr:uid="{CA152D0D-DF2B-4575-A9FD-D3E289C09D2E}"/>
-    <hyperlink ref="A718" r:id="rId717" display="https://policja.pl/pol/form/r632811,03072022.html" xr:uid="{7E05F809-C730-4605-9F8E-4AC25D92A3CE}"/>
-    <hyperlink ref="A719" r:id="rId718" display="https://policja.pl/pol/form/r63364375032,02072022.html" xr:uid="{F4E9C9EF-2A08-469D-8523-7DD75FD21C8D}"/>
-    <hyperlink ref="A720" r:id="rId719" display="https://policja.pl/pol/form/r9843369,01072022.html" xr:uid="{044F681E-B0FB-460D-BE5B-BEFEDAE84E4A}"/>
-    <hyperlink ref="A721" r:id="rId720" display="https://policja.pl/pol/form/r386056,30062022.html" xr:uid="{085BE07B-E00A-4DB0-BEF2-CA5201DB6921}"/>
-    <hyperlink ref="A722" r:id="rId721" display="https://policja.pl/pol/form/r12386,29062022.html" xr:uid="{C682BEC6-01D7-4DB8-8481-4709E095DA01}"/>
-    <hyperlink ref="A723" r:id="rId722" display="https://policja.pl/pol/form/r4949292943750,28062022.html" xr:uid="{9279A183-E31B-4AD2-8E85-27C61E5CC8EC}"/>
-    <hyperlink ref="A724" r:id="rId723" display="https://policja.pl/pol/form/r37272441271040,27062022.html" xr:uid="{136D11FC-E369-4ECF-B89A-4907EDCEC7D6}"/>
-    <hyperlink ref="A725" r:id="rId724" display="https://policja.pl/pol/form/r431440,26062022.html" xr:uid="{74098E51-F098-45F3-AA04-C0771C3054CF}"/>
-    <hyperlink ref="A726" r:id="rId725" display="https://policja.pl/pol/form/r9373933,25062022.html" xr:uid="{D787EA24-4FAD-420B-B10E-B26944DCA980}"/>
-    <hyperlink ref="A727" r:id="rId726" display="https://policja.pl/pol/form/r80549,24062022.html" xr:uid="{F9035D2C-22B7-4DA9-A5C1-9C760F7BA09F}"/>
-    <hyperlink ref="A728" r:id="rId727" display="https://policja.pl/pol/form/r866578,23062022.html" xr:uid="{FE351273-66B9-4741-8A49-2D0D6B99E182}"/>
-    <hyperlink ref="A729" r:id="rId728" display="https://policja.pl/pol/form/r3818684965255,22062022.html" xr:uid="{64E43F2F-5E91-44AB-BCAD-11E9AAFBB9C9}"/>
-    <hyperlink ref="A730" r:id="rId729" display="https://policja.pl/pol/form/r7423141191,21062022.html" xr:uid="{3C423FCA-3DA2-4432-BDA8-181B81DFFD64}"/>
-    <hyperlink ref="A731" r:id="rId730" display="https://policja.pl/pol/form/r921489775,20062022.html" xr:uid="{0559D819-8FCD-4E5E-8F94-3921ED6401E4}"/>
-    <hyperlink ref="A732" r:id="rId731" display="https://policja.pl/pol/form/r101397899017,19062022.html" xr:uid="{D366A85B-7128-4A63-8098-B47F0C85348B}"/>
-    <hyperlink ref="A733" r:id="rId732" display="https://policja.pl/pol/form/r36148944,18062022.html" xr:uid="{110518C7-DC84-4078-9869-61F4908596DD}"/>
-    <hyperlink ref="A734" r:id="rId733" display="https://policja.pl/pol/form/r20962037471,17062022.html" xr:uid="{7997C9E9-17FF-4DD8-91AD-BDFD3E92ECA5}"/>
-    <hyperlink ref="A735" r:id="rId734" display="https://policja.pl/pol/form/r4423969595059,16062022.html" xr:uid="{86398F06-2A24-4325-A017-643B52482A37}"/>
-    <hyperlink ref="A736" r:id="rId735" display="https://policja.pl/pol/form/r524068,15062022.html" xr:uid="{876B3AC5-E101-4DBB-B71E-7DF47FD660BC}"/>
+    <hyperlink ref="A32" r:id="rId1" display="https://policja.pl/pol/form/r44560565,19052024.html" xr:uid="{B42BE9F6-5597-41D9-8E09-C1EB11B79C8B}"/>
+    <hyperlink ref="A33" r:id="rId2" display="https://policja.pl/pol/form/r8096546,18052024.html" xr:uid="{86868CEC-F979-4438-8222-E939479C0825}"/>
+    <hyperlink ref="A34" r:id="rId3" display="https://policja.pl/pol/form/r505554081810,17052024.html" xr:uid="{117D1975-5B21-470E-B070-A1E366E21DE6}"/>
+    <hyperlink ref="A35" r:id="rId4" display="https://policja.pl/pol/form/r87319145147789,16052024.html" xr:uid="{20185589-4F62-4DDD-8C6A-1BC5B7C074C3}"/>
+    <hyperlink ref="A36" r:id="rId5" display="https://policja.pl/pol/form/r49077634371,15052024.html" xr:uid="{0F8024D9-0A66-4CA7-BB43-F6233D1BEE29}"/>
+    <hyperlink ref="A37" r:id="rId6" display="https://policja.pl/pol/form/r3457147577,14052024.html" xr:uid="{B785AAF9-0989-4F21-A4E1-192EC8266C24}"/>
+    <hyperlink ref="A38" r:id="rId7" display="https://policja.pl/pol/form/r50036134,13052024-r.html" xr:uid="{1DD7F486-085A-460D-B459-972F851AF05F}"/>
+    <hyperlink ref="A39" r:id="rId8" display="https://policja.pl/pol/form/r237361271804,12052024.html" xr:uid="{5BF6EB73-709C-4344-82A7-0B258F1A757F}"/>
+    <hyperlink ref="A40" r:id="rId9" display="https://policja.pl/pol/form/r27408402796417,11052024.html" xr:uid="{669494DA-F511-4DB1-9B4F-5C7FD911AB18}"/>
+    <hyperlink ref="A41" r:id="rId10" display="https://policja.pl/pol/form/r888123577,10052024.html" xr:uid="{3BAA743B-CBAB-4EE0-8E3D-AED5CACF4273}"/>
+    <hyperlink ref="A42" r:id="rId11" display="https://policja.pl/pol/form/r83223401,09052024.html" xr:uid="{87FD6901-D782-4324-8D39-A4F06D8D2F8E}"/>
+    <hyperlink ref="A43" r:id="rId12" display="https://policja.pl/pol/form/r92758248,08052024.html" xr:uid="{A6C21A90-0287-4472-A1A2-9387D0CA70D6}"/>
+    <hyperlink ref="A44" r:id="rId13" display="https://policja.pl/pol/form/r5031470967826,07052024.html" xr:uid="{F4B364B9-1EF4-4752-BDE7-02ADCCCC30C6}"/>
+    <hyperlink ref="A45" r:id="rId14" display="https://policja.pl/pol/form/r5395276,06072024.html" xr:uid="{C15D25F0-A66E-4870-A19D-23975200BA73}"/>
+    <hyperlink ref="A46" r:id="rId15" display="https://policja.pl/pol/form/r90841148,05052024.html" xr:uid="{D956D2F2-B7C4-4D03-BDA5-9439D8581E85}"/>
+    <hyperlink ref="A47" r:id="rId16" display="https://policja.pl/pol/form/r28754,04052024.html" xr:uid="{3858B0DC-CD5A-44EB-B299-DC59193B9B01}"/>
+    <hyperlink ref="A48" r:id="rId17" display="https://policja.pl/pol/form/r95543862566,03052024.html" xr:uid="{58E14D08-037C-4230-A4C8-651B77FE6C79}"/>
+    <hyperlink ref="A49" r:id="rId18" display="https://policja.pl/pol/form/r35338462734044,02052024.html" xr:uid="{94A66459-64D1-4B5E-82C4-54456F9FD9DD}"/>
+    <hyperlink ref="A50" r:id="rId19" display="https://policja.pl/pol/form/r36424,01052024.html" xr:uid="{C38593A6-F2D1-4E01-A1EA-AEF76026D709}"/>
+    <hyperlink ref="A51" r:id="rId20" display="https://policja.pl/pol/form/r663088,30042024.html" xr:uid="{23D9E15E-A770-46D1-B64A-206782828EF1}"/>
+    <hyperlink ref="A52" r:id="rId21" display="https://policja.pl/pol/form/r24402,29042024.html" xr:uid="{4A1394CF-C78E-4480-A018-2F0B197DA01B}"/>
+    <hyperlink ref="A53" r:id="rId22" display="https://policja.pl/pol/form/r2536752132061,28042024.html" xr:uid="{DEB08FD2-1FF5-49EE-B86C-6B5934761807}"/>
+    <hyperlink ref="A54" r:id="rId23" display="https://policja.pl/pol/form/r500133224821,27042024.html" xr:uid="{68934890-16F2-4A16-BED5-6971019AF0AE}"/>
+    <hyperlink ref="A55" r:id="rId24" display="https://policja.pl/pol/form/r4722371507,26042024.html" xr:uid="{4222D0BD-836E-4E75-A0F6-4093FDFEE403}"/>
+    <hyperlink ref="A56" r:id="rId25" display="https://policja.pl/pol/form/r6635040986,25042024.html" xr:uid="{652FF65D-6838-4B4B-A31E-16875AA9D4F7}"/>
+    <hyperlink ref="A57" r:id="rId26" display="https://policja.pl/pol/form/r71924652097437,24042024.html" xr:uid="{8F6E6A83-330E-41F2-BC02-26C32407B90E}"/>
+    <hyperlink ref="A58" r:id="rId27" display="https://policja.pl/pol/form/r6278029,23042024.html" xr:uid="{8721BE06-426E-4D4E-A6F9-434D134A16C5}"/>
+    <hyperlink ref="A59" r:id="rId28" display="https://policja.pl/pol/form/r56298720132,22042024.html" xr:uid="{04B71E12-D143-4759-95B4-6A15E0CC7EC7}"/>
+    <hyperlink ref="A60" r:id="rId29" display="https://policja.pl/pol/form/r489135,21042024.html" xr:uid="{A544C093-88BA-42F6-A9DC-EDBB2230DE2F}"/>
+    <hyperlink ref="A61" r:id="rId30" display="https://policja.pl/pol/form/r12436440447,20042024.html" xr:uid="{89806186-4691-412B-9AA7-C4F59468CCCD}"/>
+    <hyperlink ref="A62" r:id="rId31" display="https://policja.pl/pol/form/r19552234264107,19042024.html" xr:uid="{FFC85A88-7324-4221-AA1E-B5CCE10B9A36}"/>
+    <hyperlink ref="A63" r:id="rId32" display="https://policja.pl/pol/form/r87588866,18042024.html" xr:uid="{CDA01369-FBA7-494F-8947-17A3D69D73FC}"/>
+    <hyperlink ref="A64" r:id="rId33" display="https://policja.pl/pol/form/r87504992292645,17042024.html" xr:uid="{230C171B-C19A-4906-98C2-0F3CDF086550}"/>
+    <hyperlink ref="A65" r:id="rId34" display="https://policja.pl/pol/form/r577095903,16042024.html" xr:uid="{A8AF0EC9-EFE6-4B58-9E82-10202628C74F}"/>
+    <hyperlink ref="A66" r:id="rId35" display="https://policja.pl/pol/form/r8920209,15042024.html" xr:uid="{1C68C95C-6CB1-426E-B870-D60A702DB5B6}"/>
+    <hyperlink ref="A67" r:id="rId36" display="https://policja.pl/pol/form/r9681507,14042024.html" xr:uid="{5EB12635-D5F0-4F57-9F56-0827D142E08D}"/>
+    <hyperlink ref="A68" r:id="rId37" display="https://policja.pl/pol/form/r49242302398194,13042024.html" xr:uid="{400C6442-2443-4DDF-8039-071E9C14781C}"/>
+    <hyperlink ref="A69" r:id="rId38" display="https://policja.pl/pol/form/r4549151916278,12042024.html" xr:uid="{CF48A6AF-87C2-4FEF-A8A6-74C9DD5A7389}"/>
+    <hyperlink ref="A70" r:id="rId39" display="https://policja.pl/pol/form/r655383592,11042024.html" xr:uid="{321C7259-7278-4338-9D29-0054F01137A1}"/>
+    <hyperlink ref="A71" r:id="rId40" display="https://policja.pl/pol/form/r59605486560,10042024.html" xr:uid="{1B992C31-3731-48DF-AC4E-1DCB4AF0215D}"/>
+    <hyperlink ref="A72" r:id="rId41" display="https://policja.pl/pol/form/r367785,09042024.html" xr:uid="{D6FB13B6-CF95-4943-8332-C518F761FD3D}"/>
+    <hyperlink ref="A73" r:id="rId42" display="https://policja.pl/pol/form/r125980,08042024.html" xr:uid="{53D777A5-178A-4971-A24A-6FA7303B329A}"/>
+    <hyperlink ref="A74" r:id="rId43" display="https://policja.pl/pol/form/r89540976647,07042024.html" xr:uid="{323DFF8B-FEE9-4E6E-BD04-98E9CDC6969E}"/>
+    <hyperlink ref="A75" r:id="rId44" display="https://policja.pl/pol/form/r7149054,06042024.html" xr:uid="{CDD88CEA-9BA2-4A65-A040-0A169E72D889}"/>
+    <hyperlink ref="A76" r:id="rId45" display="https://policja.pl/pol/form/r65506557125,05042024.html" xr:uid="{B30907E0-E876-40D8-83C3-CE086637EC68}"/>
+    <hyperlink ref="A77" r:id="rId46" display="https://policja.pl/pol/form/r63587357,04042024.html" xr:uid="{06D4A214-2F0E-410E-8306-CE58A3CBB71A}"/>
+    <hyperlink ref="A78" r:id="rId47" display="https://policja.pl/pol/form/r40580,03042024.html" xr:uid="{A258D558-41BD-4BAC-9682-E3318AFEABEC}"/>
+    <hyperlink ref="A79" r:id="rId48" display="https://policja.pl/pol/form/r748181175424,02042024.html" xr:uid="{25AEF822-C69D-4931-9A99-70525A75EA20}"/>
+    <hyperlink ref="A80" r:id="rId49" display="https://policja.pl/pol/form/r84396413749444,01042024.html" xr:uid="{8FFCB228-FE91-4BA5-89FE-AB4040D8D367}"/>
+    <hyperlink ref="A81" r:id="rId50" display="https://policja.pl/pol/form/r611487794,31032024.html" xr:uid="{67146AD5-F1C7-4DBD-991D-15D561FC8AB1}"/>
+    <hyperlink ref="A82" r:id="rId51" display="https://policja.pl/pol/form/r65767,30032024.html" xr:uid="{486928FD-5829-4DC7-8A12-A92C1D258E7E}"/>
+    <hyperlink ref="A83" r:id="rId52" display="https://policja.pl/pol/form/r972638694385,29032024.html" xr:uid="{7A49CDB7-FBBF-4764-9D31-20F292C8909D}"/>
+    <hyperlink ref="A84" r:id="rId53" display="https://policja.pl/pol/form/r78134148,28032024.html" xr:uid="{6C15FE12-6B99-4E41-ABD9-658388D99DB6}"/>
+    <hyperlink ref="A85" r:id="rId54" display="https://policja.pl/pol/form/r4401813156613,27032024.html" xr:uid="{1D892A3F-3CE0-424D-A019-FC27AF553C48}"/>
+    <hyperlink ref="A86" r:id="rId55" display="https://policja.pl/pol/form/r38233,26032024.html" xr:uid="{64E7196F-E4A4-4AC5-AA82-89E92811A0F4}"/>
+    <hyperlink ref="A87" r:id="rId56" display="https://policja.pl/pol/form/r9103605897,25032024.html" xr:uid="{6E48ED9E-2BD5-48CF-B592-16CE1457185A}"/>
+    <hyperlink ref="A88" r:id="rId57" display="https://policja.pl/pol/form/r67255893,24032024.html" xr:uid="{6C4973E5-83CD-4B3B-AB12-529EFD06D588}"/>
+    <hyperlink ref="A89" r:id="rId58" display="https://policja.pl/pol/form/r3509542681134,23032024.html" xr:uid="{DE1F0927-78C2-4B78-BC93-13C30D255196}"/>
+    <hyperlink ref="A90" r:id="rId59" display="https://policja.pl/pol/form/r80733,22032024.html" xr:uid="{EC1937BB-4739-4586-9E60-F1DAF2AC87E8}"/>
+    <hyperlink ref="A91" r:id="rId60" display="https://policja.pl/pol/form/r6341950189001,21032024.html" xr:uid="{C6813E4A-83D8-4229-9AC7-EBD4209B10B9}"/>
+    <hyperlink ref="A92" r:id="rId61" display="https://policja.pl/pol/form/r65347746323860,20032024.html" xr:uid="{EA0777C6-9AF3-46D6-9765-FC320E8132D6}"/>
+    <hyperlink ref="A93" r:id="rId62" display="https://policja.pl/pol/form/r4325983363417,19032024.html" xr:uid="{C23E35F4-1374-4421-B011-DFB7C95B2E53}"/>
+    <hyperlink ref="A94" r:id="rId63" display="https://policja.pl/pol/form/r5622765,18032024.html" xr:uid="{05AD9B3A-7681-494D-8B2D-B09ACB5F14B4}"/>
+    <hyperlink ref="A95" r:id="rId64" display="https://policja.pl/pol/form/r8534952862,17032024.html" xr:uid="{96D0718C-B2B5-4E80-8DAC-BA0841E94270}"/>
+    <hyperlink ref="A96" r:id="rId65" display="https://policja.pl/pol/form/r66166969796481,16032024.html" xr:uid="{4125242A-7DA6-4BD6-8C17-FE60988DE663}"/>
+    <hyperlink ref="A97" r:id="rId66" display="https://policja.pl/pol/form/r96718,15032024.html" xr:uid="{B4ED33B5-9589-41A2-9FD9-207ACF03555E}"/>
+    <hyperlink ref="A98" r:id="rId67" display="https://policja.pl/pol/form/r8179111016643,14032024.html" xr:uid="{D751C3A6-9F21-4E13-A726-DD5ACD9118D5}"/>
+    <hyperlink ref="A99" r:id="rId68" display="https://policja.pl/pol/form/r2382132213,13032024.html" xr:uid="{28F38088-75C5-4DA7-A363-0246026C25D5}"/>
+    <hyperlink ref="A100" r:id="rId69" display="https://policja.pl/pol/form/r977742430944,12032024.html" xr:uid="{43933DF2-8FDA-4D89-BEB2-845744E88BAD}"/>
+    <hyperlink ref="A101" r:id="rId70" display="https://policja.pl/pol/form/r10344476932,11032024.html" xr:uid="{E05FB9EB-2A7F-4143-983D-40675685DD3A}"/>
+    <hyperlink ref="A102" r:id="rId71" display="https://policja.pl/pol/form/r90794991,10032024.html" xr:uid="{4795F923-0D98-423D-B82F-66DBA2E6C48C}"/>
+    <hyperlink ref="A103" r:id="rId72" display="https://policja.pl/pol/form/r190719579336,09032024.html" xr:uid="{35630637-728D-43DD-BC17-5E784993B470}"/>
+    <hyperlink ref="A104" r:id="rId73" display="https://policja.pl/pol/form/r917123639,08032024.html" xr:uid="{258EB298-95D0-4745-9153-0E71296754FF}"/>
+    <hyperlink ref="A105" r:id="rId74" display="https://policja.pl/pol/form/r363397934583,07032024.html" xr:uid="{11E3E025-11A8-4C8B-824D-1949FB9FBC79}"/>
+    <hyperlink ref="A106" r:id="rId75" display="https://policja.pl/pol/form/r501158213958,06032024.html" xr:uid="{1E54DDC0-238C-4842-8274-9ED2A5353CA2}"/>
+    <hyperlink ref="A107" r:id="rId76" display="https://policja.pl/pol/form/r27280593675,05032024.html" xr:uid="{1994725C-50A8-4845-AFAE-A53BA059AB19}"/>
+    <hyperlink ref="A108" r:id="rId77" display="https://policja.pl/pol/form/r3241740,04032024.html" xr:uid="{C0CA0CBE-C3A9-4E7F-AC7E-5C1F6FED30CA}"/>
+    <hyperlink ref="A109" r:id="rId78" display="https://policja.pl/pol/form/r86487,03032024.html" xr:uid="{0B08E957-22A5-4E39-84F0-3179A42437E9}"/>
+    <hyperlink ref="A110" r:id="rId79" display="https://policja.pl/pol/form/r104747821686,02032024.html" xr:uid="{BBDE3C19-7E08-40F7-A84A-9BFB41DFB58F}"/>
+    <hyperlink ref="A111" r:id="rId80" display="https://policja.pl/pol/form/r12571510,01032024.html" xr:uid="{D50243D0-7D69-41D8-883A-1F8C881B3A6F}"/>
+    <hyperlink ref="A112" r:id="rId81" display="https://policja.pl/pol/form/r71324328947649,29022024.html" xr:uid="{5A59FEB2-3F6D-4346-BBA3-5339E79BC12A}"/>
+    <hyperlink ref="A113" r:id="rId82" display="https://policja.pl/pol/form/r7126410,28022024.html" xr:uid="{35803961-1CDF-410F-A0D3-85F68CC6FE49}"/>
+    <hyperlink ref="A114" r:id="rId83" display="https://policja.pl/pol/form/r558135,27022024.html" xr:uid="{AFC8A75F-2803-4A04-A8B3-EC59192AD348}"/>
+    <hyperlink ref="A115" r:id="rId84" display="https://policja.pl/pol/form/r88160,26022024.html" xr:uid="{A4CE4155-E80D-45F5-8B4D-808441DB4763}"/>
+    <hyperlink ref="A116" r:id="rId85" display="https://policja.pl/pol/form/r65515556392551,25022024.html" xr:uid="{C38032A2-8509-483F-94C1-000D186D54AD}"/>
+    <hyperlink ref="A117" r:id="rId86" display="https://policja.pl/pol/form/r1453748779849,24022024-r.html" xr:uid="{FF14A36D-CB1A-4CA7-8F9D-33DE7F6C63C8}"/>
+    <hyperlink ref="A118" r:id="rId87" display="https://policja.pl/pol/form/r823862180184,23022024-r.html" xr:uid="{AAB784AB-FD6D-4703-B4EA-862215589469}"/>
+    <hyperlink ref="A119" r:id="rId88" display="https://policja.pl/pol/form/r7031698725799,22022024.html" xr:uid="{66E745AC-5E3D-4038-AEC7-D6E4569BBC15}"/>
+    <hyperlink ref="A120" r:id="rId89" display="https://policja.pl/pol/form/r972332985908,21022022.html" xr:uid="{EDD7E660-D4B5-41E0-BB5A-8A86934C896B}"/>
+    <hyperlink ref="A121" r:id="rId90" display="https://policja.pl/pol/form/r53684,20022024.html" xr:uid="{264A46A4-F3D0-4368-B13E-9651C1AD1696}"/>
+    <hyperlink ref="A122" r:id="rId91" display="https://policja.pl/pol/form/r239220,19022024.html" xr:uid="{70DE6772-0043-431D-84A8-4EC84039F285}"/>
+    <hyperlink ref="A123" r:id="rId92" display="https://policja.pl/pol/form/r224924367,18022024.html" xr:uid="{C4F73D5F-C1CB-4ECC-84A5-EC96923C203E}"/>
+    <hyperlink ref="A124" r:id="rId93" display="https://policja.pl/pol/form/r28561,17022024.html" xr:uid="{45FA70BA-E009-4372-8369-05E2D0935B96}"/>
+    <hyperlink ref="A125" r:id="rId94" display="https://policja.pl/pol/form/r53773017,16022024.html" xr:uid="{BEAB81CA-C3A2-457E-BC18-E1B09C004421}"/>
+    <hyperlink ref="A126" r:id="rId95" display="https://policja.pl/pol/form/r22860212473836,15022024.html" xr:uid="{DDA56FD1-631D-4D3D-9800-8B313728F653}"/>
+    <hyperlink ref="A127" r:id="rId96" display="https://policja.pl/pol/form/r58200800,14022024.html" xr:uid="{50A11705-8E55-4775-A296-505686C4450C}"/>
+    <hyperlink ref="A128" r:id="rId97" display="https://policja.pl/pol/form/r9698402252320,13022024.html" xr:uid="{EF7158DD-34AF-4AFE-A6EE-B13E8A04B553}"/>
+    <hyperlink ref="A129" r:id="rId98" display="https://policja.pl/pol/form/r214338,12022024.html" xr:uid="{C1EDB2E6-F322-490B-965A-CE98BBC8D079}"/>
+    <hyperlink ref="A130" r:id="rId99" display="https://policja.pl/pol/form/r201398172780,11022024.html" xr:uid="{CFEE17FC-2031-4AD1-9230-49C23C3C3752}"/>
+    <hyperlink ref="A131" r:id="rId100" display="https://policja.pl/pol/form/r82937190082045,10022024.html" xr:uid="{F3342378-04C2-44F8-B3D9-5A03D75D98C1}"/>
+    <hyperlink ref="A132" r:id="rId101" display="https://policja.pl/pol/form/r748625708,09022024.html" xr:uid="{6E10654E-BD9C-4BA8-B560-8CCB05B35A39}"/>
+    <hyperlink ref="A133" r:id="rId102" display="https://policja.pl/pol/form/r9570190227077,08022024.html" xr:uid="{F5519D5A-0D8F-4FE3-8DE8-9978266B63AA}"/>
+    <hyperlink ref="A134" r:id="rId103" display="https://policja.pl/pol/form/r5155776000797,07022024.html" xr:uid="{84E268CC-4E45-491F-85E3-FD74636B0F56}"/>
+    <hyperlink ref="A135" r:id="rId104" display="https://policja.pl/pol/form/r2383118845106,6022024-r.html" xr:uid="{EDD2CA8C-9B5E-4A71-B420-FB8E9386A743}"/>
+    <hyperlink ref="A136" r:id="rId105" display="https://policja.pl/pol/form/r7954755967750,05022024r.html" xr:uid="{0F71C837-C924-497B-95D9-2DA744A93047}"/>
+    <hyperlink ref="A137" r:id="rId106" display="https://policja.pl/pol/form/r172299383714,04022024.html" xr:uid="{9D7E711A-59AF-4B85-83FC-6B01597DD761}"/>
+    <hyperlink ref="A138" r:id="rId107" display="https://policja.pl/pol/form/r61274534089,03022024.html" xr:uid="{14AD8349-47AA-4C54-B678-E0E39B21CABD}"/>
+    <hyperlink ref="A139" r:id="rId108" display="https://policja.pl/pol/form/r8591387312,02022024.html" xr:uid="{3178EB72-060F-42E1-BE21-B263E9B5921B}"/>
+    <hyperlink ref="A140" r:id="rId109" display="https://policja.pl/pol/form/r8497849592,01022024.html" xr:uid="{CF54F2AC-E781-4846-832B-265385A6F7FD}"/>
+    <hyperlink ref="A141" r:id="rId110" display="https://policja.pl/pol/form/r720082260484,31012024.html" xr:uid="{846E1DC7-0A61-4C99-887C-9A086A8220BD}"/>
+    <hyperlink ref="A142" r:id="rId111" display="https://policja.pl/pol/form/r5032784606244,30012024.html" xr:uid="{31A64434-6312-43FE-91C2-3A3E3D4FF859}"/>
+    <hyperlink ref="A143" r:id="rId112" display="https://policja.pl/pol/form/r513309523,29012024-r.html" xr:uid="{A57A0CB4-477F-47E2-9BAA-17729362EAF6}"/>
+    <hyperlink ref="A144" r:id="rId113" display="https://policja.pl/pol/form/r2815914,28012024.html" xr:uid="{11C37C1F-4D4C-4388-835A-83E91BC68D63}"/>
+    <hyperlink ref="A145" r:id="rId114" display="https://policja.pl/pol/form/r57476392767033,27012024.html" xr:uid="{392F80B1-94B4-407D-9E46-31AFB02197E5}"/>
+    <hyperlink ref="A146" r:id="rId115" display="https://policja.pl/pol/form/r44075317067567,26012024.html" xr:uid="{665D935D-D9F2-4F23-97CA-95BE101E0DF4}"/>
+    <hyperlink ref="A147" r:id="rId116" display="https://policja.pl/pol/form/r25608024487372,25012024.html" xr:uid="{CE6736E2-4B17-47D0-B5A1-909128FF14D2}"/>
+    <hyperlink ref="A148" r:id="rId117" display="https://policja.pl/pol/form/r52029571257082,24012024.html" xr:uid="{7A3F1311-A6EC-416C-83C3-8C1E4A75263C}"/>
+    <hyperlink ref="A149" r:id="rId118" display="https://policja.pl/pol/form/r2904022146,23012024.html" xr:uid="{1F590CBE-C3C0-4AE0-ABE3-C59E3B25961A}"/>
+    <hyperlink ref="A150" r:id="rId119" display="https://policja.pl/pol/form/r5497399,22012024.html" xr:uid="{60036301-AB08-40BC-862D-E2246FBAF9B2}"/>
+    <hyperlink ref="A151" r:id="rId120" display="https://policja.pl/pol/form/r53445089310,21012024.html" xr:uid="{197FCDBC-B657-46D6-B4AD-0384FD100225}"/>
+    <hyperlink ref="A152" r:id="rId121" display="https://policja.pl/pol/form/r6793230683,20012024.html" xr:uid="{A9CC33F1-72C8-4B12-8471-3FCBEDBEF11F}"/>
+    <hyperlink ref="A153" r:id="rId122" display="https://policja.pl/pol/form/r8764491872,19012024.html" xr:uid="{652B620A-81CB-41DF-9733-4B1C2B2371A8}"/>
+    <hyperlink ref="A154" r:id="rId123" display="https://policja.pl/pol/form/r77423837177,18012024.html" xr:uid="{1261E0F8-4205-4427-BC56-FA13132AA9B6}"/>
+    <hyperlink ref="A155" r:id="rId124" display="https://policja.pl/pol/form/r3298000503,17012024.html" xr:uid="{3F46407F-CC73-4991-AD52-22F21E20093C}"/>
+    <hyperlink ref="A156" r:id="rId125" display="https://policja.pl/pol/form/r12564305,16012024.html" xr:uid="{0CB26C38-929F-4251-9B2F-248B6AAFB2E0}"/>
+    <hyperlink ref="A157" r:id="rId126" display="https://policja.pl/pol/form/r764640394,15012024.html" xr:uid="{95903E52-AD03-4BC6-B428-87F566C53246}"/>
+    <hyperlink ref="A158" r:id="rId127" display="https://policja.pl/pol/form/r7432737380,14012024.html" xr:uid="{27C25AD4-0C6A-403F-8830-E260EADF0251}"/>
+    <hyperlink ref="A159" r:id="rId128" display="https://policja.pl/pol/form/r242134556245,13012024.html" xr:uid="{39D073C0-2842-4FB6-9BEF-3E468C72C1B1}"/>
+    <hyperlink ref="A160" r:id="rId129" display="https://policja.pl/pol/form/r87024922,12012024.html" xr:uid="{266178C1-C3E0-4996-AD2A-C105DE28BB55}"/>
+    <hyperlink ref="A161" r:id="rId130" display="https://policja.pl/pol/form/r715030,11012024.html" xr:uid="{E19E3611-06F5-4E11-ABFD-E77A43735A37}"/>
+    <hyperlink ref="A162" r:id="rId131" display="https://policja.pl/pol/form/r886776581,10012024.html" xr:uid="{0AAB2E0D-720A-498D-B59C-4C6A756A9F71}"/>
+    <hyperlink ref="A163" r:id="rId132" display="https://policja.pl/pol/form/r761150430232,09012024.html" xr:uid="{48A2591B-6C3B-4765-A29D-486A3B06B147}"/>
+    <hyperlink ref="A164" r:id="rId133" display="https://policja.pl/pol/form/r18443419674001,08012024.html" xr:uid="{6FA66F7C-432F-4147-B93C-F9BAAF8FC811}"/>
+    <hyperlink ref="A165" r:id="rId134" display="https://policja.pl/pol/form/r8755309217,07012024.html" xr:uid="{E3C17A65-3026-4850-9E3E-49B44F8A05A8}"/>
+    <hyperlink ref="A166" r:id="rId135" display="https://policja.pl/pol/form/r820449,06012024.html" xr:uid="{CC06C111-ED08-4D02-8707-4D7687094F38}"/>
+    <hyperlink ref="A167" r:id="rId136" display="https://policja.pl/pol/form/r225951856078,05012024.html" xr:uid="{D4522672-786A-4AE7-BF6B-E53F353BB818}"/>
+    <hyperlink ref="A168" r:id="rId137" display="https://policja.pl/pol/form/r46740426490,04012024.html" xr:uid="{AB4DA972-B646-4CC0-AE33-1A8099B3DEB4}"/>
+    <hyperlink ref="A169" r:id="rId138" display="https://policja.pl/pol/form/r50991,03012024.html" xr:uid="{28EE91EA-A212-4E48-829A-CF5856DC6E39}"/>
+    <hyperlink ref="A170" r:id="rId139" display="https://policja.pl/pol/form/r82745689125,02012024.html" xr:uid="{D0E90B35-B6E2-4C8F-A931-894C790A9AF0}"/>
+    <hyperlink ref="A171" r:id="rId140" display="https://policja.pl/pol/form/r13840991931,01012024.html" xr:uid="{34677C1D-D566-45A2-A0B4-85F8DB9E7A91}"/>
+    <hyperlink ref="A172" r:id="rId141" display="https://policja.pl/pol/form/r196172060889,31122023.html" xr:uid="{3CDE4BF7-A443-4740-BFBF-DC53FBC2CDFB}"/>
+    <hyperlink ref="A173" r:id="rId142" display="https://policja.pl/pol/form/r676101280783,30122023.html" xr:uid="{DA1FA4D7-EF68-4098-919D-748D13447137}"/>
+    <hyperlink ref="A174" r:id="rId143" display="https://policja.pl/pol/form/r3120352,29122023.html" xr:uid="{3D644CCC-0AE5-4E4A-BC26-C5101F800E9E}"/>
+    <hyperlink ref="A175" r:id="rId144" display="https://policja.pl/pol/form/r5535603017124,28122023.html" xr:uid="{3AEAF0B8-4C0B-41C8-B93A-ACCCCEE93201}"/>
+    <hyperlink ref="A176" r:id="rId145" display="https://policja.pl/pol/form/r4143475885744,27122023.html" xr:uid="{D93B6422-BE72-422D-AEA0-B39C413B6F5A}"/>
+    <hyperlink ref="A177" r:id="rId146" display="https://policja.pl/pol/form/r3054207023776,26122023.html" xr:uid="{306E8718-7CB7-4010-8553-CA49E21BD1F2}"/>
+    <hyperlink ref="A178" r:id="rId147" display="https://policja.pl/pol/form/r3169806895951,25122023.html" xr:uid="{1492850E-839B-412F-89B6-B5F0BA85B29A}"/>
+    <hyperlink ref="A179" r:id="rId148" display="https://policja.pl/pol/form/r9278017664796,24122023.html" xr:uid="{096FFA6E-A600-4675-944B-83735A648DBF}"/>
+    <hyperlink ref="A180" r:id="rId149" display="https://policja.pl/pol/form/r603054069,23122023.html" xr:uid="{B0E09089-09A9-4DFE-94B7-6F3A91D3E74E}"/>
+    <hyperlink ref="A181" r:id="rId150" display="https://policja.pl/pol/form/r26412082061867,22122023.html" xr:uid="{65655F90-8509-4DED-A845-A5F173C9E629}"/>
+    <hyperlink ref="A182" r:id="rId151" display="https://policja.pl/pol/form/r46048,21122023.html" xr:uid="{7C39BB56-8FE4-4019-BC16-663466BDEDA3}"/>
+    <hyperlink ref="A183" r:id="rId152" display="https://policja.pl/pol/form/r39275,20122023.html" xr:uid="{5E4C98C1-2A19-4BE0-8848-4821BA788EAB}"/>
+    <hyperlink ref="A184" r:id="rId153" display="https://policja.pl/pol/form/r96360856763477,19122023.html" xr:uid="{187D8F60-0648-4F72-B4FC-144770C9A0A2}"/>
+    <hyperlink ref="A185" r:id="rId154" display="https://policja.pl/pol/form/r3948377954,18122023.html" xr:uid="{D0A9A05E-7288-441A-9FEB-AB2FB6CE9643}"/>
+    <hyperlink ref="A186" r:id="rId155" display="https://policja.pl/pol/form/r9566725402,17122023.html" xr:uid="{C098817F-36EF-4352-B343-6FA21E818A65}"/>
+    <hyperlink ref="A187" r:id="rId156" display="https://policja.pl/pol/form/r51805592,16122023.html" xr:uid="{FB900FC4-0125-4FB1-979A-923E72201236}"/>
+    <hyperlink ref="A188" r:id="rId157" display="https://policja.pl/pol/form/r6527215974885,15122023.html" xr:uid="{F754414E-3F7A-4B79-A03E-583209E4735B}"/>
+    <hyperlink ref="A189" r:id="rId158" display="https://policja.pl/pol/form/r93279,14122023.html" xr:uid="{D4FAD74E-67EA-4EEA-8656-92725C8BCD55}"/>
+    <hyperlink ref="A190" r:id="rId159" display="https://policja.pl/pol/form/r99941766988,13122023.html" xr:uid="{85F254FD-B8AF-4410-B238-1143E7C372B0}"/>
+    <hyperlink ref="A191" r:id="rId160" display="https://policja.pl/pol/form/r8122232,12122023.html" xr:uid="{2F2F727D-E9D7-4559-A290-2ED0F140498B}"/>
+    <hyperlink ref="A192" r:id="rId161" display="https://policja.pl/pol/form/r28203312297000,11122023.html" xr:uid="{F4F939FA-999B-4156-9D19-F53F31AF1443}"/>
+    <hyperlink ref="A193" r:id="rId162" display="https://policja.pl/pol/form/r643890,10122023.html" xr:uid="{4398CBD4-86EB-40E3-80A1-27717978D9B1}"/>
+    <hyperlink ref="A194" r:id="rId163" display="https://policja.pl/pol/form/r3690572648,09122023.html" xr:uid="{51A7690D-5EB5-4A7D-B15D-31BA0F196342}"/>
+    <hyperlink ref="A195" r:id="rId164" display="https://policja.pl/pol/form/r820974381563,08122023.html" xr:uid="{4DBCAB66-73EA-43B1-87E2-914BB1913B20}"/>
+    <hyperlink ref="A196" r:id="rId165" display="https://policja.pl/pol/form/r259896140625,07122023.html" xr:uid="{9E6EE894-FAE5-4128-A3A1-F88864A45BB7}"/>
+    <hyperlink ref="A197" r:id="rId166" display="https://policja.pl/pol/form/r2747503285614,06122023.html" xr:uid="{70BC87B9-9599-4DD2-AC01-231F66EC484B}"/>
+    <hyperlink ref="A198" r:id="rId167" display="https://policja.pl/pol/form/r874181566,05122023.html" xr:uid="{B927C47A-9048-4592-8A9A-8851DD14CE43}"/>
+    <hyperlink ref="A199" r:id="rId168" display="https://policja.pl/pol/form/r83862218207,04122023.html" xr:uid="{3F52B43C-E92F-4738-BEAE-4847A784B0AC}"/>
+    <hyperlink ref="A200" r:id="rId169" display="https://policja.pl/pol/form/r51801,03122023.html" xr:uid="{A419B88B-F785-4634-AEF9-9B64051C4B5C}"/>
+    <hyperlink ref="A201" r:id="rId170" display="https://policja.pl/pol/form/r9248425789,02122023.html" xr:uid="{2EE29C54-69FA-4D5D-80A6-DC11EA7EB068}"/>
+    <hyperlink ref="A202" r:id="rId171" display="https://policja.pl/pol/form/r33436563007,01122023.html" xr:uid="{418AD0F5-BDE6-44A3-985A-22BB06EFADC8}"/>
+    <hyperlink ref="A203" r:id="rId172" display="https://policja.pl/pol/form/r358049688,30112023.html" xr:uid="{7267E142-38A9-458F-801A-B3547FDEE7A1}"/>
+    <hyperlink ref="A204" r:id="rId173" display="https://policja.pl/pol/form/r2378457170671,29112023.html" xr:uid="{4157D412-ADEC-4957-8D8E-AE5662BD8699}"/>
+    <hyperlink ref="A205" r:id="rId174" display="https://policja.pl/pol/form/r291077248,28112023.html" xr:uid="{3F57E01D-C7CD-4C31-8476-9427EB74B50F}"/>
+    <hyperlink ref="A206" r:id="rId175" display="https://policja.pl/pol/form/r1223852,27112023.html" xr:uid="{80A50BC8-1E10-4929-AE33-E7A444C28115}"/>
+    <hyperlink ref="A207" r:id="rId176" display="https://policja.pl/pol/form/r17117020354018,26112023.html" xr:uid="{DFA2D3E1-BEBF-47A4-88F8-1DC3ABA1462B}"/>
+    <hyperlink ref="A208" r:id="rId177" display="https://policja.pl/pol/form/r8637266919,25112023.html" xr:uid="{19CB711D-1CCD-4876-BB47-FDD3940134A6}"/>
+    <hyperlink ref="A209" r:id="rId178" display="https://policja.pl/pol/form/r30129936,24112023.html" xr:uid="{56FC61CC-AE5E-423C-9159-D0EB3BFDC05E}"/>
+    <hyperlink ref="A210" r:id="rId179" display="https://policja.pl/pol/form/r7367924650866,23112023.html" xr:uid="{6B7DF4D8-D13E-478F-8651-AB94D292A23A}"/>
+    <hyperlink ref="A211" r:id="rId180" display="https://policja.pl/pol/form/r73505776958,22112023.html" xr:uid="{F8E2EF23-7FF8-47D0-92D2-A2092D512EE0}"/>
+    <hyperlink ref="A212" r:id="rId181" display="https://policja.pl/pol/form/r78783848701,21112023.html" xr:uid="{7B3DD598-9629-46FD-9A6C-5BE2DE0C8844}"/>
+    <hyperlink ref="A213" r:id="rId182" display="https://policja.pl/pol/form/r6502606,20112023.html" xr:uid="{2951EADD-78FA-441F-84E9-91A962EF25BF}"/>
+    <hyperlink ref="A214" r:id="rId183" display="https://policja.pl/pol/form/r5330871412818,19112023.html" xr:uid="{B68AB5E2-8FB8-4235-BD16-5F5488C65328}"/>
+    <hyperlink ref="A215" r:id="rId184" display="https://policja.pl/pol/form/r679226343,18112023.html" xr:uid="{796BFA0A-270C-4DB8-922A-31E1CF1DDB87}"/>
+    <hyperlink ref="A216" r:id="rId185" display="https://policja.pl/pol/form/r2812715,17112023.html" xr:uid="{F87358A8-F222-41C0-AFC5-1CB34A60638C}"/>
+    <hyperlink ref="A217" r:id="rId186" display="https://policja.pl/pol/form/r7760930689424,16112023.html" xr:uid="{4A6CB182-EF64-40F9-9FC5-F97AF3C718D7}"/>
+    <hyperlink ref="A218" r:id="rId187" display="https://policja.pl/pol/form/r278127744018,15112023.html" xr:uid="{920234E4-F34A-4A0C-81F0-2408A9E7C79A}"/>
+    <hyperlink ref="A219" r:id="rId188" display="https://policja.pl/pol/form/r4877495,14112023.html" xr:uid="{A302AAB7-A7CA-4E11-8A1C-05048E92D6D8}"/>
+    <hyperlink ref="A220" r:id="rId189" display="https://policja.pl/pol/form/r5548990103,13112023.html" xr:uid="{EBF79236-23FB-4ABA-BD6C-33D40AB8C6D0}"/>
+    <hyperlink ref="A221" r:id="rId190" display="https://policja.pl/pol/form/r4150447476566,12112023.html" xr:uid="{F77F09CD-58FF-46E3-A3C3-0D4EFCF32023}"/>
+    <hyperlink ref="A222" r:id="rId191" display="https://policja.pl/pol/form/r817720,11112023.html" xr:uid="{202D5B49-A82B-4E01-8146-A78B2DCC4694}"/>
+    <hyperlink ref="A223" r:id="rId192" display="https://policja.pl/pol/form/r7297418,10112023.html" xr:uid="{D18E2010-F0BB-4221-8C8A-BB58069A7F6F}"/>
+    <hyperlink ref="A224" r:id="rId193" display="https://policja.pl/pol/form/r838670,09112023.html" xr:uid="{0A85564E-1739-4E18-A376-DC5611C72158}"/>
+    <hyperlink ref="A225" r:id="rId194" display="https://policja.pl/pol/form/r2380222926270,08112023.html" xr:uid="{4757183D-FA64-42D2-BF58-E3D2F3BB3EC4}"/>
+    <hyperlink ref="A226" r:id="rId195" display="https://policja.pl/pol/form/r28046833640,07112023.html" xr:uid="{89C46CBB-D24D-467F-AFA7-37AF97CACB37}"/>
+    <hyperlink ref="A227" r:id="rId196" display="https://policja.pl/pol/form/r654875,06112023.html" xr:uid="{124D9E52-42FC-4646-9536-0D4CC00DF7C5}"/>
+    <hyperlink ref="A228" r:id="rId197" display="https://policja.pl/pol/form/r9582855560384,05112023.html" xr:uid="{65D62AAB-D9BF-49FA-95C8-387CC2731938}"/>
+    <hyperlink ref="A229" r:id="rId198" display="https://policja.pl/pol/form/r54388681771,04112023.html" xr:uid="{938FA524-7A60-482D-B127-82755350F46D}"/>
+    <hyperlink ref="A230" r:id="rId199" display="https://policja.pl/pol/form/r59669624177,03112023.html" xr:uid="{B3685AEF-40C9-4620-AB4A-5558B1E029D6}"/>
+    <hyperlink ref="A231" r:id="rId200" display="https://policja.pl/pol/form/r18678,02112023.html" xr:uid="{408F0F43-AFC1-4349-82F3-6279683069C6}"/>
+    <hyperlink ref="A232" r:id="rId201" display="https://policja.pl/pol/form/r5588956470152,01112023.html" xr:uid="{E8B93FD1-5256-4BF7-A21D-EC8E5EFC33DA}"/>
+    <hyperlink ref="A233" r:id="rId202" display="https://policja.pl/pol/form/r56763840,31102023.html" xr:uid="{F85FE58A-82A4-4786-A9CA-3BFDD1CAA218}"/>
+    <hyperlink ref="A234" r:id="rId203" display="https://policja.pl/pol/form/r57153,30102023.html" xr:uid="{EEC72D1C-A7FA-4A9C-8AB7-FB0191B49458}"/>
+    <hyperlink ref="A235" r:id="rId204" display="https://policja.pl/pol/form/r88315,29102023.html" xr:uid="{79B2519C-C3BF-4523-B19D-BA39E025CA05}"/>
+    <hyperlink ref="A236" r:id="rId205" display="https://policja.pl/pol/form/r225451599322,28102023.html" xr:uid="{6477DDF0-B21A-43EF-95E0-9202140D4A10}"/>
+    <hyperlink ref="A237" r:id="rId206" display="https://policja.pl/pol/form/r80959287350272,27102023.html" xr:uid="{E2872745-DB94-4C8E-91CF-F3AEEB650E5D}"/>
+    <hyperlink ref="A238" r:id="rId207" display="https://policja.pl/pol/form/r34033595,26102023.html" xr:uid="{60D6260F-B93B-43F3-BF3B-1C6146540CDF}"/>
+    <hyperlink ref="A239" r:id="rId208" display="https://policja.pl/pol/form/r4097173704,25102023.html" xr:uid="{B8BE8006-012E-49FF-91DA-8059C3920090}"/>
+    <hyperlink ref="A240" r:id="rId209" display="https://policja.pl/pol/form/r587300175046,24102023.html" xr:uid="{AE1A7A12-4703-4418-9EC4-27D3130E0A94}"/>
+    <hyperlink ref="A241" r:id="rId210" display="https://policja.pl/pol/form/r6747938883506,23102023.html" xr:uid="{BE381EE7-EF15-4DC1-9A63-2EB3E8200B12}"/>
+    <hyperlink ref="A242" r:id="rId211" display="https://policja.pl/pol/form/r53320787097550,22102023.html" xr:uid="{526ADFF3-423A-4C8D-BB48-5693AB62F43B}"/>
+    <hyperlink ref="A243" r:id="rId212" display="https://policja.pl/pol/form/r6608719722,21102023.html" xr:uid="{459B3FE7-7840-4659-A0A4-76FB81C891B4}"/>
+    <hyperlink ref="A244" r:id="rId213" display="https://policja.pl/pol/form/r9279997674790,20102023.html" xr:uid="{F0633C37-DB83-41D8-86EC-C5DA4F78DB06}"/>
+    <hyperlink ref="A245" r:id="rId214" display="https://policja.pl/pol/form/r2312475,19102023.html" xr:uid="{6588E4B4-A195-49AB-AD9D-5029AC52DB69}"/>
+    <hyperlink ref="A246" r:id="rId215" display="https://policja.pl/pol/form/r98462719795,18102023.html" xr:uid="{59544608-C41C-4AA7-831D-B16CA558F95F}"/>
+    <hyperlink ref="A247" r:id="rId216" display="https://policja.pl/pol/form/r15305604596,17102023.html" xr:uid="{0E3CC4A8-DCB8-4CE9-A5EA-93C11B291360}"/>
+    <hyperlink ref="A248" r:id="rId217" display="https://policja.pl/pol/form/r4564486405297,16102023.html" xr:uid="{A5B1D5B0-00F1-41C8-AE2A-27C722E0C31B}"/>
+    <hyperlink ref="A249" r:id="rId218" display="https://policja.pl/pol/form/r70026999907,15102023.html" xr:uid="{CFCA9270-06AB-48EB-949F-C804690A50DB}"/>
+    <hyperlink ref="A250" r:id="rId219" display="https://policja.pl/pol/form/r17550894,14102023.html" xr:uid="{157ADD9B-D99C-41F2-B985-1AE05A4043BB}"/>
+    <hyperlink ref="A251" r:id="rId220" display="https://policja.pl/pol/form/r533114314,13102023.html" xr:uid="{D1AC3F47-02B7-451D-88B1-367332F43620}"/>
+    <hyperlink ref="A252" r:id="rId221" display="https://policja.pl/pol/form/r42233580,12102023.html" xr:uid="{FEE56BE9-1BD3-409C-8D97-9760877E03EF}"/>
+    <hyperlink ref="A253" r:id="rId222" display="https://policja.pl/pol/form/r908519092303,11102023.html" xr:uid="{257E8BB9-02FE-42A2-9240-9D2B48ABE021}"/>
+    <hyperlink ref="A254" r:id="rId223" display="https://policja.pl/pol/form/r5402294236802,10102023.html" xr:uid="{B0BB7FF6-BBD5-4C95-AE17-32E7BAE708C8}"/>
+    <hyperlink ref="A255" r:id="rId224" display="https://policja.pl/pol/form/r3543844722663,09102023.html" xr:uid="{AD524AC6-274D-4161-982D-37D4ED1A2307}"/>
+    <hyperlink ref="A256" r:id="rId225" display="https://policja.pl/pol/form/r6511283532,08102023.html" xr:uid="{C86D8458-58F5-4BD0-9ECD-26E015BEC498}"/>
+    <hyperlink ref="A257" r:id="rId226" display="https://policja.pl/pol/form/r333276,07102023.html" xr:uid="{7444BFAB-6B82-4C5F-B1A0-98EF866B14C4}"/>
+    <hyperlink ref="A258" r:id="rId227" display="https://policja.pl/pol/form/r54849160708048,06102023.html" xr:uid="{5288EB57-2A0E-4097-9A44-56C226683216}"/>
+    <hyperlink ref="A259" r:id="rId228" display="https://policja.pl/pol/form/r58379528424247,05102023.html" xr:uid="{45CA1277-2D35-4A29-BF42-0BFCEA60654F}"/>
+    <hyperlink ref="A260" r:id="rId229" display="https://policja.pl/pol/form/r2477670,04102023.html" xr:uid="{89FF283D-F78D-48CE-9B3A-23AD1F9F8845}"/>
+    <hyperlink ref="A261" r:id="rId230" display="https://policja.pl/pol/form/r123447973072,03102023.html" xr:uid="{ABEDF934-02AD-4505-AF8B-2EBC5F390542}"/>
+    <hyperlink ref="A262" r:id="rId231" display="https://policja.pl/pol/form/r4679934808162,02102023.html" xr:uid="{EC8AA2FA-3FB0-482F-A053-B32CD5586028}"/>
+    <hyperlink ref="A263" r:id="rId232" display="https://policja.pl/pol/form/r7628674,01102023.html" xr:uid="{49B5A8CE-FB7A-4C1D-A394-57533467433E}"/>
+    <hyperlink ref="A264" r:id="rId233" display="https://policja.pl/pol/form/r380280623,30092023.html" xr:uid="{0C68CD5B-1948-4321-9CB0-DC35475E0C51}"/>
+    <hyperlink ref="A265" r:id="rId234" display="https://policja.pl/pol/form/r31678760,29092023.html" xr:uid="{C9CB61A2-3F78-48E8-BED8-B82A40E21734}"/>
+    <hyperlink ref="A266" r:id="rId235" display="https://policja.pl/pol/form/r175600303,28092023.html" xr:uid="{977AE47D-4F82-4422-AFE9-910C6BCAD627}"/>
+    <hyperlink ref="A267" r:id="rId236" display="https://policja.pl/pol/form/r210730101,27092023.html" xr:uid="{9B6AD56A-306D-4237-9015-4CDABBCBDAB3}"/>
+    <hyperlink ref="A268" r:id="rId237" display="https://policja.pl/pol/form/r6230360954407,26092023.html" xr:uid="{CE97C3C9-BD79-43A3-B323-EE52351ADD0F}"/>
+    <hyperlink ref="A269" r:id="rId238" display="https://policja.pl/pol/form/r25417089,25092023.html" xr:uid="{70A4B064-7C3D-469F-BC46-9C6C6466B080}"/>
+    <hyperlink ref="A270" r:id="rId239" display="https://policja.pl/pol/form/r33491891728,24092023.html" xr:uid="{DCC8BB2F-2697-4FB4-BBAE-F5BCCC80C7FF}"/>
+    <hyperlink ref="A271" r:id="rId240" display="https://policja.pl/pol/form/r4046191588241,23092023.html" xr:uid="{C2703A83-7496-4B87-BDB4-66EF2BC14560}"/>
+    <hyperlink ref="A272" r:id="rId241" display="https://policja.pl/pol/form/r6201638,22092023.html" xr:uid="{F8EF0A36-FD3B-40B0-9260-04251F85489E}"/>
+    <hyperlink ref="A273" r:id="rId242" display="https://policja.pl/pol/form/r8988616827508,21092023.html" xr:uid="{9DFD6E79-86A1-4730-BAE8-11025C9E4556}"/>
+    <hyperlink ref="A274" r:id="rId243" display="https://policja.pl/pol/form/r86121651291041,20092023.html" xr:uid="{FBF64CC5-6532-4548-A01F-05E406F1D04A}"/>
+    <hyperlink ref="A275" r:id="rId244" display="https://policja.pl/pol/form/r55935683022366,19092023.html" xr:uid="{E9A14B52-151C-44FE-AD2F-BE42C9E82B7C}"/>
+    <hyperlink ref="A276" r:id="rId245" display="https://policja.pl/pol/form/r282754285476,18092023.html" xr:uid="{04BF9482-5A7F-4927-946B-A12908FCA009}"/>
+    <hyperlink ref="A277" r:id="rId246" display="https://policja.pl/pol/form/r22661052221,17092023.html" xr:uid="{7E895D84-C842-412E-B813-04C30C1D0B38}"/>
+    <hyperlink ref="A278" r:id="rId247" display="https://policja.pl/pol/form/r77462175329064,16092023.html" xr:uid="{5E732FE0-D4D6-4ADF-BB90-2F6613F598AB}"/>
+    <hyperlink ref="A279" r:id="rId248" display="https://policja.pl/pol/form/r626135416,15092023.html" xr:uid="{71677A4D-A93E-45DA-963E-F6678CC81B13}"/>
+    <hyperlink ref="A280" r:id="rId249" display="https://policja.pl/pol/form/r700735,14092023.html" xr:uid="{8580589B-4885-4E3A-8D55-7EC1E44AC6EB}"/>
+    <hyperlink ref="A281" r:id="rId250" display="https://policja.pl/pol/form/r26911491,13092023.html" xr:uid="{690E48BA-C107-4D81-9966-C57866A5B9A7}"/>
+    <hyperlink ref="A282" r:id="rId251" display="https://policja.pl/pol/form/r136304,12092023.html" xr:uid="{C30D7543-51B0-49D8-9539-681C0456E6F1}"/>
+    <hyperlink ref="A283" r:id="rId252" display="https://policja.pl/pol/form/r72376091950,11092023.html" xr:uid="{C87F316A-C0A0-4225-8212-A0A2F4CAF51C}"/>
+    <hyperlink ref="A284" r:id="rId253" display="https://policja.pl/pol/form/r469979472795,10092023.html" xr:uid="{B0321895-96C7-4226-89BD-BEC43214AB8A}"/>
+    <hyperlink ref="A285" r:id="rId254" display="https://policja.pl/pol/form/r85703972533659,09092023.html" xr:uid="{330217C8-BAE8-48C7-8954-250BA437FAB8}"/>
+    <hyperlink ref="A286" r:id="rId255" display="https://policja.pl/pol/form/r45578122412953,08092023.html" xr:uid="{103DEA95-623F-424E-9658-997183CA74D7}"/>
+    <hyperlink ref="A287" r:id="rId256" display="https://policja.pl/pol/form/r27205347019631,07092023.html" xr:uid="{C55B0F86-3EF1-40A8-ACE1-37391B1CB51C}"/>
+    <hyperlink ref="A288" r:id="rId257" display="https://policja.pl/pol/form/r1409948711743,06092023.html" xr:uid="{66342AA7-7B4B-44DF-B066-810B315150DA}"/>
+    <hyperlink ref="A289" r:id="rId258" display="https://policja.pl/pol/form/r68958,05092023.html" xr:uid="{A893700C-C909-45DA-8220-F16085B527B2}"/>
+    <hyperlink ref="A290" r:id="rId259" display="https://policja.pl/pol/form/r778345316,04092023.html" xr:uid="{2098A8EE-45BF-465F-AAFA-DEA24F6483B0}"/>
+    <hyperlink ref="A291" r:id="rId260" display="https://policja.pl/pol/form/r13771364544273,03092023.html" xr:uid="{9AC05F1A-2498-4547-A6B6-EDCDEE57ACD6}"/>
+    <hyperlink ref="A292" r:id="rId261" display="https://policja.pl/pol/form/r439448145,02092023.html" xr:uid="{334AD64E-2432-4B79-85B4-A2015E25A51E}"/>
+    <hyperlink ref="A293" r:id="rId262" display="https://policja.pl/pol/form/r2267743433,01092023.html" xr:uid="{D2045571-8D24-4C12-95DD-19FEE84ECBFC}"/>
+    <hyperlink ref="A294" r:id="rId263" display="https://policja.pl/pol/form/r20453524,31082023.html" xr:uid="{B5C72CE9-711D-438A-853B-FDBD43EA48DE}"/>
+    <hyperlink ref="A295" r:id="rId264" display="https://policja.pl/pol/form/r359434,30082023.html" xr:uid="{4DFFB86D-0BAE-469E-B5EF-D38248C969BE}"/>
+    <hyperlink ref="A296" r:id="rId265" display="https://policja.pl/pol/form/r66950482995,29082023.html" xr:uid="{1E46758C-58C8-4397-9011-B42AF2AD4DB4}"/>
+    <hyperlink ref="A297" r:id="rId266" display="https://policja.pl/pol/form/r71167923,28082023.html" xr:uid="{7AD165DF-0EFC-4CF8-8AAE-5B4DA5AD2B21}"/>
+    <hyperlink ref="A298" r:id="rId267" display="https://policja.pl/pol/form/r6604760846,27082023.html" xr:uid="{2A1A67A9-8025-48FB-B6AB-1A8678E0CC0A}"/>
+    <hyperlink ref="A299" r:id="rId268" display="https://policja.pl/pol/form/r51515269269373,26052023.html" xr:uid="{BD6025AA-F096-432C-9C94-AFB9C8140C57}"/>
+    <hyperlink ref="A300" r:id="rId269" display="https://policja.pl/pol/form/r7832509365,25082023.html" xr:uid="{108C928E-CDAA-4769-961A-BD91D4B0DF46}"/>
+    <hyperlink ref="A301" r:id="rId270" display="https://policja.pl/pol/form/r44381,24082023.html" xr:uid="{B54D534D-7DAD-4EF4-B0A2-35EC0066C87B}"/>
+    <hyperlink ref="A302" r:id="rId271" display="https://policja.pl/pol/form/r99420757692468,23082023.html" xr:uid="{C4D48D02-6AA9-4DDF-8491-ECAB27FF1F4C}"/>
+    <hyperlink ref="A303" r:id="rId272" display="https://policja.pl/pol/form/r1345550234086,22082023.html" xr:uid="{8491DC3E-3A4C-4056-B72C-DAA2411D315A}"/>
+    <hyperlink ref="A304" r:id="rId273" display="https://policja.pl/pol/form/r60138024321,21082023.html" xr:uid="{09FCFEBD-808C-49B7-853A-F3A608AB2F1D}"/>
+    <hyperlink ref="A305" r:id="rId274" display="https://policja.pl/pol/form/r49359,20082023.html" xr:uid="{F1AC9712-EFFA-4BD9-A0BD-A2B845098A59}"/>
+    <hyperlink ref="A306" r:id="rId275" display="https://policja.pl/pol/form/r12870,19082023.html" xr:uid="{CE0B55D2-3984-4AAE-ADD8-54D179DD6C03}"/>
+    <hyperlink ref="A307" r:id="rId276" display="https://policja.pl/pol/form/r368756,18082023.html" xr:uid="{A52DC03B-7D9E-4854-98A0-81B4246FEEEB}"/>
+    <hyperlink ref="A308" r:id="rId277" display="https://policja.pl/pol/form/r86269,17082023.html" xr:uid="{993848B3-F755-4A34-98C2-0DAD5395CE71}"/>
+    <hyperlink ref="A309" r:id="rId278" display="https://policja.pl/pol/form/r9534595033,16082023.html" xr:uid="{0B69A4D4-69C0-4F1A-B541-EF227201F2D4}"/>
+    <hyperlink ref="A310" r:id="rId279" display="https://policja.pl/pol/form/r33551660192,15082023.html" xr:uid="{5A8D680C-B95D-4CAB-BF79-ADB85FA5519B}"/>
+    <hyperlink ref="A311" r:id="rId280" display="https://policja.pl/pol/form/r8031479302912,14082023.html" xr:uid="{FD6A6BFC-0B04-40E6-A7FF-75A8D94D7CE2}"/>
+    <hyperlink ref="A312" r:id="rId281" display="https://policja.pl/pol/form/r88155854571240,13082023.html" xr:uid="{BBE6A56D-3E32-4734-BED1-1C1C25066258}"/>
+    <hyperlink ref="A313" r:id="rId282" display="https://policja.pl/pol/form/r7045873,12082023.html" xr:uid="{3068E711-EC38-44C9-A25D-3322F5B9D436}"/>
+    <hyperlink ref="A314" r:id="rId283" display="https://policja.pl/pol/form/r11984,11082023.html" xr:uid="{25B4A304-B9AA-4E30-9981-E3B6A509D169}"/>
+    <hyperlink ref="A315" r:id="rId284" display="https://policja.pl/pol/form/r410275,10082023.html" xr:uid="{C033F2BD-314F-415C-8999-40A28845C4C3}"/>
+    <hyperlink ref="A316" r:id="rId285" display="https://policja.pl/pol/form/r1331351,09082023.html" xr:uid="{9675D2B7-41D8-4C71-B793-E4A6D598CD3B}"/>
+    <hyperlink ref="A317" r:id="rId286" display="https://policja.pl/pol/form/r4465743,08082023.html" xr:uid="{670AEB17-9E05-4A1F-840D-48F2A9070E36}"/>
+    <hyperlink ref="A318" r:id="rId287" display="https://policja.pl/pol/form/r74516245418,07082023.html" xr:uid="{C5DE1379-E5C0-4B27-AB07-F3186C6AB548}"/>
+    <hyperlink ref="A319" r:id="rId288" display="https://policja.pl/pol/form/r1377349,06082023.html" xr:uid="{802FB7B5-A199-4967-A8CE-6743E5B0C535}"/>
+    <hyperlink ref="A320" r:id="rId289" display="https://policja.pl/pol/form/r75712198,05082023.html" xr:uid="{ABD4612D-D3D6-4CFE-BCEB-FDE9AF45BCA2}"/>
+    <hyperlink ref="A321" r:id="rId290" display="https://policja.pl/pol/form/r93793050,04082023.html" xr:uid="{A67109A0-1A56-48E5-A7F8-DDE0488D64D9}"/>
+    <hyperlink ref="A322" r:id="rId291" display="https://policja.pl/pol/form/r2605860,03082023.html" xr:uid="{BD8AC26B-8284-4D64-80B8-D9D915F90B23}"/>
+    <hyperlink ref="A323" r:id="rId292" display="https://policja.pl/pol/form/r36776549662,02082023.html" xr:uid="{1F57CE61-2C2F-42C6-9974-3AD552A467EA}"/>
+    <hyperlink ref="A324" r:id="rId293" display="https://policja.pl/pol/form/r6964901226646,01082023.html" xr:uid="{7566F349-BFFD-47FF-839B-323901732DAD}"/>
+    <hyperlink ref="A325" r:id="rId294" display="https://policja.pl/pol/form/r717612030,31072023.html" xr:uid="{AF2C25BC-D0E1-4322-AE19-2A20DECC8C62}"/>
+    <hyperlink ref="A326" r:id="rId295" display="https://policja.pl/pol/form/r879522,30072023.html" xr:uid="{DAD69DEA-244C-493E-80DC-CB7791DE07B5}"/>
+    <hyperlink ref="A327" r:id="rId296" display="https://policja.pl/pol/form/r847048,29072023.html" xr:uid="{8BC4CE19-8917-4DFA-9A9E-31AF56E5DE6C}"/>
+    <hyperlink ref="A328" r:id="rId297" display="https://policja.pl/pol/form/r396856065,28072023.html" xr:uid="{A5766AC3-DC75-4644-8D6F-92526E2ECA99}"/>
+    <hyperlink ref="A329" r:id="rId298" display="https://policja.pl/pol/form/r1025612,27072023.html" xr:uid="{BEA038E7-DB27-4D37-9931-623115BDC654}"/>
+    <hyperlink ref="A330" r:id="rId299" display="https://policja.pl/pol/form/r73327860695244,26072023.html" xr:uid="{68ADEE3B-38E2-450E-A6BE-2916ADE15B4A}"/>
+    <hyperlink ref="A331" r:id="rId300" display="https://policja.pl/pol/form/r95884889,25072023.html" xr:uid="{60B12F65-0C6E-4C12-8CE4-C97375DEE60D}"/>
+    <hyperlink ref="A332" r:id="rId301" display="https://policja.pl/pol/form/r6194740548082,24072023.html" xr:uid="{37879414-4392-4AB9-BB6E-B0F9047052D7}"/>
+    <hyperlink ref="A333" r:id="rId302" display="https://policja.pl/pol/form/r46790960,23072023.html" xr:uid="{4ADA388F-002F-4C29-8624-8712CF761642}"/>
+    <hyperlink ref="A334" r:id="rId303" display="https://policja.pl/pol/form/r76573052828306,22072023.html" xr:uid="{CCA99821-D056-454A-AF9D-62D4DF4EC480}"/>
+    <hyperlink ref="A335" r:id="rId304" display="https://policja.pl/pol/form/r49707,21072023.html" xr:uid="{F24BAEE4-30CD-4452-A154-BB916327FBC8}"/>
+    <hyperlink ref="A336" r:id="rId305" display="https://policja.pl/pol/form/r5615748227750,20072023.html" xr:uid="{1AFE6AAD-DB86-4107-A85E-3A0115DAD3EA}"/>
+    <hyperlink ref="A337" r:id="rId306" display="https://policja.pl/pol/form/r7963841514202,19072023.html" xr:uid="{1214E28E-A55B-4CD5-8F52-0CB6641C6C2B}"/>
+    <hyperlink ref="A338" r:id="rId307" display="https://policja.pl/pol/form/r14799238722704,18072023.html" xr:uid="{5D481EBE-F0E0-41DE-B89A-4C63F2448723}"/>
+    <hyperlink ref="A339" r:id="rId308" display="https://policja.pl/pol/form/r297222414758,17072023.html" xr:uid="{1C971239-FD95-4505-8DB4-D785F55A3D8A}"/>
+    <hyperlink ref="A340" r:id="rId309" display="https://policja.pl/pol/form/r142800755523,16072023.html" xr:uid="{F2FB2847-7AFD-4F6B-B48C-A7D01CB22704}"/>
+    <hyperlink ref="A341" r:id="rId310" display="https://policja.pl/pol/form/r58052361,15072023.html" xr:uid="{B002C7E9-5C50-4710-A93A-9904E2F9C604}"/>
+    <hyperlink ref="A342" r:id="rId311" display="https://policja.pl/pol/form/r206854339,14072023.html" xr:uid="{F422C406-2F1D-438C-8A1C-23AD42DF445A}"/>
+    <hyperlink ref="A343" r:id="rId312" display="https://policja.pl/pol/form/r8480848887,13072023.html" xr:uid="{CA566856-27C4-4292-A976-3679D332E82E}"/>
+    <hyperlink ref="A344" r:id="rId313" display="https://policja.pl/pol/form/r194506204703,12072023.html" xr:uid="{277BE324-B692-4E17-AEF2-787FE1778177}"/>
+    <hyperlink ref="A345" r:id="rId314" display="https://policja.pl/pol/form/r496452970498,11072023.html" xr:uid="{3817EDC1-B039-4DBC-A38B-154D0D8C5C27}"/>
+    <hyperlink ref="A346" r:id="rId315" display="https://policja.pl/pol/form/r12794763486993,10072023.html" xr:uid="{5B880DA4-853F-4B0C-9E97-D0FF507B1D30}"/>
+    <hyperlink ref="A347" r:id="rId316" display="https://policja.pl/pol/form/r958370577,09072023.html" xr:uid="{E5F0169C-2AD1-46CD-9C8B-6FD8FF555ADF}"/>
+    <hyperlink ref="A348" r:id="rId317" display="https://policja.pl/pol/form/r72001951039,08072023.html" xr:uid="{24FEE165-3943-4D80-9AA9-5D9B22A338B8}"/>
+    <hyperlink ref="A349" r:id="rId318" display="https://policja.pl/pol/form/r7004825,07072023.html" xr:uid="{E4AE3BC8-58B0-4DE1-9AAF-1DFD8AAFC2B2}"/>
+    <hyperlink ref="A350" r:id="rId319" display="https://policja.pl/pol/form/r23596811553,06072023.html" xr:uid="{7828644C-D8E8-4C88-BF24-6983FA12DC0B}"/>
+    <hyperlink ref="A351" r:id="rId320" display="https://policja.pl/pol/form/r4266612440,05072023.html" xr:uid="{5FD3FBEA-200C-4868-9849-8A7915B965E8}"/>
+    <hyperlink ref="A352" r:id="rId321" display="https://policja.pl/pol/form/r2436403162224,04072023.html" xr:uid="{0C5B4E0A-1510-4769-98DB-68313599BB62}"/>
+    <hyperlink ref="A353" r:id="rId322" display="https://policja.pl/pol/form/r3055142107,03072023.html" xr:uid="{B6651687-4809-472B-95F4-748B5F082C04}"/>
+    <hyperlink ref="A354" r:id="rId323" display="https://policja.pl/pol/form/r4203994638,02072023.html" xr:uid="{6C17E8E3-C448-466B-9615-4A45FCC2C53C}"/>
+    <hyperlink ref="A355" r:id="rId324" display="https://policja.pl/pol/form/r161893,01072023.html" xr:uid="{FDFF6EF4-9D14-4435-988A-5958EBACD1DD}"/>
+    <hyperlink ref="A356" r:id="rId325" display="https://policja.pl/pol/form/r3596973028307,30062023.html" xr:uid="{CE5524FB-FE8A-4944-B9A0-C87B1909A59D}"/>
+    <hyperlink ref="A357" r:id="rId326" display="https://policja.pl/pol/form/r193389,29062023.html" xr:uid="{AA4C9895-DB00-49E6-9957-383241630D77}"/>
+    <hyperlink ref="A358" r:id="rId327" display="https://policja.pl/pol/form/r87921299227,28062023.html" xr:uid="{7817AC15-C950-4A1F-9CB9-C3F655926955}"/>
+    <hyperlink ref="A359" r:id="rId328" display="https://policja.pl/pol/form/r312026388,27062023.html" xr:uid="{B0A0FAB0-725A-4172-B4B0-6CB4B8EE81CA}"/>
+    <hyperlink ref="A360" r:id="rId329" display="https://policja.pl/pol/form/r85551,26062023.html" xr:uid="{A4FB92B4-FB2B-4169-B61C-5449D270747F}"/>
+    <hyperlink ref="A361" r:id="rId330" display="https://policja.pl/pol/form/r93475742263415,25062023.html" xr:uid="{E9178036-11C2-4B41-A132-4735C46D8265}"/>
+    <hyperlink ref="A362" r:id="rId331" display="https://policja.pl/pol/form/r420927,24062023.html" xr:uid="{FF9B6014-9CD6-4678-922F-21385A083FF7}"/>
+    <hyperlink ref="A363" r:id="rId332" display="https://policja.pl/pol/form/r103431,23062023.html" xr:uid="{98853F1E-D8CF-4F53-A4EF-018B4F4EFA15}"/>
+    <hyperlink ref="A364" r:id="rId333" display="https://policja.pl/pol/form/r43912358554575,22062023.html" xr:uid="{5507E75C-41A2-4FB2-A17A-A02308053179}"/>
+    <hyperlink ref="A365" r:id="rId334" display="https://policja.pl/pol/form/r708992370,21062023.html" xr:uid="{79508B1E-466E-44F6-AABA-9AAD14BE85EE}"/>
+    <hyperlink ref="A366" r:id="rId335" display="https://policja.pl/pol/form/r725695834,20062023.html" xr:uid="{0CCE0105-6C38-4E51-9561-7CA2A54F0E3C}"/>
+    <hyperlink ref="A367" r:id="rId336" display="https://policja.pl/pol/form/r91822517,19062023.html" xr:uid="{A2C76D88-A7E8-4019-93D1-D642F32A02FB}"/>
+    <hyperlink ref="A368" r:id="rId337" display="https://policja.pl/pol/form/r5496564,18062023.html" xr:uid="{FEB7753C-5BEB-41BA-A2B5-40CAFCA8A838}"/>
+    <hyperlink ref="A369" r:id="rId338" display="https://policja.pl/pol/form/r15897246619311,17062023.html" xr:uid="{4B2321B9-EEF8-4D27-ABB2-C35AD33D3E18}"/>
+    <hyperlink ref="A370" r:id="rId339" display="https://policja.pl/pol/form/r79343918478,16062023.html" xr:uid="{FDC1C02E-8D6B-4FD3-AD2E-5063409F2AF7}"/>
+    <hyperlink ref="A371" r:id="rId340" display="https://policja.pl/pol/form/r28318998,15062023.html" xr:uid="{B79E141B-6374-4F17-8056-850EF7EA7031}"/>
+    <hyperlink ref="A372" r:id="rId341" display="https://policja.pl/pol/form/r998829618982,14062023.html" xr:uid="{F619D399-27DE-4AD2-A70D-680AFF0759C7}"/>
+    <hyperlink ref="A373" r:id="rId342" display="https://policja.pl/pol/form/r74272121,13062023.html" xr:uid="{EEE3D79E-07E6-42EE-AC12-1CB57005C3C1}"/>
+    <hyperlink ref="A374" r:id="rId343" display="https://policja.pl/pol/form/r82865,12062023.html" xr:uid="{B163DB31-D15B-4302-9E0C-88CC768EF19E}"/>
+    <hyperlink ref="A375" r:id="rId344" display="https://policja.pl/pol/form/r172950,11062023.html" xr:uid="{862B777E-4F03-45F7-975C-CC1F92A9978B}"/>
+    <hyperlink ref="A376" r:id="rId345" display="https://policja.pl/pol/form/r57842,10062023.html" xr:uid="{C06EE439-6A0D-4E57-869E-525D76F2922A}"/>
+    <hyperlink ref="A377" r:id="rId346" display="https://policja.pl/pol/form/r4911908,09062023.html" xr:uid="{3D81954C-A174-450D-B84B-921BD021AFC2}"/>
+    <hyperlink ref="A378" r:id="rId347" display="https://policja.pl/pol/form/r980995220,08062023.html" xr:uid="{8C20AFF8-2632-43FC-B450-64310C10F136}"/>
+    <hyperlink ref="A379" r:id="rId348" display="https://policja.pl/pol/form/r6792525,07062023.html" xr:uid="{EB4C0F68-14C3-4144-94FE-DBB13284DE57}"/>
+    <hyperlink ref="A380" r:id="rId349" display="https://policja.pl/pol/form/r52047341284,06062023.html" xr:uid="{4185FC9D-09AD-4DAE-B243-D31E0085D3FC}"/>
+    <hyperlink ref="A381" r:id="rId350" display="https://policja.pl/pol/form/r47262457584,05062023.html" xr:uid="{A5BA8058-F4A2-4758-8689-203FC2634289}"/>
+    <hyperlink ref="A382" r:id="rId351" display="https://policja.pl/pol/form/r57611567,04062023.html" xr:uid="{19C32EC1-D217-4D8A-A28F-9407D87853B5}"/>
+    <hyperlink ref="A383" r:id="rId352" display="https://policja.pl/pol/form/r96495477313,03062023.html" xr:uid="{4156E61C-84D0-43A8-A5BF-FDFF6655288B}"/>
+    <hyperlink ref="A384" r:id="rId353" display="https://policja.pl/pol/form/r161215124,02062023.html" xr:uid="{BBC40891-6C4C-4530-89DD-106518C56AF1}"/>
+    <hyperlink ref="A385" r:id="rId354" display="https://policja.pl/pol/form/r85727169261,01062023.html" xr:uid="{9BD41875-012A-42AE-B45C-6CF3DEA6895A}"/>
+    <hyperlink ref="A386" r:id="rId355" display="https://policja.pl/pol/form/r419046437,31052023.html" xr:uid="{21C8FDBF-7BD9-4A2C-B020-54D38B0F0ABC}"/>
+    <hyperlink ref="A387" r:id="rId356" display="https://policja.pl/pol/form/r115129342292,30052023.html" xr:uid="{94EB1EA8-F66A-4C0B-9625-11103B3DC07C}"/>
+    <hyperlink ref="A388" r:id="rId357" display="https://policja.pl/pol/form/r409823451346,29052023.html" xr:uid="{840E8CCB-CDB0-4560-B11B-8EBEF1762CD2}"/>
+    <hyperlink ref="A389" r:id="rId358" display="https://policja.pl/pol/form/r8955786546515,28052023.html" xr:uid="{F51D271C-63FA-495F-8CD3-28A15FF87D27}"/>
+    <hyperlink ref="A390" r:id="rId359" display="https://policja.pl/pol/form/r334792711,27052023.html" xr:uid="{5C1AA1A1-EADF-439C-A2B5-8592CECE294C}"/>
+    <hyperlink ref="A391" r:id="rId360" display="https://policja.pl/pol/form/r4672992,26052023.html" xr:uid="{B489AC05-BD20-416D-B9AF-C54A47874BD0}"/>
+    <hyperlink ref="A392" r:id="rId361" display="https://policja.pl/pol/form/r126321460,25052023-r.html" xr:uid="{A964CCEC-9EE9-40F5-90B6-0237775AF6C5}"/>
+    <hyperlink ref="A393" r:id="rId362" display="https://policja.pl/pol/form/r116124117,24052023.html" xr:uid="{E04FB650-E29C-4598-8A56-07BDE84436D6}"/>
+    <hyperlink ref="A394" r:id="rId363" display="https://policja.pl/pol/form/r1542023223263,23052023.html" xr:uid="{29CA22A9-0CBF-4ECB-8620-8E47FDED222B}"/>
+    <hyperlink ref="A395" r:id="rId364" display="https://policja.pl/pol/form/r1396902,22052023.html" xr:uid="{AEEB574D-2178-47F6-8977-B262C61E2D22}"/>
+    <hyperlink ref="A396" r:id="rId365" display="https://policja.pl/pol/form/r200761,21052023.html" xr:uid="{9EA14485-2AA5-4309-9468-A6F90DED50FD}"/>
+    <hyperlink ref="A397" r:id="rId366" display="https://policja.pl/pol/form/r58271,20052023.html" xr:uid="{176F096E-1996-4D3A-B1FF-2C5769909CA8}"/>
+    <hyperlink ref="A398" r:id="rId367" display="https://policja.pl/pol/form/r28026088086,19052023.html" xr:uid="{9AC35C4A-5BA8-464E-84D6-9357C1C7F0AD}"/>
+    <hyperlink ref="A399" r:id="rId368" display="https://policja.pl/pol/form/r4181894,18052023.html" xr:uid="{B6DE32AC-FD61-4550-9308-D7BC3AC4FBAF}"/>
+    <hyperlink ref="A400" r:id="rId369" display="https://policja.pl/pol/form/r151849254,17052023.html" xr:uid="{80AA7DCF-F951-4536-8E3B-178F11496229}"/>
+    <hyperlink ref="A401" r:id="rId370" display="https://policja.pl/pol/form/r70327326,16052023.html" xr:uid="{ABFAB1F0-D29F-4198-A693-AF03DF329BAF}"/>
+    <hyperlink ref="A402" r:id="rId371" display="https://policja.pl/pol/form/r96496529051963,15052023.html" xr:uid="{FF04D279-B991-4492-BE28-3D6B8F80F0CE}"/>
+    <hyperlink ref="A403" r:id="rId372" display="https://policja.pl/pol/form/r15702,14052023.html" xr:uid="{27EE30D7-99CB-4DEE-B9FF-2AAEDB4556BE}"/>
+    <hyperlink ref="A404" r:id="rId373" display="https://policja.pl/pol/form/r69992781160,13052023.html" xr:uid="{2F122A43-6F08-4792-B1E6-CB17E84CF850}"/>
+    <hyperlink ref="A405" r:id="rId374" display="https://policja.pl/pol/form/r89500967,12052023.html" xr:uid="{581BEBFC-9AC9-487F-8049-4C7CF37D20C5}"/>
+    <hyperlink ref="A406" r:id="rId375" display="https://policja.pl/pol/form/r210417,11052023.html" xr:uid="{A14F244F-34AD-4F1E-ACFA-87E1D776B0A4}"/>
+    <hyperlink ref="A407" r:id="rId376" display="https://policja.pl/pol/form/r731799,10052023.html" xr:uid="{E42CA12F-94AF-4F7E-85A7-C79E268D968A}"/>
+    <hyperlink ref="A408" r:id="rId377" display="https://policja.pl/pol/form/r27161025954,09052023.html" xr:uid="{8898912D-723C-4493-9219-16FEDEBB7696}"/>
+    <hyperlink ref="A409" r:id="rId378" display="https://policja.pl/pol/form/r43512480762,08052023.html" xr:uid="{EE800ECB-34FE-47A3-B488-41DB2CD4E39A}"/>
+    <hyperlink ref="A410" r:id="rId379" display="https://policja.pl/pol/form/r72501972,07052023.html" xr:uid="{358CE4D9-A14B-4F39-A38B-3DD85B098B1D}"/>
+    <hyperlink ref="A411" r:id="rId380" display="https://policja.pl/pol/form/r1074820013426,06052023.html" xr:uid="{BCC3A943-C92A-4DE7-B5AC-58366A9C4A74}"/>
+    <hyperlink ref="A412" r:id="rId381" display="https://policja.pl/pol/form/r63560728139,05052023.html" xr:uid="{6F7588C5-F2BA-48D4-8318-A0C485BBE34E}"/>
+    <hyperlink ref="A413" r:id="rId382" display="https://policja.pl/pol/form/r34428839,04052023.html" xr:uid="{FBF21FBF-9136-4EC0-8B09-3A998AE9C223}"/>
+    <hyperlink ref="A414" r:id="rId383" display="https://policja.pl/pol/form/r99610455814422,03052023.html" xr:uid="{C360FF36-5254-4B8D-B12F-417F5AEB3F1D}"/>
+    <hyperlink ref="A415" r:id="rId384" display="https://policja.pl/pol/form/r660327,02052023.html" xr:uid="{AAD69042-D006-46F5-A680-D6774BDB15C2}"/>
+    <hyperlink ref="A416" r:id="rId385" display="https://policja.pl/pol/form/r87347421,01052023.html" xr:uid="{4AFA9D5B-8916-4E5A-A021-48F8ADBB6933}"/>
+    <hyperlink ref="A417" r:id="rId386" display="https://policja.pl/pol/form/r9243727439536,30042023.html" xr:uid="{1FA3BCEA-F7BF-4DD2-8C68-6DB21A4342D1}"/>
+    <hyperlink ref="A418" r:id="rId387" display="https://policja.pl/pol/form/r47008275221464,29042023.html" xr:uid="{C755D53B-2A99-4BFA-A483-A5C0239AA970}"/>
+    <hyperlink ref="A419" r:id="rId388" display="https://policja.pl/pol/form/r494182,28042023.html" xr:uid="{AC1ECC94-4B9D-4C06-BDAF-4962470B875B}"/>
+    <hyperlink ref="A420" r:id="rId389" display="https://policja.pl/pol/form/r5278144641,27042023.html" xr:uid="{74A117C4-14AF-4DCD-8890-C1D7D48FBBF5}"/>
+    <hyperlink ref="A421" r:id="rId390" display="https://policja.pl/pol/form/r185028,26042023.html" xr:uid="{A26DE2F3-9962-4086-8E23-F8C5689BCCC2}"/>
+    <hyperlink ref="A422" r:id="rId391" display="https://policja.pl/pol/form/r485330876424,25042023.html" xr:uid="{E628BEB2-875B-440C-A257-411080CA5254}"/>
+    <hyperlink ref="A423" r:id="rId392" display="https://policja.pl/pol/form/r7803768,24042023.html" xr:uid="{C8198970-21E7-44FD-AB8B-B531923947D2}"/>
+    <hyperlink ref="A424" r:id="rId393" display="https://policja.pl/pol/form/r34993114575149,23042023.html" xr:uid="{30343CC9-2BED-40FC-8229-A963C5832277}"/>
+    <hyperlink ref="A425" r:id="rId394" display="https://policja.pl/pol/form/r55603607162297,22042023.html" xr:uid="{5A575A5C-12BE-4321-9719-0B850538C9DE}"/>
+    <hyperlink ref="A426" r:id="rId395" display="https://policja.pl/pol/form/r91645102691816,21042023.html" xr:uid="{6865CCAB-F92D-489B-BABA-C33A86CC4807}"/>
+    <hyperlink ref="A427" r:id="rId396" display="https://policja.pl/pol/form/r21289204854560,20042023.html" xr:uid="{0568F0CE-3AE7-493E-B324-D412E0D93095}"/>
+    <hyperlink ref="A428" r:id="rId397" display="https://policja.pl/pol/form/r2950053,19042023.html" xr:uid="{B6870DB5-BB1A-4452-9936-444B14FC50AE}"/>
+    <hyperlink ref="A429" r:id="rId398" display="https://policja.pl/pol/form/r3866452683,18042023.html" xr:uid="{EE08F5E0-ED2E-49AA-B812-F6632BCA1579}"/>
+    <hyperlink ref="A430" r:id="rId399" display="https://policja.pl/pol/form/r8044573736856,17042023.html" xr:uid="{696A4D2B-5CF0-473B-A690-91E173E93E64}"/>
+    <hyperlink ref="A431" r:id="rId400" display="https://policja.pl/pol/form/r12982,16042023.html" xr:uid="{F59B7040-1673-46D3-84D9-5B5A9FD752A7}"/>
+    <hyperlink ref="A432" r:id="rId401" display="https://policja.pl/pol/form/r546250873,15042023.html" xr:uid="{FDFE42EF-FFDA-4230-863B-F95F5ACDD75D}"/>
+    <hyperlink ref="A433" r:id="rId402" display="https://policja.pl/pol/form/r63345478827344,14032023.html" xr:uid="{ED28BBFA-AE1B-49EF-9CED-2916BA30B9B7}"/>
+    <hyperlink ref="A434" r:id="rId403" display="https://policja.pl/pol/form/r82465421,13042023.html" xr:uid="{B1C93617-3A2E-4449-B00D-C14F962128C1}"/>
+    <hyperlink ref="A435" r:id="rId404" display="https://policja.pl/pol/form/r76018796886270,12042023.html" xr:uid="{EDDC8C19-E65F-4160-9691-110B11E9082D}"/>
+    <hyperlink ref="A436" r:id="rId405" display="https://policja.pl/pol/form/r597241560434,11042023.html" xr:uid="{2203D259-D05C-4EEC-BCB2-9F36B571A48C}"/>
+    <hyperlink ref="A437" r:id="rId406" display="https://policja.pl/pol/form/r969396,10042023.html" xr:uid="{959C4E02-D570-4436-9D64-63A01576BE08}"/>
+    <hyperlink ref="A438" r:id="rId407" display="https://policja.pl/pol/form/r282610,09042023.html" xr:uid="{DA362ED1-02B1-4C4E-B8F3-86D93A6BB3D4}"/>
+    <hyperlink ref="A439" r:id="rId408" display="https://policja.pl/pol/form/r50743305187,08042023.html" xr:uid="{EF09A6D1-0A6F-4127-A699-C99F4247D09D}"/>
+    <hyperlink ref="A440" r:id="rId409" display="https://policja.pl/pol/form/r62943685270279,07042023.html" xr:uid="{9E1A4BEE-00C3-4B6E-A530-31E8B5271F8C}"/>
+    <hyperlink ref="A441" r:id="rId410" display="https://policja.pl/pol/form/r6649492304,06042023.html" xr:uid="{EA829187-A54A-4E77-B2A7-C643145171A7}"/>
+    <hyperlink ref="A442" r:id="rId411" display="https://policja.pl/pol/form/r78382549,05042023.html" xr:uid="{93F09C70-4D54-4C17-9887-00A75917D0CC}"/>
+    <hyperlink ref="A443" r:id="rId412" display="https://policja.pl/pol/form/r782977740678,04042023.html" xr:uid="{B440E2C8-BDC5-49D7-B29B-4BE507F778D6}"/>
+    <hyperlink ref="A444" r:id="rId413" display="https://policja.pl/pol/form/r12075,03042023.html" xr:uid="{10AF772A-3447-45E4-AD13-4CE4F88878A4}"/>
+    <hyperlink ref="A445" r:id="rId414" display="https://policja.pl/pol/form/r497882612954,02042023.html" xr:uid="{ED88E0E2-FF7B-4A3A-A5D4-5C27180DC8AA}"/>
+    <hyperlink ref="A446" r:id="rId415" display="https://policja.pl/pol/form/r3471638269232,01042023.html" xr:uid="{31C8B935-F0B3-4536-9DA4-8A8FE5CD6CCD}"/>
+    <hyperlink ref="A447" r:id="rId416" display="https://policja.pl/pol/form/r945846,31032023.html" xr:uid="{4FCD572F-7B48-4F45-8AB8-881B1B1DE575}"/>
+    <hyperlink ref="A448" r:id="rId417" display="https://policja.pl/pol/form/r74998217590839,30032023.html" xr:uid="{48FAFEBD-D3EF-455C-AEDF-21A33272E9E7}"/>
+    <hyperlink ref="A449" r:id="rId418" display="https://policja.pl/pol/form/r90087,29032023.html" xr:uid="{DDA23B7F-DDD5-40CA-AE10-82593D2B4222}"/>
+    <hyperlink ref="A450" r:id="rId419" display="https://policja.pl/pol/form/r15174445285,28032023.html" xr:uid="{E78BEB3F-4E21-449C-9889-EC38D446E1C8}"/>
+    <hyperlink ref="A451" r:id="rId420" display="https://policja.pl/pol/form/r887893922,27032023.html" xr:uid="{6AAD7F5A-701A-4CB0-8954-41DE779E1060}"/>
+    <hyperlink ref="A452" r:id="rId421" display="https://policja.pl/pol/form/r660386220,26032023.html" xr:uid="{E92007FD-7817-4D57-BA3A-A4C6D07827AB}"/>
+    <hyperlink ref="A453" r:id="rId422" display="https://policja.pl/pol/form/r4618629,25032023.html" xr:uid="{8033882D-7A03-4AFB-AB33-D551EE511190}"/>
+    <hyperlink ref="A454" r:id="rId423" display="https://policja.pl/pol/form/r46598377,24032023.html" xr:uid="{4CDFF706-84C5-400E-9CC2-337309488A35}"/>
+    <hyperlink ref="A455" r:id="rId424" display="https://policja.pl/pol/form/r150206,23032023.html" xr:uid="{C7F74ADF-B47A-463C-8DE2-EAAC87C2A4CD}"/>
+    <hyperlink ref="A456" r:id="rId425" display="https://policja.pl/pol/form/r98221331155298,22032023.html" xr:uid="{BC154D89-E006-4F2A-9F81-A25252707408}"/>
+    <hyperlink ref="A457" r:id="rId426" display="https://policja.pl/pol/form/r1755356,21032023.html" xr:uid="{8BC315A7-35A4-4882-8041-75D70AD83752}"/>
+    <hyperlink ref="A458" r:id="rId427" display="https://policja.pl/pol/form/r4868452515834,20032023.html" xr:uid="{54C012B7-446B-470C-933E-A952B65F76DC}"/>
+    <hyperlink ref="A459" r:id="rId428" display="https://policja.pl/pol/form/r579375850,19032023.html" xr:uid="{6CDA432B-B45B-49AB-B065-D3E8837CACE0}"/>
+    <hyperlink ref="A460" r:id="rId429" display="https://policja.pl/pol/form/r9027946182983,18032023.html" xr:uid="{C108A7D4-2A43-4FEB-AF22-5426E06E4358}"/>
+    <hyperlink ref="A461" r:id="rId430" display="https://policja.pl/pol/form/r526889,17032023.html" xr:uid="{DCFDDEF8-FB05-4166-895D-582848A21809}"/>
+    <hyperlink ref="A462" r:id="rId431" display="https://policja.pl/pol/form/r4800085,16032023.html" xr:uid="{3FD33B6D-5EEC-4118-BE89-C5342873562D}"/>
+    <hyperlink ref="A463" r:id="rId432" display="https://policja.pl/pol/form/r7242430979314,15032023.html" xr:uid="{C53ECA4E-3D7B-4839-8D42-806579BF0A7F}"/>
+    <hyperlink ref="A464" r:id="rId433" display="https://policja.pl/pol/form/r62934,14032023.html" xr:uid="{4051E45F-C3A2-47DF-A10E-4F1D2EE96EA2}"/>
+    <hyperlink ref="A465" r:id="rId434" display="https://policja.pl/pol/form/r909596,13032023.html" xr:uid="{7EF4EEFE-EE97-4754-9C5D-5A2492522434}"/>
+    <hyperlink ref="A466" r:id="rId435" display="https://policja.pl/pol/form/r270506,12032023.html" xr:uid="{C6332A54-E93C-4054-8B92-F83315A86A40}"/>
+    <hyperlink ref="A467" r:id="rId436" display="https://policja.pl/pol/form/r3344177,11032023.html" xr:uid="{3E575C07-3C75-48A4-9B61-18F27B55D9FC}"/>
+    <hyperlink ref="A468" r:id="rId437" display="https://policja.pl/pol/form/r27965454590,10032023.html" xr:uid="{B08097B8-69D0-499E-92F9-63D3A5019DF2}"/>
+    <hyperlink ref="A469" r:id="rId438" display="https://policja.pl/pol/form/r23653961,09032023.html" xr:uid="{CB4471B7-85E5-474C-87DB-F5EDFE76B983}"/>
+    <hyperlink ref="A470" r:id="rId439" display="https://policja.pl/pol/form/r95333928510,08032023.html" xr:uid="{F114797E-DF9F-4B9E-9E24-61D6584B1A6D}"/>
+    <hyperlink ref="A471" r:id="rId440" display="https://policja.pl/pol/form/r75092178,07032023.html" xr:uid="{DE9DC0C8-4088-434F-92A7-BB9587D53A10}"/>
+    <hyperlink ref="A472" r:id="rId441" display="https://policja.pl/pol/form/r9907946169,06032023.html" xr:uid="{BF3D650F-9DFD-4BD2-BBC5-46BEEC2C2B34}"/>
+    <hyperlink ref="A473" r:id="rId442" display="https://policja.pl/pol/form/r601229,05032023.html" xr:uid="{BFD74BA4-3A4B-4596-81A9-2FADD6AA5D82}"/>
+    <hyperlink ref="A474" r:id="rId443" display="https://policja.pl/pol/form/r3899718,04032023.html" xr:uid="{AEFDA716-DAA3-49A1-9A4E-B153F4B9707E}"/>
+    <hyperlink ref="A475" r:id="rId444" display="https://policja.pl/pol/form/r41170949422082,03032023.html" xr:uid="{9AD9337B-A303-467A-BD5B-0BF634DC0909}"/>
+    <hyperlink ref="A476" r:id="rId445" display="https://policja.pl/pol/form/r77710718,02032023.html" xr:uid="{83AA0E0E-E596-432C-A5CC-19E4C1710203}"/>
+    <hyperlink ref="A477" r:id="rId446" display="https://policja.pl/pol/form/r372605307250,01032023.html" xr:uid="{6EA9115A-5805-42E8-82BA-44B0C0C126A4}"/>
+    <hyperlink ref="A478" r:id="rId447" display="https://policja.pl/pol/form/r32281800945825,28022023.html" xr:uid="{8315849D-4491-4F03-8F6E-B1BFB00EC3B7}"/>
+    <hyperlink ref="A479" r:id="rId448" display="https://policja.pl/pol/form/r206567,27022023.html" xr:uid="{1F83CD84-142D-4349-AA2D-56E5BBB61A55}"/>
+    <hyperlink ref="A480" r:id="rId449" display="https://policja.pl/pol/form/r25484913247149,26022023.html" xr:uid="{ECB962CD-B772-4A54-9553-B9C586A04325}"/>
+    <hyperlink ref="A481" r:id="rId450" display="https://policja.pl/pol/form/r3659481701,25022023.html" xr:uid="{A35FA5EA-7A13-43B8-BF7F-51B79703C012}"/>
+    <hyperlink ref="A482" r:id="rId451" display="https://policja.pl/pol/form/r4839310474280,24022023.html" xr:uid="{143C53EB-7010-4D72-B401-1EAC1BB63D44}"/>
+    <hyperlink ref="A483" r:id="rId452" display="https://policja.pl/pol/form/r5491500,23022023.html" xr:uid="{B5991DCF-A734-4084-84C6-73096D6D7D25}"/>
+    <hyperlink ref="A484" r:id="rId453" display="https://policja.pl/pol/form/r50543246254,22022023.html" xr:uid="{3CB2B7D4-F4E0-4957-806E-40A8F9FB75C4}"/>
+    <hyperlink ref="A485" r:id="rId454" display="https://policja.pl/pol/form/r637861337499,21022023.html" xr:uid="{EBE19CCB-EBE3-4A64-AC81-E814289D438C}"/>
+    <hyperlink ref="A486" r:id="rId455" display="https://policja.pl/pol/form/r1207112,20022023.html" xr:uid="{F3FEDD00-4387-4E8B-9ECD-B30A307EE430}"/>
+    <hyperlink ref="A487" r:id="rId456" display="https://policja.pl/pol/form/r309012452,19022023.html" xr:uid="{A95E321A-0F7B-4221-AEE5-0684C15DA249}"/>
+    <hyperlink ref="A488" r:id="rId457" display="https://policja.pl/pol/form/r2163908721791,18022023.html" xr:uid="{D937B322-DE53-4D10-A603-09AB7B7A6069}"/>
+    <hyperlink ref="A489" r:id="rId458" display="https://policja.pl/pol/form/r3838639975310,17022023.html" xr:uid="{84780EA6-B4BA-4403-AAD0-131D200DB96D}"/>
+    <hyperlink ref="A490" r:id="rId459" display="https://policja.pl/pol/form/r24017,16022023.html" xr:uid="{B463CCA1-B85D-455B-AD7E-705DAAC55A27}"/>
+    <hyperlink ref="A491" r:id="rId460" display="https://policja.pl/pol/form/r8615519014083,15022023.html" xr:uid="{6FDDBE62-6DD2-4F05-8DD4-06645A2BB7D9}"/>
+    <hyperlink ref="A492" r:id="rId461" display="https://policja.pl/pol/form/r8318631,14022023.html" xr:uid="{13DE893C-38F8-426D-9616-E624BF5D8EFB}"/>
+    <hyperlink ref="A493" r:id="rId462" display="https://policja.pl/pol/form/r192557,13022023.html" xr:uid="{3FE969DF-3EB7-4EE7-95B5-59ABB963D245}"/>
+    <hyperlink ref="A494" r:id="rId463" display="https://policja.pl/pol/form/r226596613,12022023.html" xr:uid="{4181BE5F-266D-4AFC-82B8-80634A05CDD2}"/>
+    <hyperlink ref="A495" r:id="rId464" display="https://policja.pl/pol/form/r97886123606,11022023.html" xr:uid="{52628A03-E833-4033-B9D6-C7A485A75D3A}"/>
+    <hyperlink ref="A496" r:id="rId465" display="https://policja.pl/pol/form/r617688154617,10022023.html" xr:uid="{112A216B-81C6-4EA5-8A67-F961D06DE9BF}"/>
+    <hyperlink ref="A497" r:id="rId466" display="https://policja.pl/pol/form/r863330,09022023.html" xr:uid="{253B92C2-6F05-4676-AABC-C9A65B5423BC}"/>
+    <hyperlink ref="A498" r:id="rId467" display="https://policja.pl/pol/form/r27628146812,08022023.html" xr:uid="{5C890829-6019-407D-A42D-845BAE07255A}"/>
+    <hyperlink ref="A499" r:id="rId468" display="https://policja.pl/pol/form/r7831721,07022023.html" xr:uid="{874DDC89-E1A1-4F28-AEA7-F0B7A935A807}"/>
+    <hyperlink ref="A500" r:id="rId469" display="https://policja.pl/pol/form/r9869107,06022023.html" xr:uid="{752B491F-3A8B-461E-8B70-7A9A9643D81F}"/>
+    <hyperlink ref="A501" r:id="rId470" display="https://policja.pl/pol/form/r499078823005,05022023.html" xr:uid="{1FE7DB9F-17CC-447F-A3E9-06F48EDCDAB2}"/>
+    <hyperlink ref="A502" r:id="rId471" display="https://policja.pl/pol/form/r27556,04022023.html" xr:uid="{7C3D574C-49B0-4C80-9E84-A719D998B9E3}"/>
+    <hyperlink ref="A503" r:id="rId472" display="https://policja.pl/pol/form/r40487655942284,03022023.html" xr:uid="{6B803121-973B-4554-A984-5DA1574D178F}"/>
+    <hyperlink ref="A504" r:id="rId473" display="https://policja.pl/pol/form/r5083481476,02022023.html" xr:uid="{0DDAEDCE-4BC5-42F0-8216-F2EF9E12D39A}"/>
+    <hyperlink ref="A505" r:id="rId474" display="https://policja.pl/pol/form/r30384608499,01012023.html" xr:uid="{6436F69E-BBB2-47B8-BC39-F167E11A7804}"/>
+    <hyperlink ref="A506" r:id="rId475" display="https://policja.pl/pol/form/r650922,31012023.html" xr:uid="{95B79289-6D1B-4FBE-BA61-91AA9A65F3DC}"/>
+    <hyperlink ref="A507" r:id="rId476" display="https://policja.pl/pol/form/r3480939722506,30012023.html" xr:uid="{9C7C574A-5451-4AD8-BB00-0F629A0FF125}"/>
+    <hyperlink ref="A508" r:id="rId477" display="https://policja.pl/pol/form/r505050386235,29012023.html" xr:uid="{82033FD7-CA60-4D49-9AE8-9BCDA70EA5BC}"/>
+    <hyperlink ref="A509" r:id="rId478" display="https://policja.pl/pol/form/r39731,28012023.html" xr:uid="{DC27924F-B556-464D-AAB9-CABAE11FA4AF}"/>
+    <hyperlink ref="A510" r:id="rId479" display="https://policja.pl/pol/form/r5891271583,27012023.html" xr:uid="{742DDB36-FCAA-42C5-877F-714FA06250F8}"/>
+    <hyperlink ref="A511" r:id="rId480" display="https://policja.pl/pol/form/r57096613607,26012023.html" xr:uid="{1648FBD2-9634-4EC5-AFB9-0C82F7EE8F3F}"/>
+    <hyperlink ref="A512" r:id="rId481" display="https://policja.pl/pol/form/r561326291811,25012023.html" xr:uid="{DB49B663-04A3-4ECE-A10F-0A81E01F0663}"/>
+    <hyperlink ref="A513" r:id="rId482" display="https://policja.pl/pol/form/r9629795438375,240120223.html" xr:uid="{090A32D5-2DE4-44E1-A9AE-8D6AC69EAEA9}"/>
+    <hyperlink ref="A514" r:id="rId483" display="https://policja.pl/pol/form/r92630205069,23012023.html" xr:uid="{0C934555-6F45-4DA8-98E9-270275BF70D8}"/>
+    <hyperlink ref="A515" r:id="rId484" display="https://policja.pl/pol/form/r28755,22012023.html" xr:uid="{5B1BADAC-B2BF-4E7D-AAFE-D775FDA557AD}"/>
+    <hyperlink ref="A516" r:id="rId485" display="https://policja.pl/pol/form/r7407794894,21012023.html" xr:uid="{E3C13DDC-4CE9-4745-9F1A-321AD1EC52EE}"/>
+    <hyperlink ref="A517" r:id="rId486" display="https://policja.pl/pol/form/r8133938,20012023.html" xr:uid="{A06A537C-FB46-4EA3-9E3A-CC8B7972E5A9}"/>
+    <hyperlink ref="A518" r:id="rId487" display="https://policja.pl/pol/form/r73737222610,19012023.html" xr:uid="{CCE5CF32-0D99-4824-8104-EB7E979CB542}"/>
+    <hyperlink ref="A519" r:id="rId488" display="https://policja.pl/pol/form/r837828039833,18012023.html" xr:uid="{600E1868-E956-456C-808A-E5DF45783758}"/>
+    <hyperlink ref="A520" r:id="rId489" display="https://policja.pl/pol/form/r72361615128952,17012023.html" xr:uid="{264AED2E-3387-4FAA-9EF6-018DBA523608}"/>
+    <hyperlink ref="A521" r:id="rId490" display="https://policja.pl/pol/form/r86400,16012023.html" xr:uid="{048ADC42-78B4-487F-8062-AF61A008A935}"/>
+    <hyperlink ref="A522" r:id="rId491" display="https://policja.pl/pol/form/r50306112024,15012023.html" xr:uid="{A964D14C-E24B-47BB-AE3D-CDF86C0DBBF0}"/>
+    <hyperlink ref="A523" r:id="rId492" display="https://policja.pl/pol/form/r17937,14012023.html" xr:uid="{F548C07F-2544-4D97-A866-A1A7D55F0A2E}"/>
+    <hyperlink ref="A524" r:id="rId493" display="https://policja.pl/pol/form/r55483766,13012023.html" xr:uid="{F6944113-A793-4871-B92F-5B79445007AB}"/>
+    <hyperlink ref="A525" r:id="rId494" display="https://policja.pl/pol/form/r6483897798923,12012023.html" xr:uid="{B99C476E-1299-49E3-980D-08335BDA98FD}"/>
+    <hyperlink ref="A526" r:id="rId495" display="https://policja.pl/pol/form/r66299253,11012023.html" xr:uid="{09C4F9B7-104A-4A54-91DD-02175EA15818}"/>
+    <hyperlink ref="A527" r:id="rId496" display="https://policja.pl/pol/form/r983897173,10012023.html" xr:uid="{CA4FFE7A-452D-49D2-9163-906BCD5BD2E7}"/>
+    <hyperlink ref="A528" r:id="rId497" display="https://policja.pl/pol/form/r39988,09012023.html" xr:uid="{2CE08C68-8F14-4591-B661-6F9EDB468916}"/>
+    <hyperlink ref="A529" r:id="rId498" display="https://policja.pl/pol/form/r574650,08012023.html" xr:uid="{7926315F-17CC-44E1-A979-2F8A7097ED96}"/>
+    <hyperlink ref="A530" r:id="rId499" display="https://policja.pl/pol/form/r7620738491,07012023.html" xr:uid="{F6F37659-06C9-46CD-A498-DC85903F3971}"/>
+    <hyperlink ref="A531" r:id="rId500" display="https://policja.pl/pol/form/r1766322,06012023.html" xr:uid="{1180F87D-41B5-42B3-808C-0EA42D35687C}"/>
+    <hyperlink ref="A532" r:id="rId501" display="https://policja.pl/pol/form/r469215967,05012023.html" xr:uid="{0D18C2A3-B55C-4E89-B261-924451E7492F}"/>
+    <hyperlink ref="A533" r:id="rId502" display="https://policja.pl/pol/form/r68354132026,04012023.html" xr:uid="{32541F46-ED63-4974-811D-F22AE4BDA4B0}"/>
+    <hyperlink ref="A534" r:id="rId503" display="https://policja.pl/pol/form/r53853615,03012023.html" xr:uid="{D2124FB3-89D3-4B60-B067-8B6D2AEF39AA}"/>
+    <hyperlink ref="A535" r:id="rId504" display="https://policja.pl/pol/form/r87385,02012023.html" xr:uid="{1BE7ECB9-2885-436F-A618-87FB5656D811}"/>
+    <hyperlink ref="A536" r:id="rId505" display="https://policja.pl/pol/form/r609236293187,01012023.html" xr:uid="{F511C02B-D6DA-4FC9-AB78-1C71F71A786F}"/>
+    <hyperlink ref="A568" r:id="rId506" display="https://policja.pl/pol/form/r955448428,30112022.html" xr:uid="{70FA3BA4-367B-4C5F-96E2-B3401D96EEF4}"/>
+    <hyperlink ref="A569" r:id="rId507" display="https://policja.pl/pol/form/r21076208704,29112022.html" xr:uid="{D16BE6EA-39BE-4A5C-8B83-386F5E89B98F}"/>
+    <hyperlink ref="A570" r:id="rId508" display="https://policja.pl/pol/form/r497724455,28112022.html" xr:uid="{3073DA34-2CEF-4F27-A631-0C9321AC2288}"/>
+    <hyperlink ref="A571" r:id="rId509" display="https://policja.pl/pol/form/r7509907645,27112022.html" xr:uid="{2D93F993-1FB9-4CF1-BC42-5131C76049F2}"/>
+    <hyperlink ref="A572" r:id="rId510" display="https://policja.pl/pol/form/r48186444944,26112022.html" xr:uid="{99B5EF69-2080-4A33-B199-DA51EF230669}"/>
+    <hyperlink ref="A573" r:id="rId511" display="https://policja.pl/pol/form/r65102561,25112022.html" xr:uid="{025A6260-2233-410A-A7E6-830EF6BF5E52}"/>
+    <hyperlink ref="A574" r:id="rId512" display="https://policja.pl/pol/form/r935555989,24112022.html" xr:uid="{1012B46C-81FD-48BD-959C-54E50FDAA47D}"/>
+    <hyperlink ref="A575" r:id="rId513" display="https://policja.pl/pol/form/r6689556785554,23112022.html" xr:uid="{061EC53A-A2B8-4E6D-9E03-9F4101357E00}"/>
+    <hyperlink ref="A576" r:id="rId514" display="https://policja.pl/pol/form/r720918625,22112022.html" xr:uid="{638EA485-7665-42FF-BE6C-BBACD98D7623}"/>
+    <hyperlink ref="A577" r:id="rId515" display="https://policja.pl/pol/form/r34213975947,21112022.html" xr:uid="{8F510A91-405E-4A60-95DD-2D3D7A372B96}"/>
+    <hyperlink ref="A578" r:id="rId516" display="https://policja.pl/pol/form/r9845294,20112022.html" xr:uid="{606404F1-15DF-4E34-9183-87255644C72F}"/>
+    <hyperlink ref="A579" r:id="rId517" display="https://policja.pl/pol/form/r53717,19112022.html" xr:uid="{1A93068F-AE0F-4BB1-BAF7-89A8B58A2106}"/>
+    <hyperlink ref="A580" r:id="rId518" display="https://policja.pl/pol/form/r61503337084,18112022.html" xr:uid="{2ECBCBAE-D5CB-42DB-B5E3-6B7F990FA5E5}"/>
+    <hyperlink ref="A581" r:id="rId519" display="https://policja.pl/pol/form/r138282444,17112022.html" xr:uid="{B87D9EF7-7DB6-49B5-8CE9-B3D9939CE7E9}"/>
+    <hyperlink ref="A582" r:id="rId520" display="https://policja.pl/pol/form/r423697289,16112022.html" xr:uid="{96A400D6-4CF0-4341-9F77-2E593285D401}"/>
+    <hyperlink ref="A583" r:id="rId521" display="https://policja.pl/pol/form/r972068652231,15112022.html" xr:uid="{D1B1725A-C2F7-47C4-81AD-D4CB1A1871DB}"/>
+    <hyperlink ref="A584" r:id="rId522" display="https://policja.pl/pol/form/r83393436,14112022.html" xr:uid="{36C2500F-F360-4C79-A587-67D529B80163}"/>
+    <hyperlink ref="A585" r:id="rId523" display="https://policja.pl/pol/form/r2620559431,13112022.html" xr:uid="{5F90824C-79A5-4993-A50B-0A3757211C0F}"/>
+    <hyperlink ref="A586" r:id="rId524" display="https://policja.pl/pol/form/r7122593,12112022.html" xr:uid="{57AEB162-681A-449E-8A9A-3FC2BD04713F}"/>
+    <hyperlink ref="A587" r:id="rId525" display="https://policja.pl/pol/form/r751391316063,11112022.html" xr:uid="{ADA6A1DE-519F-40A8-AE5F-8321731CFCA4}"/>
+    <hyperlink ref="A588" r:id="rId526" display="https://policja.pl/pol/form/r88317325614636,10112022.html" xr:uid="{2FD724EB-F9D4-424F-AC4F-A38464B730D0}"/>
+    <hyperlink ref="A589" r:id="rId527" display="https://policja.pl/pol/form/r87633102556943,09112022.html" xr:uid="{9C9F71BB-DF6D-45AE-8BC1-E883AF937DAB}"/>
+    <hyperlink ref="A590" r:id="rId528" display="https://policja.pl/pol/form/r57622132768425,08112022.html" xr:uid="{7F42D2A0-261E-4069-B400-DFC8E13E2D83}"/>
+    <hyperlink ref="A591" r:id="rId529" display="https://policja.pl/pol/form/r16873570,07112022.html" xr:uid="{DC012B1C-3901-4D20-9316-40C9C6648754}"/>
+    <hyperlink ref="A592" r:id="rId530" display="https://policja.pl/pol/form/r6572039666634,06112022.html" xr:uid="{A2B854AE-7613-43F8-9B50-F79C1EEA998F}"/>
+    <hyperlink ref="A593" r:id="rId531" display="https://policja.pl/pol/form/r949444532,05112022.html" xr:uid="{BCB0928D-5E79-45E7-92C5-2A586E1FE419}"/>
+    <hyperlink ref="A594" r:id="rId532" display="https://policja.pl/pol/form/r706122123600,04112022.html" xr:uid="{3FD40C87-BCCB-469E-86CA-8EE0109449F1}"/>
+    <hyperlink ref="A595" r:id="rId533" display="https://policja.pl/pol/form/r48574,03112022.html" xr:uid="{B92018E4-2BC4-4607-A39D-D00BB5B6009C}"/>
+    <hyperlink ref="A596" r:id="rId534" display="https://policja.pl/pol/form/r94084344295377,02112022.html" xr:uid="{C87BA22F-DEBD-4996-811C-18F88339EE9B}"/>
+    <hyperlink ref="A597" r:id="rId535" display="https://policja.pl/pol/form/r403649146,01112022.html" xr:uid="{A9F71BE9-DB15-432C-801A-DB90026C7A89}"/>
+    <hyperlink ref="A598" r:id="rId536" display="https://policja.pl/pol/form/r869547299,31102022.html" xr:uid="{3B0EE0F4-51BB-4B48-9067-F85F1087EB98}"/>
+    <hyperlink ref="A599" r:id="rId537" display="https://policja.pl/pol/form/r33814773019412,30102022.html" xr:uid="{63FAB712-D48D-4E76-B65C-A863CED83F86}"/>
+    <hyperlink ref="A600" r:id="rId538" display="https://policja.pl/pol/form/r825573678906,29102022.html" xr:uid="{50EF5829-8F86-4122-8786-0F9D4B72C230}"/>
+    <hyperlink ref="A601" r:id="rId539" display="https://policja.pl/pol/form/r32745,28102022.html" xr:uid="{C88D494F-7AB2-452C-9A95-1805740754A6}"/>
+    <hyperlink ref="A602" r:id="rId540" display="https://policja.pl/pol/form/r255138400,27102022.html" xr:uid="{8F8E6F7B-636C-4EEB-9420-4A437E3AE634}"/>
+    <hyperlink ref="A603" r:id="rId541" display="https://policja.pl/pol/form/r9746397817,26102022.html" xr:uid="{13721D00-A63B-448B-859A-11E976E02662}"/>
+    <hyperlink ref="A604" r:id="rId542" display="https://policja.pl/pol/form/r213622,25102022.html" xr:uid="{0E1FDA63-3E5E-4F9A-BF87-42430B8D16AA}"/>
+    <hyperlink ref="A605" r:id="rId543" display="https://policja.pl/pol/form/r92104325692547,24102022.html" xr:uid="{4AEFBFC3-CECF-4F86-9F5E-78FFA1331B26}"/>
+    <hyperlink ref="A606" r:id="rId544" display="https://policja.pl/pol/form/r6743395,23102022.html" xr:uid="{F9D76E7D-59DF-444D-94C6-12247E380870}"/>
+    <hyperlink ref="A607" r:id="rId545" display="https://policja.pl/pol/form/r9900042514,22102022.html" xr:uid="{C5549E6F-5B97-402C-9A3C-607E66C74F9D}"/>
+    <hyperlink ref="A608" r:id="rId546" display="https://policja.pl/pol/form/r680753618,21102022.html" xr:uid="{CFEC6533-8A64-46C6-80AA-7E212BC28709}"/>
+    <hyperlink ref="A609" r:id="rId547" display="https://policja.pl/pol/form/r64170747839406,20102022.html" xr:uid="{18AA79CD-F3FE-435A-87A4-057536732AF6}"/>
+    <hyperlink ref="A610" r:id="rId548" display="https://policja.pl/pol/form/r8206999,19102022.html" xr:uid="{147FBCED-0DEE-4CF0-8B15-C16F55A1487D}"/>
+    <hyperlink ref="A611" r:id="rId549" display="https://policja.pl/pol/form/r78708493695642,18102022.html" xr:uid="{E497DB2F-88AC-4716-A782-4E63A2EC71C4}"/>
+    <hyperlink ref="A612" r:id="rId550" display="https://policja.pl/pol/form/r8747341,17102022.html" xr:uid="{DCF691A6-630D-4ACD-8102-19955CC35FCF}"/>
+    <hyperlink ref="A613" r:id="rId551" display="https://policja.pl/pol/form/r853104460,16102022.html" xr:uid="{DF01018D-3E2E-4457-9BAA-B85B7A30BB61}"/>
+    <hyperlink ref="A614" r:id="rId552" display="https://policja.pl/pol/form/r293154,15102022.html" xr:uid="{5ED39235-E1C8-4001-B90D-97FE568082AA}"/>
+    <hyperlink ref="A615" r:id="rId553" display="https://policja.pl/pol/form/r6409332,14102022.html" xr:uid="{BF6AFC2B-D3A5-4C96-9A99-702802318540}"/>
+    <hyperlink ref="A616" r:id="rId554" display="https://policja.pl/pol/form/r69353247,13102022.html" xr:uid="{80937BF6-B559-43B8-8ED5-57A26143CB57}"/>
+    <hyperlink ref="A617" r:id="rId555" display="https://policja.pl/pol/form/r435740,12102022.html" xr:uid="{B2B00C71-6CC8-44BC-A2B7-CA99990BD973}"/>
+    <hyperlink ref="A618" r:id="rId556" display="https://policja.pl/pol/form/r75052667814,11102022.html" xr:uid="{8FDCD262-860A-4EF3-88BC-E9A6129A01C5}"/>
+    <hyperlink ref="A619" r:id="rId557" display="https://policja.pl/pol/form/r422678341540,10102022.html" xr:uid="{B0F6CF5D-4067-4CC4-BF83-C31E3DB21AA1}"/>
+    <hyperlink ref="A620" r:id="rId558" display="https://policja.pl/pol/form/r57911872,09102022.html" xr:uid="{660D8D8C-6700-46CA-9CDB-F07D69E940CF}"/>
+    <hyperlink ref="A621" r:id="rId559" display="https://policja.pl/pol/form/r82387915,08102022.html" xr:uid="{19CCCCFD-5947-4145-A926-04B4F2A44A4F}"/>
+    <hyperlink ref="A622" r:id="rId560" display="https://policja.pl/pol/form/r190714,07102022.html" xr:uid="{CDEFFC05-EDB8-4376-BE47-08AA0C42BA64}"/>
+    <hyperlink ref="A623" r:id="rId561" display="https://policja.pl/pol/form/r53176554134382,06102022.html" xr:uid="{56AF45FC-2AF5-42D0-9298-4EDDE6A0DE94}"/>
+    <hyperlink ref="A624" r:id="rId562" display="https://policja.pl/pol/form/r3163370,05102022.html" xr:uid="{E498A6B4-D79B-4425-88E2-58C1377BD9D7}"/>
+    <hyperlink ref="A625" r:id="rId563" display="https://policja.pl/pol/form/r75298,04102022.html" xr:uid="{C0E372C6-8622-40BF-A353-107107BA4067}"/>
+    <hyperlink ref="A626" r:id="rId564" display="https://policja.pl/pol/form/r17755,03102022.html" xr:uid="{A743053F-F305-47C7-A24A-B895250E11C7}"/>
+    <hyperlink ref="A627" r:id="rId565" display="https://policja.pl/pol/form/r58626759,02102022.html" xr:uid="{B669B971-2C56-492C-A957-3DB0809D8C1F}"/>
+    <hyperlink ref="A628" r:id="rId566" display="https://policja.pl/pol/form/r7693595,01102022.html" xr:uid="{EADDEDF2-C278-4077-95DA-3162A7A9D2C6}"/>
+    <hyperlink ref="A629" r:id="rId567" display="https://policja.pl/pol/form/r23486948113,30092022.html" xr:uid="{34482461-D0C5-4657-9D1D-47B51DBBED37}"/>
+    <hyperlink ref="A630" r:id="rId568" display="https://policja.pl/pol/form/r514726889445,29092022.html" xr:uid="{11A61DDF-1204-4616-A941-F7536840819E}"/>
+    <hyperlink ref="A631" r:id="rId569" display="https://policja.pl/pol/form/r922505171,28092022.html" xr:uid="{F8D79D4C-3DB9-45C6-8B9F-24137652D06F}"/>
+    <hyperlink ref="A632" r:id="rId570" display="https://policja.pl/pol/form/r430531285,27092022.html" xr:uid="{46A76F4B-993C-48DE-ABB6-C2E5B48D8A5B}"/>
+    <hyperlink ref="A633" r:id="rId571" display="https://policja.pl/pol/form/r6728423232070,26092022.html" xr:uid="{E3F2C8AE-F4C3-4341-AEE8-0B72EBB33135}"/>
+    <hyperlink ref="A634" r:id="rId572" display="https://policja.pl/pol/form/r1065215714,25092022.html" xr:uid="{75E0690D-F4B7-4331-BAE2-AE251550EC8C}"/>
+    <hyperlink ref="A635" r:id="rId573" display="https://policja.pl/pol/form/r20520463003331,24092022.html" xr:uid="{2C5CFFF6-6779-4FDF-AFE1-6ECFF235295B}"/>
+    <hyperlink ref="A636" r:id="rId574" display="https://policja.pl/pol/form/r12181,23092022.html" xr:uid="{8F358677-2263-4C7F-9F49-ADA41D3B6C1F}"/>
+    <hyperlink ref="A637" r:id="rId575" display="https://policja.pl/pol/form/r6529803,22092022.html" xr:uid="{B6FED0C7-574C-4B6A-81AE-C699133A739F}"/>
+    <hyperlink ref="A638" r:id="rId576" display="https://policja.pl/pol/form/r35613123045214,21092022.html" xr:uid="{B5FAF6BF-06A7-4973-BF54-D763BCE45DD5}"/>
+    <hyperlink ref="A639" r:id="rId577" display="https://policja.pl/pol/form/r5850499323,20092022.html" xr:uid="{11748332-DB25-4422-8381-83756FC0444A}"/>
+    <hyperlink ref="A640" r:id="rId578" display="https://policja.pl/pol/form/r6226232,19092022.html" xr:uid="{3657FE3D-5636-479E-8D0A-C70A8B461EEA}"/>
+    <hyperlink ref="A641" r:id="rId579" display="https://policja.pl/pol/form/r74887323,18092022.html" xr:uid="{B376D087-A967-4D84-BFF2-1B06DDC7B6C5}"/>
+    <hyperlink ref="A642" r:id="rId580" display="https://policja.pl/pol/form/r3079517763,17092022.html" xr:uid="{C164B690-5CB0-4E9F-8BF2-32EFE20F7678}"/>
+    <hyperlink ref="A643" r:id="rId581" display="https://policja.pl/pol/form/r3110804603530,16092022.html" xr:uid="{19761AFD-5864-46A1-BEC3-9F2956E0F8A1}"/>
+    <hyperlink ref="A644" r:id="rId582" display="https://policja.pl/pol/form/r961451052,15092022.html" xr:uid="{DE48DF8B-20B1-474A-A684-8210AD2B2646}"/>
+    <hyperlink ref="A645" r:id="rId583" display="https://policja.pl/pol/form/r72708101576,14092022.html" xr:uid="{343982B8-2403-4B93-9345-9392B22B0BA6}"/>
+    <hyperlink ref="A646" r:id="rId584" display="https://policja.pl/pol/form/r7249497561,13092022.html" xr:uid="{4E3A722D-9FE3-4188-BE33-A5A46E987F5C}"/>
+    <hyperlink ref="A647" r:id="rId585" display="https://policja.pl/pol/form/r787913,12092022.html" xr:uid="{273B06C6-13CA-4F45-91B5-95E277609DE8}"/>
+    <hyperlink ref="A648" r:id="rId586" display="https://policja.pl/pol/form/r8311484,11092022.html" xr:uid="{4FC50741-7B5A-4EC1-B83C-7F3051832E0A}"/>
+    <hyperlink ref="A649" r:id="rId587" display="https://policja.pl/pol/form/r91335,10092022.html" xr:uid="{05DC4CF1-2505-477C-822F-99E58058277F}"/>
+    <hyperlink ref="A650" r:id="rId588" display="https://policja.pl/pol/form/r762630072598,09092022.html" xr:uid="{D67D3086-9005-4F70-98A4-D5345CA2FBFB}"/>
+    <hyperlink ref="A651" r:id="rId589" display="https://policja.pl/pol/form/r1352900503,08092022.html" xr:uid="{10AD8C17-A958-47C5-B1D3-6CC0032A3350}"/>
+    <hyperlink ref="A652" r:id="rId590" display="https://policja.pl/pol/form/r748718513,07092022.html" xr:uid="{A7F0057B-6042-4A69-B2EA-598126D2ADC1}"/>
+    <hyperlink ref="A653" r:id="rId591" display="https://policja.pl/pol/form/r914859,06092022.html" xr:uid="{0D5AE250-2406-49E7-9AB5-46D167A25A95}"/>
+    <hyperlink ref="A654" r:id="rId592" display="https://policja.pl/pol/form/r323834,05092022.html" xr:uid="{909686C6-4D09-4DEE-8696-F0987B261EC5}"/>
+    <hyperlink ref="A655" r:id="rId593" display="https://policja.pl/pol/form/r516025476,04092022.html" xr:uid="{BF769D21-7813-42E0-B783-33F7A13C7954}"/>
+    <hyperlink ref="A656" r:id="rId594" display="https://policja.pl/pol/form/r54475545,03092022.html" xr:uid="{EE18A8F2-003F-477C-84D1-E7CB4C7DEBF1}"/>
+    <hyperlink ref="A657" r:id="rId595" display="https://policja.pl/pol/form/r6620631011961,02092022.html" xr:uid="{28735D1B-C534-4A2F-A306-8C1FE2FCAB0B}"/>
+    <hyperlink ref="A658" r:id="rId596" display="https://policja.pl/pol/form/r827288,01092022.html" xr:uid="{BC65489E-F599-4E14-96BC-FF77535C37D5}"/>
+    <hyperlink ref="A659" r:id="rId597" display="https://policja.pl/pol/form/r561113012,31082022.html" xr:uid="{5524DD1E-1CE8-4195-AADF-A358D8C114DD}"/>
+    <hyperlink ref="A660" r:id="rId598" display="https://policja.pl/pol/form/r83350511889718,30082022.html" xr:uid="{0BE83385-4406-4D33-8283-2595DB4BF255}"/>
+    <hyperlink ref="A661" r:id="rId599" display="https://policja.pl/pol/form/r94956221199085,29082022.html" xr:uid="{3787EE48-9ABF-4874-A64D-109B19D3F603}"/>
+    <hyperlink ref="A662" r:id="rId600" display="https://policja.pl/pol/form/r5250074209949,28082022.html" xr:uid="{0026AA38-D9E8-40E8-B4A0-290BCA8BC50D}"/>
+    <hyperlink ref="A663" r:id="rId601" display="https://policja.pl/pol/form/r4402246273420,27082022.html" xr:uid="{079C9D8F-8A64-421E-951D-7729B4C93A47}"/>
+    <hyperlink ref="A664" r:id="rId602" display="https://policja.pl/pol/form/r53161,26082022.html" xr:uid="{718BBDE9-426A-4287-999F-B82A8E44E456}"/>
+    <hyperlink ref="A665" r:id="rId603" display="https://policja.pl/pol/form/r61636703,25082022.html" xr:uid="{64E77E76-3190-4923-8DCF-D953ED4AA84B}"/>
+    <hyperlink ref="A666" r:id="rId604" display="https://policja.pl/pol/form/r705747766672,24082022.html" xr:uid="{67046A50-1F20-4EBE-A92C-5FFD0790D02E}"/>
+    <hyperlink ref="A667" r:id="rId605" display="https://policja.pl/pol/form/r6268187725550,23082022.html" xr:uid="{8AB0019F-7957-4229-84EF-C2546767DACD}"/>
+    <hyperlink ref="A668" r:id="rId606" display="https://policja.pl/pol/form/r79860951745404,22082022.html" xr:uid="{9746074D-D462-48AE-9E49-E4A2F8480B84}"/>
+    <hyperlink ref="A669" r:id="rId607" display="https://policja.pl/pol/form/r56682977059,21082022.html" xr:uid="{D2C17FE1-7CDF-4CDE-961C-18059F123FA2}"/>
+    <hyperlink ref="A670" r:id="rId608" display="https://policja.pl/pol/form/r773291,20082022.html" xr:uid="{3EB35C2F-5FF1-4B71-AF52-3A4D08B07A0D}"/>
+    <hyperlink ref="A671" r:id="rId609" display="https://policja.pl/pol/form/r676442,19082022.html" xr:uid="{017C74CC-E0DD-497F-BB14-96D9D2D1B094}"/>
+    <hyperlink ref="A672" r:id="rId610" display="https://policja.pl/pol/form/r33316674065,18082022.html" xr:uid="{D8A48631-F5E4-405C-B34F-BBD545738053}"/>
+    <hyperlink ref="A673" r:id="rId611" display="https://policja.pl/pol/form/r34430423,17082022.html" xr:uid="{34A35B12-EE8C-4A52-B228-27355BF5A528}"/>
+    <hyperlink ref="A674" r:id="rId612" display="https://policja.pl/pol/form/r8152785735,16082022.html" xr:uid="{C1319072-944E-4DE2-BF1C-9041A73DF64D}"/>
+    <hyperlink ref="A675" r:id="rId613" display="https://policja.pl/pol/form/r28162832525543,15082022.html" xr:uid="{0D1F043D-A3D5-4C52-8C1D-412CEA9AFB5F}"/>
+    <hyperlink ref="A676" r:id="rId614" display="https://policja.pl/pol/form/r7194380,14082022.html" xr:uid="{C9BEE757-C1B4-4193-BE0C-2459DB20C081}"/>
+    <hyperlink ref="A677" r:id="rId615" display="https://policja.pl/pol/form/r420787222,13082022.html" xr:uid="{D9EE00D4-0767-468F-A337-0F5FA186CCC4}"/>
+    <hyperlink ref="A678" r:id="rId616" display="https://policja.pl/pol/form/r96380892170693,12082022.html" xr:uid="{6FC03F15-E7E5-4733-8B51-2FBF7A7BCABD}"/>
+    <hyperlink ref="A679" r:id="rId617" display="https://policja.pl/pol/form/r3596089061,11082022.html" xr:uid="{0ABD1FB1-11DA-489E-9AE8-A992FD441132}"/>
+    <hyperlink ref="A680" r:id="rId618" display="https://policja.pl/pol/form/r353603653980,10082022.html" xr:uid="{D99B048F-9A99-4AF5-870E-C5CA64B221A2}"/>
+    <hyperlink ref="A681" r:id="rId619" display="https://policja.pl/pol/form/r1689177791,09082022.html" xr:uid="{97948CA4-74D3-468F-A3F2-A90FF84CA3AE}"/>
+    <hyperlink ref="A682" r:id="rId620" display="https://policja.pl/pol/form/r6287132813,08082022.html" xr:uid="{0E338EE8-6820-4578-8027-DC295E32D4E5}"/>
+    <hyperlink ref="A683" r:id="rId621" display="https://policja.pl/pol/form/r88737895945,07082022.html" xr:uid="{DB708A0F-C5B0-4A68-BD76-0100ABD193FB}"/>
+    <hyperlink ref="A684" r:id="rId622" display="https://policja.pl/pol/form/r45947526142,06082022.html" xr:uid="{8640A8C1-9B01-4C26-8E12-3939C9ECF639}"/>
+    <hyperlink ref="A685" r:id="rId623" display="https://policja.pl/pol/form/r4887361749,05082022.html" xr:uid="{ADF5B181-35F2-4C71-A9C6-9936FBB52809}"/>
+    <hyperlink ref="A686" r:id="rId624" display="https://policja.pl/pol/form/r9271169,04082022.html" xr:uid="{0DCFBF0D-202D-4E8A-AC54-30A4DA76948D}"/>
+    <hyperlink ref="A687" r:id="rId625" display="https://policja.pl/pol/form/r359321762,03082022.html" xr:uid="{9EF35FA4-34FC-4652-BC76-A8D92B3D4653}"/>
+    <hyperlink ref="A688" r:id="rId626" display="https://policja.pl/pol/form/r26774856974090,02082022.html" xr:uid="{4E37DC5A-90A2-49E3-ADBE-1A00962AAD00}"/>
+    <hyperlink ref="A689" r:id="rId627" display="https://policja.pl/pol/form/r746028567755,01082022.html" xr:uid="{533F8153-98F5-4D9B-9999-008D1A9551DF}"/>
+    <hyperlink ref="A690" r:id="rId628" display="https://policja.pl/pol/form/r873010,31072022.html" xr:uid="{B686BB45-4469-4957-8351-3501BE07570D}"/>
+    <hyperlink ref="A691" r:id="rId629" display="https://policja.pl/pol/form/r90342293624335,30072022.html" xr:uid="{AD26EBA0-B02A-4808-B319-1C855ED7229F}"/>
+    <hyperlink ref="A692" r:id="rId630" display="https://policja.pl/pol/form/r4580037649,29072022.html" xr:uid="{356DAC26-5D51-4AF5-8D35-9C337412AAA1}"/>
+    <hyperlink ref="A693" r:id="rId631" display="https://policja.pl/pol/form/r732353360950,28072022.html" xr:uid="{5CA3ED6B-3B5B-47E4-9EAF-E48D3C6BDED6}"/>
+    <hyperlink ref="A694" r:id="rId632" display="https://policja.pl/pol/form/r8870342506357,27072022.html" xr:uid="{E4C177C0-7C22-4877-BB35-9B0570DD9006}"/>
+    <hyperlink ref="A695" r:id="rId633" display="https://policja.pl/pol/form/r392665,26072022.html" xr:uid="{60CADB3E-043D-42CF-9521-9598663ECDE8}"/>
+    <hyperlink ref="A696" r:id="rId634" display="https://policja.pl/pol/form/r5333560249,25072022.html" xr:uid="{63829E33-C8A0-4432-A637-75F424F9A901}"/>
+    <hyperlink ref="A697" r:id="rId635" display="https://policja.pl/pol/form/r5768008176621,24072022.html" xr:uid="{764D11D8-0F1D-4C0F-B794-7F1BA06A1548}"/>
+    <hyperlink ref="A698" r:id="rId636" display="https://policja.pl/pol/form/r80504745477172,23072022.html" xr:uid="{FA9D09BE-44FA-44E9-A107-D284685AC547}"/>
+    <hyperlink ref="A699" r:id="rId637" display="https://policja.pl/pol/form/r1067845926,22072022.html" xr:uid="{8770F180-C495-45F1-9D42-F33B6BC31ABF}"/>
+    <hyperlink ref="A700" r:id="rId638" display="https://policja.pl/pol/form/r696214099,21072022.html" xr:uid="{64EB0079-36DC-42CA-9AD0-FD87A86F3E16}"/>
+    <hyperlink ref="A701" r:id="rId639" display="https://policja.pl/pol/form/r35906,20072022.html" xr:uid="{EDF62E08-50B9-4364-93C3-91049584DD1D}"/>
+    <hyperlink ref="A702" r:id="rId640" display="https://policja.pl/pol/form/r1271715111,19072022.html" xr:uid="{FC059E47-33D8-4933-91A4-51659DEEE897}"/>
+    <hyperlink ref="A703" r:id="rId641" display="https://policja.pl/pol/form/r923040176,18072022.html" xr:uid="{14CA09FE-0801-4B43-B5CA-33EF83EEDB6E}"/>
+    <hyperlink ref="A704" r:id="rId642" display="https://policja.pl/pol/form/r663942,17072022.html" xr:uid="{8EDB5B30-D488-4932-966A-81A34239340F}"/>
+    <hyperlink ref="A705" r:id="rId643" display="https://policja.pl/pol/form/r38466653969376,16072022.html" xr:uid="{FD40CC8F-1726-4A5F-B14E-097335349E66}"/>
+    <hyperlink ref="A706" r:id="rId644" display="https://policja.pl/pol/form/r80862124581,15072022.html" xr:uid="{51365C7F-14E6-4503-A053-28FB9CB19080}"/>
+    <hyperlink ref="A707" r:id="rId645" display="https://policja.pl/pol/form/r76582217560489,14072022.html" xr:uid="{6D27CAEC-F9D4-4D0B-98C7-9F0991AF3F86}"/>
+    <hyperlink ref="A708" r:id="rId646" display="https://policja.pl/pol/form/r138811417,13072022.html" xr:uid="{70185194-FBA5-4D54-ADEC-A5725F9F77C2}"/>
+    <hyperlink ref="A709" r:id="rId647" display="https://policja.pl/pol/form/r844030,12072022.html" xr:uid="{91C1211E-000C-4762-975A-209BA7566D7D}"/>
+    <hyperlink ref="A710" r:id="rId648" display="https://policja.pl/pol/form/r2186817496216,11072022.html" xr:uid="{E2DCD1E4-BAF8-4950-9226-E875599D525E}"/>
+    <hyperlink ref="A711" r:id="rId649" display="https://policja.pl/pol/form/r87427545509340,10072022.html" xr:uid="{5DFCD171-984A-49C3-8839-2E50AE9710D7}"/>
+    <hyperlink ref="A712" r:id="rId650" display="https://policja.pl/pol/form/r192592885682,09072022.html" xr:uid="{DDB9DCCD-8D94-4568-A343-372CC8E0FD79}"/>
+    <hyperlink ref="A713" r:id="rId651" display="https://policja.pl/pol/form/r44593759,08072022.html" xr:uid="{4FD7A57D-F757-4012-8D9F-47858D115E70}"/>
+    <hyperlink ref="A714" r:id="rId652" display="https://policja.pl/pol/form/r877543834,07072022.html" xr:uid="{B9154E82-F46E-4CC4-95E7-DABE1FEF20B3}"/>
+    <hyperlink ref="A715" r:id="rId653" display="https://policja.pl/pol/form/r561956,06072022.html" xr:uid="{F7A610D0-DAF0-4A0C-A7D4-8B5696F9F260}"/>
+    <hyperlink ref="A716" r:id="rId654" display="https://policja.pl/pol/form/r292751,05072022.html" xr:uid="{A9CBA18F-7B69-46E8-86CE-8D4FF0C8D27A}"/>
+    <hyperlink ref="A717" r:id="rId655" display="https://policja.pl/pol/form/r13643634,04072022.html" xr:uid="{CA152D0D-DF2B-4575-A9FD-D3E289C09D2E}"/>
+    <hyperlink ref="A718" r:id="rId656" display="https://policja.pl/pol/form/r632811,03072022.html" xr:uid="{7E05F809-C730-4605-9F8E-4AC25D92A3CE}"/>
+    <hyperlink ref="A719" r:id="rId657" display="https://policja.pl/pol/form/r63364375032,02072022.html" xr:uid="{F4E9C9EF-2A08-469D-8523-7DD75FD21C8D}"/>
+    <hyperlink ref="A720" r:id="rId658" display="https://policja.pl/pol/form/r9843369,01072022.html" xr:uid="{044F681E-B0FB-460D-BE5B-BEFEDAE84E4A}"/>
+    <hyperlink ref="A721" r:id="rId659" display="https://policja.pl/pol/form/r386056,30062022.html" xr:uid="{085BE07B-E00A-4DB0-BEF2-CA5201DB6921}"/>
+    <hyperlink ref="A722" r:id="rId660" display="https://policja.pl/pol/form/r12386,29062022.html" xr:uid="{C682BEC6-01D7-4DB8-8481-4709E095DA01}"/>
+    <hyperlink ref="A723" r:id="rId661" display="https://policja.pl/pol/form/r4949292943750,28062022.html" xr:uid="{9279A183-E31B-4AD2-8E85-27C61E5CC8EC}"/>
+    <hyperlink ref="A724" r:id="rId662" display="https://policja.pl/pol/form/r37272441271040,27062022.html" xr:uid="{136D11FC-E369-4ECF-B89A-4907EDCEC7D6}"/>
+    <hyperlink ref="A725" r:id="rId663" display="https://policja.pl/pol/form/r431440,26062022.html" xr:uid="{74098E51-F098-45F3-AA04-C0771C3054CF}"/>
+    <hyperlink ref="A726" r:id="rId664" display="https://policja.pl/pol/form/r9373933,25062022.html" xr:uid="{D787EA24-4FAD-420B-B10E-B26944DCA980}"/>
+    <hyperlink ref="A727" r:id="rId665" display="https://policja.pl/pol/form/r80549,24062022.html" xr:uid="{F9035D2C-22B7-4DA9-A5C1-9C760F7BA09F}"/>
+    <hyperlink ref="A728" r:id="rId666" display="https://policja.pl/pol/form/r866578,23062022.html" xr:uid="{FE351273-66B9-4741-8A49-2D0D6B99E182}"/>
+    <hyperlink ref="A729" r:id="rId667" display="https://policja.pl/pol/form/r3818684965255,22062022.html" xr:uid="{64E43F2F-5E91-44AB-BCAD-11E9AAFBB9C9}"/>
+    <hyperlink ref="A730" r:id="rId668" display="https://policja.pl/pol/form/r7423141191,21062022.html" xr:uid="{3C423FCA-3DA2-4432-BDA8-181B81DFFD64}"/>
+    <hyperlink ref="A731" r:id="rId669" display="https://policja.pl/pol/form/r921489775,20062022.html" xr:uid="{0559D819-8FCD-4E5E-8F94-3921ED6401E4}"/>
+    <hyperlink ref="A732" r:id="rId670" display="https://policja.pl/pol/form/r101397899017,19062022.html" xr:uid="{D366A85B-7128-4A63-8098-B47F0C85348B}"/>
+    <hyperlink ref="A733" r:id="rId671" display="https://policja.pl/pol/form/r36148944,18062022.html" xr:uid="{110518C7-DC84-4078-9869-61F4908596DD}"/>
+    <hyperlink ref="A734" r:id="rId672" display="https://policja.pl/pol/form/r20962037471,17062022.html" xr:uid="{7997C9E9-17FF-4DD8-91AD-BDFD3E92ECA5}"/>
+    <hyperlink ref="A735" r:id="rId673" display="https://policja.pl/pol/form/r4423969595059,16062022.html" xr:uid="{86398F06-2A24-4325-A017-643B52482A37}"/>
+    <hyperlink ref="A736" r:id="rId674" display="https://policja.pl/pol/form/r524068,15062022.html" xr:uid="{876B3AC5-E101-4DBB-B71E-7DF47FD660BC}"/>
+    <hyperlink ref="A567" r:id="rId675" display="https://policja.pl/pol/form/r6205429916283,01122022.html" xr:uid="{49D7BC90-1CAB-483D-A375-DB71B21DD2D4}"/>
+    <hyperlink ref="A566" r:id="rId676" display="https://policja.pl/pol/form/r5244985968,02122022.html" xr:uid="{275C3809-331A-4BE8-85CD-6F5F9FBEEA3B}"/>
+    <hyperlink ref="A565" r:id="rId677" display="https://policja.pl/pol/form/r38480498760,03122022.html" xr:uid="{06E4E690-16CD-44E1-91F9-B4BCF97928A0}"/>
+    <hyperlink ref="A564" r:id="rId678" display="https://policja.pl/pol/form/r5648148428,04122022.html" xr:uid="{8077A884-7AD2-444E-916B-13CA7421BE15}"/>
+    <hyperlink ref="A563" r:id="rId679" display="https://policja.pl/pol/form/r80095502101,05122022.html" xr:uid="{173AC620-E18B-4C05-A2A2-A20BDFB98CD6}"/>
+    <hyperlink ref="A562" r:id="rId680" display="https://policja.pl/pol/form/r53489,06122022.html" xr:uid="{731FC3F1-1468-4589-8281-45D4331A9461}"/>
+    <hyperlink ref="A561" r:id="rId681" display="https://policja.pl/pol/form/r9543630561,07122022.html" xr:uid="{3025452F-F947-4BF6-A3E6-DF414E2E5DC8}"/>
+    <hyperlink ref="A560" r:id="rId682" display="https://policja.pl/pol/form/r99540962745,08122022.html" xr:uid="{402B4AB2-6A1A-4949-AB91-9A8F12D88BF2}"/>
+    <hyperlink ref="A559" r:id="rId683" display="https://policja.pl/pol/form/r1629800494,09122022.html" xr:uid="{F67CCC72-7D75-4BDC-9C3E-4670880CAA59}"/>
+    <hyperlink ref="A558" r:id="rId684" display="https://policja.pl/pol/form/r73914244874,10122022.html" xr:uid="{B2EC9546-EC06-4292-BA1A-BB60BA9E1558}"/>
+    <hyperlink ref="A557" r:id="rId685" display="https://policja.pl/pol/form/r23205,11122022.html" xr:uid="{337503E0-F47B-4F3B-B742-3CC5BB7D0063}"/>
+    <hyperlink ref="A556" r:id="rId686" display="https://policja.pl/pol/form/r92404,12122022.html" xr:uid="{FB7A6E6C-E2AD-4ED2-A861-7A3F97F7778A}"/>
+    <hyperlink ref="A555" r:id="rId687" display="https://policja.pl/pol/form/r917783859483,13122022.html" xr:uid="{C644809E-4E70-466A-B1F0-449DABB1BBA5}"/>
+    <hyperlink ref="A554" r:id="rId688" display="https://policja.pl/pol/form/r67292,14122022.html" xr:uid="{FF94CCBC-3920-4678-A260-878A23095F6F}"/>
+    <hyperlink ref="A553" r:id="rId689" display="https://policja.pl/pol/form/r51587783423845,15122022.html" xr:uid="{CE9F7165-5490-4E6D-B33A-C4D91436D516}"/>
+    <hyperlink ref="A552" r:id="rId690" display="https://policja.pl/pol/form/r305871309018,16122022.html" xr:uid="{7EBB545D-1EDE-456A-9028-C41DF9ADF17A}"/>
+    <hyperlink ref="A551" r:id="rId691" display="https://policja.pl/pol/form/r45519946,17122022.html" xr:uid="{F09D7E30-91CB-427B-AA11-5FFA5BF94383}"/>
+    <hyperlink ref="A550" r:id="rId692" display="https://policja.pl/pol/form/r797776591663,18122022.html" xr:uid="{C1577183-B164-48A2-88E9-5AC07C3F2DFE}"/>
+    <hyperlink ref="A549" r:id="rId693" display="https://policja.pl/pol/form/r3454714,19122022.html" xr:uid="{42A65135-168A-41C4-95D2-81671DA2D544}"/>
+    <hyperlink ref="A548" r:id="rId694" display="https://policja.pl/pol/form/r7052963,20122022.html" xr:uid="{768F4E53-EBEF-4F16-84B0-91BFA8FA050E}"/>
+    <hyperlink ref="A547" r:id="rId695" display="https://policja.pl/pol/form/r5324434,21122022.html" xr:uid="{2B55CB6D-8237-4F86-B770-8A7C78CB391C}"/>
+    <hyperlink ref="A546" r:id="rId696" display="https://policja.pl/pol/form/r585220,22122022.html" xr:uid="{649DFE7F-C41C-4A27-91EE-58F347A3F8B6}"/>
+    <hyperlink ref="A545" r:id="rId697" display="https://policja.pl/pol/form/r25753804442,23122022.html" xr:uid="{81985336-97F4-41A7-B2D1-CF604858CE3D}"/>
+    <hyperlink ref="A544" r:id="rId698" display="https://policja.pl/pol/form/r674650350,24122022.html" xr:uid="{ADBBBDB9-1A82-40D2-85E6-3CB9CCC348AF}"/>
+    <hyperlink ref="A543" r:id="rId699" display="https://policja.pl/pol/form/r528700,25122022.html" xr:uid="{46CB656D-587F-4C43-B016-5132BE4741A1}"/>
+    <hyperlink ref="A542" r:id="rId700" display="https://policja.pl/pol/form/r31165109,26122022.html" xr:uid="{DE82A9B2-34AD-4C43-9B40-4ADCFAA6BC94}"/>
+    <hyperlink ref="A541" r:id="rId701" display="https://policja.pl/pol/form/r888013314,27122022.html" xr:uid="{8DB9B159-661B-46A5-898E-9B3850B48F2D}"/>
+    <hyperlink ref="A540" r:id="rId702" display="https://policja.pl/pol/form/r31341037922,28122022.html" xr:uid="{B63DF4A0-E283-4825-A70A-6BA5F71BD9AE}"/>
+    <hyperlink ref="A539" r:id="rId703" display="https://policja.pl/pol/form/r66233077730,29122022.html" xr:uid="{3483E5DD-945C-4E02-8B65-9D1A6A9EF2C1}"/>
+    <hyperlink ref="A538" r:id="rId704" display="https://policja.pl/pol/form/r267051,30122022.html" xr:uid="{2638B9E5-D537-446B-A870-735A40237700}"/>
+    <hyperlink ref="A537" r:id="rId705" display="https://policja.pl/pol/form/r665036959,31122022.html" xr:uid="{A1EEF223-A916-41EE-B636-5B8CA558C2EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Car_accidents_Poland.xlsx
+++ b/Car_accidents_Poland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mag sem 3\Time Series Analysis\Project\Car_accidents_in_Poland_Adam_Kozakowski_Katarzyna_Bocian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B44AC31-342C-40CA-BFCE-CDE94DA7AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AA560-A48B-48F8-BBA7-AEC17183019A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="690" windowWidth="14055" windowHeight="13050" xr2:uid="{41578785-AD49-4773-9237-9ACEEC48E3C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41578785-AD49-4773-9237-9ACEEC48E3C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,18 +527,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6CC53F-12D5-46DA-9861-B5D8000FA22D}">
   <dimension ref="A1:H736"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="J442" sqref="J442"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45461</v>
       </c>
@@ -590,7 +590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>45460</v>
       </c>
@@ -616,7 +616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45459</v>
       </c>
@@ -642,7 +642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>45458</v>
       </c>
@@ -668,7 +668,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45457</v>
       </c>
@@ -694,7 +694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>45456</v>
       </c>
@@ -720,7 +720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45455</v>
       </c>
@@ -746,7 +746,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>45454</v>
       </c>
@@ -772,7 +772,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45453</v>
       </c>
@@ -798,7 +798,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>45452</v>
       </c>
@@ -824,7 +824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45451</v>
       </c>
@@ -850,7 +850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>45450</v>
       </c>
@@ -876,7 +876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45449</v>
       </c>
@@ -902,7 +902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>45448</v>
       </c>
@@ -928,7 +928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45447</v>
       </c>
@@ -954,7 +954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45446</v>
       </c>
@@ -980,7 +980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>45445</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45444</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>45443</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45442</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>45441</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45440</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>45439</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45438</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>45437</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45436</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>45435</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>45434</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>45433</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>45432</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>45431</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>45430</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>45429</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>45428</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>45427</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>45426</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>45425</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>45424</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>45423</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>45422</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>45421</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>45420</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>45419</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>45418</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45417</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>45416</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>45415</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>45414</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>45413</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>45412</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>45411</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>45410</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>45409</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>45408</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>45407</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>45406</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>45405</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>45404</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>45403</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>45402</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>45401</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>45400</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>45399</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>45398</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>45397</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>45396</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>45395</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>45394</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>45393</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>45392</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>45391</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>45390</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>45389</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>45388</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>45387</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>45386</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>45385</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>45384</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>45383</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>45382</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>45381</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>45380</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>45379</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>45378</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>45377</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>45376</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>45375</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>45374</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>45373</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>45372</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>45371</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>45370</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>45369</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>45368</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>45367</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>45366</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>45365</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>45364</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>45363</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>45362</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>45361</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>45360</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>45359</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>45358</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>45357</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>45356</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>45355</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>45354</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>45353</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>45352</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>45351</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>45350</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>45349</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>45348</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>45347</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>45346</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>45345</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>45344</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>45343</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>45342</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>45341</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>45340</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>45339</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>45338</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>45337</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>45336</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>45335</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>45334</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>45333</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>45332</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>45331</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>45330</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>45329</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>45328</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>45327</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>45326</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>45325</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>45324</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>45323</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>45322</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>45321</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>45320</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>45319</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>45318</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>45317</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>45316</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>45315</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>45314</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>45313</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>45312</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>45311</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>45310</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>45309</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>45308</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>45307</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>45306</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>45305</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>45304</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>45303</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>45302</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>45301</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>45300</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>45299</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>45298</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>45297</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>45296</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>45295</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>45294</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>45293</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>45292</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>45291</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>45290</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>45289</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>45288</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>45287</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>45286</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>45285</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>45284</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>45283</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>45282</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>45281</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>45280</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>45279</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>45278</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>45277</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>45276</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>45275</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>45274</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>45273</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>45272</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>45271</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>45270</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>45269</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
         <v>45268</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>45267</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>45266</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
         <v>45265</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>45264</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
         <v>45263</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>45262</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
         <v>45261</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>45260</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
         <v>45259</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>45258</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
         <v>45257</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>45256</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
         <v>45255</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>45254</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
         <v>45253</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>45252</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>45251</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
         <v>45250</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>45249</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
         <v>45248</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>45247</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
         <v>45246</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>45245</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
         <v>45244</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>45243</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
         <v>45242</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>45241</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4">
         <v>45240</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>45239</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4">
         <v>45238</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>45237</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>45236</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4">
         <v>45235</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>45234</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
         <v>45233</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>45232</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
         <v>45231</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>45230</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
         <v>45229</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>45228</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
         <v>45227</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>45226</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
         <v>45225</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>45224</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
         <v>45223</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>45222</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>45221</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4">
         <v>45220</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>45219</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4">
         <v>45218</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>45217</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4">
         <v>45216</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>45215</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4">
         <v>45214</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>45213</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4">
         <v>45212</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>45211</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4">
         <v>45210</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>45209</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
         <v>45208</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>45207</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>45206</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="4">
         <v>45205</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>45204</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="4">
         <v>45203</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>45202</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4">
         <v>45201</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>45200</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="4">
         <v>45199</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>45198</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="4">
         <v>45197</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>45196</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="4">
         <v>45195</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>45194</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="4">
         <v>45193</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>45192</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>45191</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="4">
         <v>45190</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>45189</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4">
         <v>45188</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>45187</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="4">
         <v>45186</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>45185</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="4">
         <v>45184</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>45183</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="4">
         <v>45182</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>45181</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="4">
         <v>45180</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>45179</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="4">
         <v>45178</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>45177</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>45176</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="4">
         <v>45175</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>45174</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="4">
         <v>45173</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>45172</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="4">
         <v>45171</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>45170</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="4">
         <v>45169</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>45168</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4">
         <v>45167</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>45166</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="4">
         <v>45165</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>45164</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="4">
         <v>45163</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>45162</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>45161</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="4">
         <v>45160</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>45159</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="4">
         <v>45158</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>45157</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="4">
         <v>45156</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>45155</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="4">
         <v>45154</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>45153</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="4">
         <v>45152</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>45151</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="4">
         <v>45150</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>45149</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="4">
         <v>45148</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>45147</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>45146</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="4">
         <v>45145</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>45144</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="4">
         <v>45143</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>45142</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="4">
         <v>45141</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>45140</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="4">
         <v>45139</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>45138</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="4">
         <v>45137</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>45136</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="4">
         <v>45135</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>45134</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="4">
         <v>45133</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>45132</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>45131</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="4">
         <v>45130</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>45129</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="4">
         <v>45128</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>45127</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="4">
         <v>45126</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>45125</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="4">
         <v>45124</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>45123</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="4">
         <v>45122</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>45121</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="4">
         <v>45120</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>45119</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="4">
         <v>45118</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>45117</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>45116</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="4">
         <v>45115</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>45114</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="4">
         <v>45113</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>45112</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="4">
         <v>45111</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>45110</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="4">
         <v>45109</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>45108</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="4">
         <v>45107</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>45106</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="4">
         <v>45105</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>45104</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="4">
         <v>45103</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>45102</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>45101</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="4">
         <v>45100</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>45099</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="4">
         <v>45098</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>45097</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="4">
         <v>45096</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>45095</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="4">
         <v>45094</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>45093</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="4">
         <v>45092</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>45091</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="4">
         <v>45090</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>45089</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="4">
         <v>45088</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>45087</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>45086</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="4">
         <v>45085</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>45084</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="4">
         <v>45083</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>45082</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="4">
         <v>45081</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>45080</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="4">
         <v>45079</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>45078</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="4">
         <v>45077</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>45076</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" s="4">
         <v>45075</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>45074</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="4">
         <v>45073</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>45072</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>45071</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="4">
         <v>45070</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>45069</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" s="4">
         <v>45068</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>45067</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="4">
         <v>45066</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>45065</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="4">
         <v>45064</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>45063</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" s="4">
         <v>45062</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>45061</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A403" s="4">
         <v>45060</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>45059</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="4">
         <v>45058</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>45057</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>45056</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="4">
         <v>45055</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>45054</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="4">
         <v>45053</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>45052</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="4">
         <v>45051</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>45050</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="4">
         <v>45049</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>45048</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="4">
         <v>45047</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>45046</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A418" s="4">
         <v>45045</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>45044</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A420" s="4">
         <v>45043</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>45042</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>45041</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A423" s="4">
         <v>45040</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>45039</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A425" s="4">
         <v>45038</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>45037</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A427" s="4">
         <v>45036</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>45035</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A429" s="4">
         <v>45034</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>45033</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A431" s="4">
         <v>45032</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>45031</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="4">
         <v>45030</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>45029</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A435" s="4">
         <v>45028</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>45027</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>45026</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A438" s="4">
         <v>45025</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>45024</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A440" s="4">
         <v>45023</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>45022</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A442" s="4">
         <v>45021</v>
       </c>
@@ -12030,9 +12030,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="B443" s="8">
         <v>14174</v>
@@ -12056,7 +12056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A444" s="4">
         <v>45019</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>45018</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A446" s="4">
         <v>45017</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>45016</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="4">
         <v>45015</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>45014</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A450" s="4">
         <v>45013</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>45012</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>45011</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A453" s="4">
         <v>45010</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>45009</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A455" s="4">
         <v>45008</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>45007</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A457" s="4">
         <v>45006</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>45005</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A459" s="4">
         <v>45004</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>45003</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="4">
         <v>45002</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>45001</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A463" s="4">
         <v>45000</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>44999</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A465" s="4">
         <v>44998</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>44997</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>44996</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A468" s="4">
         <v>44995</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>44994</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A470" s="4">
         <v>44993</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>44992</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A472" s="4">
         <v>44991</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>44990</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="4">
         <v>44989</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>44988</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="4">
         <v>44987</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>44986</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A478" s="4">
         <v>44985</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>44984</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="4">
         <v>44983</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>44982</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>44981</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A483" s="4">
         <v>44980</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>44979</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A485" s="4">
         <v>44978</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>44977</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="4">
         <v>44976</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>44975</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="4">
         <v>44974</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>44973</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A491" s="4">
         <v>44972</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>44971</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A493" s="4">
         <v>44970</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>44969</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="4">
         <v>44968</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>44967</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>44966</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A498" s="4">
         <v>44965</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>44964</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="4">
         <v>44963</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>44962</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A502" s="4">
         <v>44961</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>44960</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A504" s="4">
         <v>44959</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>44958</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A506" s="4">
         <v>44957</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>44956</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A508" s="4">
         <v>44955</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>44954</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A510" s="4">
         <v>44953</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>44952</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <v>44951</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A513" s="4">
         <v>44950</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <v>44949</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A515" s="4">
         <v>44948</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <v>44947</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A517" s="4">
         <v>44946</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <v>44945</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A519" s="4">
         <v>44944</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <v>44943</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="4">
         <v>44942</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A522" s="2">
         <v>44941</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A523" s="4">
         <v>44940</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <v>44939</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A525" s="4">
         <v>44938</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <v>44937</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <v>44936</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A528" s="4">
         <v>44935</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <v>44934</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="4">
         <v>44933</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <v>44932</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A532" s="4">
         <v>44931</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <v>44930</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A534" s="4">
         <v>44929</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <v>44928</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A536" s="4">
         <v>44927</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <v>44926</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A538" s="4">
         <v>44925</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <v>44924</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A540" s="4">
         <v>44923</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <v>44922</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A542" s="2">
         <v>44921</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A543" s="4">
         <v>44920</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <v>44919</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A545" s="4">
         <v>44918</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A546" s="2">
         <v>44917</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A547" s="4">
         <v>44916</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A548" s="2">
         <v>44915</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A549" s="4">
         <v>44914</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A550" s="2">
         <v>44913</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A551" s="4">
         <v>44912</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A552" s="2">
         <v>44911</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A553" s="4">
         <v>44910</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A554" s="2">
         <v>44909</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A555" s="4">
         <v>44908</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A556" s="2">
         <v>44907</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A557" s="2">
         <v>44906</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A558" s="4">
         <v>44905</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A559" s="2">
         <v>44904</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="4">
         <v>44903</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <v>44902</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A562" s="4">
         <v>44901</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <v>44900</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A564" s="4">
         <v>44899</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <v>44898</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A566" s="4">
         <v>44897</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <v>44896</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A568" s="4">
         <v>44895</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <v>44894</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A570" s="4">
         <v>44893</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <v>44892</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <v>44891</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A573" s="4">
         <v>44890</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <v>44889</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A575" s="4">
         <v>44888</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A576" s="2">
         <v>44887</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A577" s="4">
         <v>44886</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A578" s="2">
         <v>44885</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A579" s="4">
         <v>44884</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A580" s="2">
         <v>44883</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A581" s="4">
         <v>44882</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A582" s="2">
         <v>44881</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A583" s="4">
         <v>44880</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2">
         <v>44879</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A585" s="4">
         <v>44878</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A586" s="2">
         <v>44877</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A587" s="2">
         <v>44876</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A588" s="4">
         <v>44875</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A589" s="2">
         <v>44874</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A590" s="4">
         <v>44873</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A591" s="2">
         <v>44872</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="4">
         <v>44871</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2">
         <v>44870</v>
       </c>
@@ -15956,7 +15956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A594" s="4">
         <v>44869</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2">
         <v>44868</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A596" s="4">
         <v>44867</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A597" s="2">
         <v>44866</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A598" s="4">
         <v>44865</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A599" s="2">
         <v>44864</v>
       </c>
@@ -16112,7 +16112,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A600" s="4">
         <v>44863</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A601" s="2">
         <v>44862</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A602" s="2">
         <v>44861</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A603" s="4">
         <v>44860</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A604" s="2">
         <v>44859</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A605" s="4">
         <v>44858</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A606" s="2">
         <v>44857</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A607" s="4">
         <v>44856</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A608" s="2">
         <v>44855</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A609" s="4">
         <v>44854</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A610" s="2">
         <v>44853</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A611" s="4">
         <v>44852</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A612" s="2">
         <v>44851</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A613" s="4">
         <v>44850</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A614" s="2">
         <v>44849</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A615" s="4">
         <v>44848</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A616" s="2">
         <v>44847</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A617" s="2">
         <v>44846</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A618" s="4">
         <v>44845</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A619" s="2">
         <v>44844</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A620" s="4">
         <v>44843</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A621" s="2">
         <v>44842</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A622" s="4">
         <v>44841</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A623" s="2">
         <v>44840</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A624" s="4">
         <v>44839</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A625" s="2">
         <v>44838</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A626" s="4">
         <v>44837</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A627" s="2">
         <v>44836</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A628" s="4">
         <v>44835</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A629" s="2">
         <v>44834</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A630" s="4">
         <v>44833</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A631" s="2">
         <v>44832</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A632" s="2">
         <v>44831</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A633" s="4">
         <v>44830</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A634" s="2">
         <v>44829</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A635" s="4">
         <v>44828</v>
       </c>
@@ -17048,7 +17048,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A636" s="2">
         <v>44827</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A637" s="4">
         <v>44826</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A638" s="2">
         <v>44825</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A639" s="4">
         <v>44824</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="2">
         <v>44823</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A641" s="4">
         <v>44822</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A642" s="2">
         <v>44821</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A643" s="4">
         <v>44820</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A644" s="2">
         <v>44819</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A645" s="4">
         <v>44818</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A646" s="2">
         <v>44817</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A647" s="2">
         <v>44816</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A648" s="4">
         <v>44815</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="2">
         <v>44814</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A650" s="4">
         <v>44813</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A651" s="2">
         <v>44812</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A652" s="4">
         <v>44811</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A653" s="2">
         <v>44810</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A654" s="4">
         <v>44809</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A655" s="2">
         <v>44808</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A656" s="4">
         <v>44807</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A657" s="2">
         <v>44806</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A658" s="4">
         <v>44805</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="2">
         <v>44804</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A660" s="4">
         <v>44803</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A661" s="2">
         <v>44802</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A662" s="2">
         <v>44801</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A663" s="4">
         <v>44800</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A664" s="2">
         <v>44799</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A665" s="4">
         <v>44798</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A666" s="2">
         <v>44797</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A667" s="4">
         <v>44796</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A668" s="2">
         <v>44795</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A669" s="4">
         <v>44794</v>
       </c>
@@ -17932,7 +17932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A670" s="2">
         <v>44793</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A671" s="4">
         <v>44792</v>
       </c>
@@ -17984,7 +17984,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A672" s="2">
         <v>44791</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A673" s="4">
         <v>44790</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A674" s="2">
         <v>44789</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A675" s="4">
         <v>44788</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A676" s="2">
         <v>44787</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A677" s="2">
         <v>44786</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A678" s="4">
         <v>44785</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A679" s="2">
         <v>44784</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A680" s="4">
         <v>44783</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A681" s="2">
         <v>44782</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A682" s="4">
         <v>44781</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A683" s="2">
         <v>44780</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A684" s="4">
         <v>44779</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A685" s="2">
         <v>44778</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A686" s="4">
         <v>44777</v>
       </c>
@@ -18374,7 +18374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A687" s="2">
         <v>44776</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A688" s="4">
         <v>44775</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A689" s="2">
         <v>44774</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A690" s="4">
         <v>44773</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A691" s="2">
         <v>44772</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A692" s="2">
         <v>44771</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A693" s="4">
         <v>44770</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A694" s="2">
         <v>44769</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A695" s="4">
         <v>44768</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A696" s="2">
         <v>44767</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A697" s="4">
         <v>44766</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A698" s="2">
         <v>44765</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A699" s="4">
         <v>44764</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A700" s="2">
         <v>44763</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A701" s="4">
         <v>44762</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A702" s="2">
         <v>44761</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A703" s="4">
         <v>44760</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A704" s="2">
         <v>44759</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A705" s="4">
         <v>44758</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A706" s="2">
         <v>44757</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A707" s="2">
         <v>44756</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A708" s="4">
         <v>44755</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A709" s="2">
         <v>44754</v>
       </c>
@@ -18972,7 +18972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A710" s="4">
         <v>44753</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A711" s="2">
         <v>44752</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A712" s="4">
         <v>44751</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A713" s="2">
         <v>44750</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A714" s="4">
         <v>44749</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A715" s="2">
         <v>44748</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A716" s="4">
         <v>44747</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A717" s="2">
         <v>44746</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A718" s="4">
         <v>44745</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A719" s="2">
         <v>44744</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A720" s="4">
         <v>44743</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A721" s="2">
         <v>44742</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A722" s="2">
         <v>44741</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A723" s="4">
         <v>44740</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A724" s="2">
         <v>44739</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A725" s="4">
         <v>44738</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A726" s="2">
         <v>44737</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A727" s="4">
         <v>44736</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A728" s="2">
         <v>44735</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A729" s="4">
         <v>44734</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A730" s="2">
         <v>44733</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A731" s="4">
         <v>44732</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A732" s="2">
         <v>44731</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A733" s="4">
         <v>44730</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A734" s="2">
         <v>44729</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A735" s="4">
         <v>44728</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A736" s="2">
         <v>44727</v>
       </c>
